--- a/DOC/基本設計/基本設計_ems_有給状況_2024.xlsx
+++ b/DOC/基本設計/基本設計_ems_有給状況_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\workspace\2020\ems\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DBA31F-E3B4-4CCE-B658-38917CE308EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4917FE3A-A242-4364-AB79-4CD0AFEBC643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="833" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="1284" windowWidth="9360" windowHeight="8760" tabRatio="833" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -2416,7 +2416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2736,6 +2736,75 @@
     <xf numFmtId="0" fontId="50" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2787,6 +2856,96 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="46" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="3" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="3" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="3" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2802,6 +2961,9 @@
     <xf numFmtId="0" fontId="46" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2817,97 +2979,124 @@
     <xf numFmtId="49" fontId="46" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="46" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="3" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="3" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="3" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2925,6 +3114,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2940,698 +3132,503 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="40" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4548,16 +4545,16 @@
     </row>
     <row r="15" spans="1:24" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -4570,54 +4567,54 @@
     </row>
     <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="G18" s="116" t="s">
+      <c r="G18" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="118"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="141"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="G19" s="119" t="s">
+      <c r="G19" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="121"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="144"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="124"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="147"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -4626,54 +4623,54 @@
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="G22" s="116" t="s">
+      <c r="G22" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="126"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="149"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="G23" s="119" t="s">
+      <c r="G23" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="128"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="151"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="131"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="154"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -5667,34 +5664,34 @@
       <c r="BN1" s="102"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
       <c r="AA2" s="81"/>
       <c r="AB2" s="81"/>
       <c r="AC2" s="81"/>
@@ -5737,32 +5734,32 @@
       <c r="BN2" s="105"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="133"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="186"/>
       <c r="AA3" s="81"/>
       <c r="AB3" s="81"/>
       <c r="AC3" s="81"/>
@@ -5805,166 +5802,166 @@
       <c r="BN3" s="106"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="344" t="s">
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139" t="s">
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="343" t="s">
+      <c r="P4" s="194"/>
+      <c r="Q4" s="194"/>
+      <c r="R4" s="194"/>
+      <c r="S4" s="194"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="142"/>
-      <c r="AD4" s="142"/>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="142"/>
-      <c r="AG4" s="142"/>
-      <c r="AH4" s="142"/>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="142"/>
-      <c r="AL4" s="142"/>
-      <c r="AM4" s="142"/>
-      <c r="AN4" s="142"/>
-      <c r="AO4" s="142"/>
-      <c r="AP4" s="142"/>
-      <c r="AQ4" s="142"/>
-      <c r="AR4" s="142"/>
-      <c r="AS4" s="142"/>
-      <c r="AT4" s="142"/>
-      <c r="AU4" s="142"/>
-      <c r="AV4" s="143"/>
-      <c r="AW4" s="144" t="s">
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="197"/>
+      <c r="AF4" s="197"/>
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="197"/>
+      <c r="AM4" s="197"/>
+      <c r="AN4" s="197"/>
+      <c r="AO4" s="197"/>
+      <c r="AP4" s="197"/>
+      <c r="AQ4" s="197"/>
+      <c r="AR4" s="197"/>
+      <c r="AS4" s="197"/>
+      <c r="AT4" s="197"/>
+      <c r="AU4" s="197"/>
+      <c r="AV4" s="198"/>
+      <c r="AW4" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="145"/>
-      <c r="AY4" s="146"/>
-      <c r="AZ4" s="147">
+      <c r="AX4" s="167"/>
+      <c r="AY4" s="168"/>
+      <c r="AZ4" s="169">
         <v>45427</v>
       </c>
-      <c r="BA4" s="148"/>
-      <c r="BB4" s="148"/>
-      <c r="BC4" s="148"/>
-      <c r="BD4" s="148"/>
-      <c r="BE4" s="148"/>
-      <c r="BF4" s="144" t="s">
+      <c r="BA4" s="170"/>
+      <c r="BB4" s="170"/>
+      <c r="BC4" s="170"/>
+      <c r="BD4" s="170"/>
+      <c r="BE4" s="170"/>
+      <c r="BF4" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="145"/>
-      <c r="BH4" s="146"/>
-      <c r="BI4" s="410" t="s">
+      <c r="BG4" s="167"/>
+      <c r="BH4" s="168"/>
+      <c r="BI4" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="BJ4" s="148"/>
-      <c r="BK4" s="148"/>
-      <c r="BL4" s="148"/>
-      <c r="BM4" s="148"/>
-      <c r="BN4" s="149"/>
+      <c r="BJ4" s="170"/>
+      <c r="BK4" s="170"/>
+      <c r="BL4" s="170"/>
+      <c r="BM4" s="170"/>
+      <c r="BN4" s="172"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="153" t="s">
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="150" t="s">
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="151"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
-      <c r="X5" s="156"/>
-      <c r="Y5" s="156"/>
-      <c r="Z5" s="156"/>
-      <c r="AA5" s="156"/>
-      <c r="AB5" s="156"/>
-      <c r="AC5" s="156"/>
-      <c r="AD5" s="156"/>
-      <c r="AE5" s="156"/>
-      <c r="AF5" s="156"/>
-      <c r="AG5" s="156"/>
-      <c r="AH5" s="156"/>
-      <c r="AI5" s="156"/>
-      <c r="AJ5" s="156"/>
-      <c r="AK5" s="156"/>
-      <c r="AL5" s="156"/>
-      <c r="AM5" s="156"/>
-      <c r="AN5" s="156"/>
-      <c r="AO5" s="156"/>
-      <c r="AP5" s="156"/>
-      <c r="AQ5" s="156"/>
-      <c r="AR5" s="156"/>
-      <c r="AS5" s="156"/>
-      <c r="AT5" s="156"/>
-      <c r="AU5" s="156"/>
-      <c r="AV5" s="157"/>
-      <c r="AW5" s="158" t="s">
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="175"/>
+      <c r="U5" s="178"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="179"/>
+      <c r="Y5" s="179"/>
+      <c r="Z5" s="179"/>
+      <c r="AA5" s="179"/>
+      <c r="AB5" s="179"/>
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="179"/>
+      <c r="AE5" s="179"/>
+      <c r="AF5" s="179"/>
+      <c r="AG5" s="179"/>
+      <c r="AH5" s="179"/>
+      <c r="AI5" s="179"/>
+      <c r="AJ5" s="179"/>
+      <c r="AK5" s="179"/>
+      <c r="AL5" s="179"/>
+      <c r="AM5" s="179"/>
+      <c r="AN5" s="179"/>
+      <c r="AO5" s="179"/>
+      <c r="AP5" s="179"/>
+      <c r="AQ5" s="179"/>
+      <c r="AR5" s="179"/>
+      <c r="AS5" s="179"/>
+      <c r="AT5" s="179"/>
+      <c r="AU5" s="179"/>
+      <c r="AV5" s="180"/>
+      <c r="AW5" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="AX5" s="158"/>
-      <c r="AY5" s="159"/>
-      <c r="AZ5" s="158"/>
-      <c r="BA5" s="158"/>
-      <c r="BB5" s="158"/>
-      <c r="BC5" s="158"/>
-      <c r="BD5" s="158"/>
-      <c r="BE5" s="158"/>
-      <c r="BF5" s="160" t="s">
+      <c r="AX5" s="181"/>
+      <c r="AY5" s="182"/>
+      <c r="AZ5" s="181"/>
+      <c r="BA5" s="181"/>
+      <c r="BB5" s="181"/>
+      <c r="BC5" s="181"/>
+      <c r="BD5" s="181"/>
+      <c r="BE5" s="181"/>
+      <c r="BF5" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="158"/>
-      <c r="BH5" s="159"/>
-      <c r="BI5" s="158"/>
-      <c r="BJ5" s="161"/>
-      <c r="BK5" s="161"/>
-      <c r="BL5" s="161"/>
-      <c r="BM5" s="161"/>
-      <c r="BN5" s="157"/>
+      <c r="BG5" s="181"/>
+      <c r="BH5" s="182"/>
+      <c r="BI5" s="181"/>
+      <c r="BJ5" s="184"/>
+      <c r="BK5" s="184"/>
+      <c r="BL5" s="184"/>
+      <c r="BM5" s="184"/>
+      <c r="BN5" s="180"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107"/>
@@ -6015,25 +6012,25 @@
       <c r="AT6" s="81"/>
       <c r="AU6" s="81"/>
       <c r="AV6" s="88"/>
-      <c r="AW6" s="162" t="s">
+      <c r="AW6" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="AX6" s="163"/>
-      <c r="AY6" s="163"/>
-      <c r="AZ6" s="163"/>
-      <c r="BA6" s="163"/>
-      <c r="BB6" s="163"/>
-      <c r="BC6" s="163"/>
-      <c r="BD6" s="163"/>
-      <c r="BE6" s="163"/>
-      <c r="BF6" s="163"/>
-      <c r="BG6" s="163"/>
-      <c r="BH6" s="163"/>
-      <c r="BI6" s="163"/>
-      <c r="BJ6" s="163"/>
-      <c r="BK6" s="163"/>
-      <c r="BL6" s="163"/>
-      <c r="BM6" s="164"/>
+      <c r="AX6" s="161"/>
+      <c r="AY6" s="161"/>
+      <c r="AZ6" s="161"/>
+      <c r="BA6" s="161"/>
+      <c r="BB6" s="161"/>
+      <c r="BC6" s="161"/>
+      <c r="BD6" s="161"/>
+      <c r="BE6" s="161"/>
+      <c r="BF6" s="161"/>
+      <c r="BG6" s="161"/>
+      <c r="BH6" s="161"/>
+      <c r="BI6" s="161"/>
+      <c r="BJ6" s="161"/>
+      <c r="BK6" s="161"/>
+      <c r="BL6" s="161"/>
+      <c r="BM6" s="162"/>
       <c r="BN6" s="88"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -6085,23 +6082,23 @@
       <c r="AT7" s="81"/>
       <c r="AU7" s="81"/>
       <c r="AV7" s="88"/>
-      <c r="AW7" s="165"/>
-      <c r="AX7" s="166"/>
-      <c r="AY7" s="166"/>
-      <c r="AZ7" s="166"/>
-      <c r="BA7" s="166"/>
-      <c r="BB7" s="166"/>
-      <c r="BC7" s="166"/>
-      <c r="BD7" s="166"/>
-      <c r="BE7" s="166"/>
-      <c r="BF7" s="166"/>
-      <c r="BG7" s="166"/>
-      <c r="BH7" s="166"/>
-      <c r="BI7" s="166"/>
-      <c r="BJ7" s="166"/>
-      <c r="BK7" s="166"/>
-      <c r="BL7" s="166"/>
-      <c r="BM7" s="167"/>
+      <c r="AW7" s="163"/>
+      <c r="AX7" s="164"/>
+      <c r="AY7" s="164"/>
+      <c r="AZ7" s="164"/>
+      <c r="BA7" s="164"/>
+      <c r="BB7" s="164"/>
+      <c r="BC7" s="164"/>
+      <c r="BD7" s="164"/>
+      <c r="BE7" s="164"/>
+      <c r="BF7" s="164"/>
+      <c r="BG7" s="164"/>
+      <c r="BH7" s="164"/>
+      <c r="BI7" s="164"/>
+      <c r="BJ7" s="164"/>
+      <c r="BK7" s="164"/>
+      <c r="BL7" s="164"/>
+      <c r="BM7" s="165"/>
       <c r="BN7" s="88"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -6153,7 +6150,7 @@
       <c r="AT8" s="81"/>
       <c r="AU8" s="81"/>
       <c r="AV8" s="88"/>
-      <c r="AW8" s="346" t="s">
+      <c r="AW8" s="115" t="s">
         <v>54</v>
       </c>
       <c r="AX8" s="81"/>
@@ -6163,15 +6160,15 @@
       <c r="BB8" s="81"/>
       <c r="BC8" s="81"/>
       <c r="BD8" s="81"/>
-      <c r="BE8" s="168"/>
-      <c r="BF8" s="169"/>
-      <c r="BG8" s="169"/>
-      <c r="BH8" s="169"/>
-      <c r="BI8" s="169"/>
-      <c r="BJ8" s="169"/>
-      <c r="BK8" s="169"/>
-      <c r="BL8" s="169"/>
-      <c r="BM8" s="170"/>
+      <c r="BE8" s="159"/>
+      <c r="BF8" s="157"/>
+      <c r="BG8" s="157"/>
+      <c r="BH8" s="157"/>
+      <c r="BI8" s="157"/>
+      <c r="BJ8" s="157"/>
+      <c r="BK8" s="157"/>
+      <c r="BL8" s="157"/>
+      <c r="BM8" s="158"/>
       <c r="BN8" s="88"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -6226,22 +6223,22 @@
       <c r="AW9" s="112"/>
       <c r="AX9" s="81"/>
       <c r="AY9" s="81"/>
-      <c r="AZ9" s="345" t="s">
+      <c r="AZ9" s="115" t="s">
         <v>53</v>
       </c>
       <c r="BA9" s="81"/>
       <c r="BB9" s="81"/>
       <c r="BC9" s="81"/>
       <c r="BD9" s="81"/>
-      <c r="BE9" s="168"/>
-      <c r="BF9" s="169"/>
-      <c r="BG9" s="169"/>
-      <c r="BH9" s="169"/>
-      <c r="BI9" s="169"/>
-      <c r="BJ9" s="169"/>
-      <c r="BK9" s="169"/>
-      <c r="BL9" s="169"/>
-      <c r="BM9" s="170"/>
+      <c r="BE9" s="159"/>
+      <c r="BF9" s="157"/>
+      <c r="BG9" s="157"/>
+      <c r="BH9" s="157"/>
+      <c r="BI9" s="157"/>
+      <c r="BJ9" s="157"/>
+      <c r="BK9" s="157"/>
+      <c r="BL9" s="157"/>
+      <c r="BM9" s="158"/>
       <c r="BN9" s="88"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7388,15 +7385,15 @@
       <c r="BB26" s="81"/>
       <c r="BC26" s="81"/>
       <c r="BD26" s="81"/>
-      <c r="BE26" s="168"/>
-      <c r="BF26" s="169"/>
-      <c r="BG26" s="169"/>
-      <c r="BH26" s="169"/>
-      <c r="BI26" s="169"/>
-      <c r="BJ26" s="169"/>
-      <c r="BK26" s="169"/>
-      <c r="BL26" s="169"/>
-      <c r="BM26" s="170"/>
+      <c r="BE26" s="159"/>
+      <c r="BF26" s="157"/>
+      <c r="BG26" s="157"/>
+      <c r="BH26" s="157"/>
+      <c r="BI26" s="157"/>
+      <c r="BJ26" s="157"/>
+      <c r="BK26" s="157"/>
+      <c r="BL26" s="157"/>
+      <c r="BM26" s="158"/>
       <c r="BN26" s="88"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7456,15 +7453,15 @@
       <c r="BB27" s="81"/>
       <c r="BC27" s="81"/>
       <c r="BD27" s="81"/>
-      <c r="BE27" s="168"/>
-      <c r="BF27" s="169"/>
-      <c r="BG27" s="169"/>
-      <c r="BH27" s="169"/>
-      <c r="BI27" s="169"/>
-      <c r="BJ27" s="169"/>
-      <c r="BK27" s="169"/>
-      <c r="BL27" s="169"/>
-      <c r="BM27" s="170"/>
+      <c r="BE27" s="159"/>
+      <c r="BF27" s="157"/>
+      <c r="BG27" s="157"/>
+      <c r="BH27" s="157"/>
+      <c r="BI27" s="157"/>
+      <c r="BJ27" s="157"/>
+      <c r="BK27" s="157"/>
+      <c r="BL27" s="157"/>
+      <c r="BM27" s="158"/>
       <c r="BN27" s="88"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7524,15 +7521,15 @@
       <c r="BB28" s="81"/>
       <c r="BC28" s="81"/>
       <c r="BD28" s="81"/>
-      <c r="BE28" s="168"/>
-      <c r="BF28" s="169"/>
-      <c r="BG28" s="169"/>
-      <c r="BH28" s="169"/>
-      <c r="BI28" s="169"/>
-      <c r="BJ28" s="169"/>
-      <c r="BK28" s="169"/>
-      <c r="BL28" s="169"/>
-      <c r="BM28" s="170"/>
+      <c r="BE28" s="159"/>
+      <c r="BF28" s="157"/>
+      <c r="BG28" s="157"/>
+      <c r="BH28" s="157"/>
+      <c r="BI28" s="157"/>
+      <c r="BJ28" s="157"/>
+      <c r="BK28" s="157"/>
+      <c r="BL28" s="157"/>
+      <c r="BM28" s="158"/>
       <c r="BN28" s="88"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7592,15 +7589,15 @@
       <c r="BB29" s="81"/>
       <c r="BC29" s="81"/>
       <c r="BD29" s="81"/>
-      <c r="BE29" s="168"/>
-      <c r="BF29" s="169"/>
-      <c r="BG29" s="169"/>
-      <c r="BH29" s="169"/>
-      <c r="BI29" s="169"/>
-      <c r="BJ29" s="169"/>
-      <c r="BK29" s="169"/>
-      <c r="BL29" s="169"/>
-      <c r="BM29" s="170"/>
+      <c r="BE29" s="159"/>
+      <c r="BF29" s="157"/>
+      <c r="BG29" s="157"/>
+      <c r="BH29" s="157"/>
+      <c r="BI29" s="157"/>
+      <c r="BJ29" s="157"/>
+      <c r="BK29" s="157"/>
+      <c r="BL29" s="157"/>
+      <c r="BM29" s="158"/>
       <c r="BN29" s="88"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7660,15 +7657,15 @@
       <c r="BB30" s="81"/>
       <c r="BC30" s="81"/>
       <c r="BD30" s="81"/>
-      <c r="BE30" s="169"/>
-      <c r="BF30" s="169"/>
-      <c r="BG30" s="169"/>
-      <c r="BH30" s="169"/>
-      <c r="BI30" s="169"/>
-      <c r="BJ30" s="169"/>
-      <c r="BK30" s="169"/>
-      <c r="BL30" s="169"/>
-      <c r="BM30" s="170"/>
+      <c r="BE30" s="157"/>
+      <c r="BF30" s="157"/>
+      <c r="BG30" s="157"/>
+      <c r="BH30" s="157"/>
+      <c r="BI30" s="157"/>
+      <c r="BJ30" s="157"/>
+      <c r="BK30" s="157"/>
+      <c r="BL30" s="157"/>
+      <c r="BM30" s="158"/>
       <c r="BN30" s="88"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7728,15 +7725,15 @@
       <c r="BB31" s="81"/>
       <c r="BC31" s="81"/>
       <c r="BD31" s="81"/>
-      <c r="BE31" s="169"/>
-      <c r="BF31" s="169"/>
-      <c r="BG31" s="169"/>
-      <c r="BH31" s="169"/>
-      <c r="BI31" s="169"/>
-      <c r="BJ31" s="169"/>
-      <c r="BK31" s="169"/>
-      <c r="BL31" s="169"/>
-      <c r="BM31" s="170"/>
+      <c r="BE31" s="157"/>
+      <c r="BF31" s="157"/>
+      <c r="BG31" s="157"/>
+      <c r="BH31" s="157"/>
+      <c r="BI31" s="157"/>
+      <c r="BJ31" s="157"/>
+      <c r="BK31" s="157"/>
+      <c r="BL31" s="157"/>
+      <c r="BM31" s="158"/>
       <c r="BN31" s="88"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7796,15 +7793,15 @@
       <c r="BB32" s="81"/>
       <c r="BC32" s="81"/>
       <c r="BD32" s="81"/>
-      <c r="BE32" s="169"/>
-      <c r="BF32" s="169"/>
-      <c r="BG32" s="169"/>
-      <c r="BH32" s="169"/>
-      <c r="BI32" s="169"/>
-      <c r="BJ32" s="169"/>
-      <c r="BK32" s="169"/>
-      <c r="BL32" s="169"/>
-      <c r="BM32" s="170"/>
+      <c r="BE32" s="157"/>
+      <c r="BF32" s="157"/>
+      <c r="BG32" s="157"/>
+      <c r="BH32" s="157"/>
+      <c r="BI32" s="157"/>
+      <c r="BJ32" s="157"/>
+      <c r="BK32" s="157"/>
+      <c r="BL32" s="157"/>
+      <c r="BM32" s="158"/>
       <c r="BN32" s="88"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7864,15 +7861,15 @@
       <c r="BB33" s="81"/>
       <c r="BC33" s="81"/>
       <c r="BD33" s="81"/>
-      <c r="BE33" s="168"/>
-      <c r="BF33" s="169"/>
-      <c r="BG33" s="169"/>
-      <c r="BH33" s="169"/>
-      <c r="BI33" s="169"/>
-      <c r="BJ33" s="169"/>
-      <c r="BK33" s="169"/>
-      <c r="BL33" s="169"/>
-      <c r="BM33" s="170"/>
+      <c r="BE33" s="159"/>
+      <c r="BF33" s="157"/>
+      <c r="BG33" s="157"/>
+      <c r="BH33" s="157"/>
+      <c r="BI33" s="157"/>
+      <c r="BJ33" s="157"/>
+      <c r="BK33" s="157"/>
+      <c r="BL33" s="157"/>
+      <c r="BM33" s="158"/>
       <c r="BN33" s="88"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7932,15 +7929,15 @@
       <c r="BB34" s="81"/>
       <c r="BC34" s="81"/>
       <c r="BD34" s="81"/>
-      <c r="BE34" s="169"/>
-      <c r="BF34" s="169"/>
-      <c r="BG34" s="169"/>
-      <c r="BH34" s="169"/>
-      <c r="BI34" s="169"/>
-      <c r="BJ34" s="169"/>
-      <c r="BK34" s="169"/>
-      <c r="BL34" s="169"/>
-      <c r="BM34" s="170"/>
+      <c r="BE34" s="157"/>
+      <c r="BF34" s="157"/>
+      <c r="BG34" s="157"/>
+      <c r="BH34" s="157"/>
+      <c r="BI34" s="157"/>
+      <c r="BJ34" s="157"/>
+      <c r="BK34" s="157"/>
+      <c r="BL34" s="157"/>
+      <c r="BM34" s="158"/>
       <c r="BN34" s="88"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8000,15 +7997,15 @@
       <c r="BB35" s="81"/>
       <c r="BC35" s="81"/>
       <c r="BD35" s="81"/>
-      <c r="BE35" s="169"/>
-      <c r="BF35" s="169"/>
-      <c r="BG35" s="169"/>
-      <c r="BH35" s="169"/>
-      <c r="BI35" s="169"/>
-      <c r="BJ35" s="169"/>
-      <c r="BK35" s="169"/>
-      <c r="BL35" s="169"/>
-      <c r="BM35" s="170"/>
+      <c r="BE35" s="157"/>
+      <c r="BF35" s="157"/>
+      <c r="BG35" s="157"/>
+      <c r="BH35" s="157"/>
+      <c r="BI35" s="157"/>
+      <c r="BJ35" s="157"/>
+      <c r="BK35" s="157"/>
+      <c r="BL35" s="157"/>
+      <c r="BM35" s="158"/>
       <c r="BN35" s="88"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8068,15 +8065,15 @@
       <c r="BB36" s="81"/>
       <c r="BC36" s="81"/>
       <c r="BD36" s="81"/>
-      <c r="BE36" s="169"/>
-      <c r="BF36" s="169"/>
-      <c r="BG36" s="169"/>
-      <c r="BH36" s="169"/>
-      <c r="BI36" s="169"/>
-      <c r="BJ36" s="169"/>
-      <c r="BK36" s="169"/>
-      <c r="BL36" s="169"/>
-      <c r="BM36" s="170"/>
+      <c r="BE36" s="157"/>
+      <c r="BF36" s="157"/>
+      <c r="BG36" s="157"/>
+      <c r="BH36" s="157"/>
+      <c r="BI36" s="157"/>
+      <c r="BJ36" s="157"/>
+      <c r="BK36" s="157"/>
+      <c r="BL36" s="157"/>
+      <c r="BM36" s="158"/>
       <c r="BN36" s="88"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8136,15 +8133,15 @@
       <c r="BB37" s="81"/>
       <c r="BC37" s="81"/>
       <c r="BD37" s="81"/>
-      <c r="BE37" s="169"/>
-      <c r="BF37" s="169"/>
-      <c r="BG37" s="169"/>
-      <c r="BH37" s="169"/>
-      <c r="BI37" s="169"/>
-      <c r="BJ37" s="169"/>
-      <c r="BK37" s="169"/>
-      <c r="BL37" s="169"/>
-      <c r="BM37" s="170"/>
+      <c r="BE37" s="157"/>
+      <c r="BF37" s="157"/>
+      <c r="BG37" s="157"/>
+      <c r="BH37" s="157"/>
+      <c r="BI37" s="157"/>
+      <c r="BJ37" s="157"/>
+      <c r="BK37" s="157"/>
+      <c r="BL37" s="157"/>
+      <c r="BM37" s="158"/>
       <c r="BN37" s="88"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8204,15 +8201,15 @@
       <c r="BB38" s="81"/>
       <c r="BC38" s="81"/>
       <c r="BD38" s="81"/>
-      <c r="BE38" s="169"/>
-      <c r="BF38" s="169"/>
-      <c r="BG38" s="169"/>
-      <c r="BH38" s="169"/>
-      <c r="BI38" s="169"/>
-      <c r="BJ38" s="169"/>
-      <c r="BK38" s="169"/>
-      <c r="BL38" s="169"/>
-      <c r="BM38" s="170"/>
+      <c r="BE38" s="157"/>
+      <c r="BF38" s="157"/>
+      <c r="BG38" s="157"/>
+      <c r="BH38" s="157"/>
+      <c r="BI38" s="157"/>
+      <c r="BJ38" s="157"/>
+      <c r="BK38" s="157"/>
+      <c r="BL38" s="157"/>
+      <c r="BM38" s="158"/>
       <c r="BN38" s="88"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8272,15 +8269,15 @@
       <c r="BB39" s="81"/>
       <c r="BC39" s="81"/>
       <c r="BD39" s="81"/>
-      <c r="BE39" s="169"/>
-      <c r="BF39" s="169"/>
-      <c r="BG39" s="169"/>
-      <c r="BH39" s="169"/>
-      <c r="BI39" s="169"/>
-      <c r="BJ39" s="169"/>
-      <c r="BK39" s="169"/>
-      <c r="BL39" s="169"/>
-      <c r="BM39" s="170"/>
+      <c r="BE39" s="157"/>
+      <c r="BF39" s="157"/>
+      <c r="BG39" s="157"/>
+      <c r="BH39" s="157"/>
+      <c r="BI39" s="157"/>
+      <c r="BJ39" s="157"/>
+      <c r="BK39" s="157"/>
+      <c r="BL39" s="157"/>
+      <c r="BM39" s="158"/>
       <c r="BN39" s="88"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8340,15 +8337,15 @@
       <c r="BB40" s="81"/>
       <c r="BC40" s="81"/>
       <c r="BD40" s="81"/>
-      <c r="BE40" s="169"/>
-      <c r="BF40" s="169"/>
-      <c r="BG40" s="169"/>
-      <c r="BH40" s="169"/>
-      <c r="BI40" s="169"/>
-      <c r="BJ40" s="169"/>
-      <c r="BK40" s="169"/>
-      <c r="BL40" s="169"/>
-      <c r="BM40" s="170"/>
+      <c r="BE40" s="157"/>
+      <c r="BF40" s="157"/>
+      <c r="BG40" s="157"/>
+      <c r="BH40" s="157"/>
+      <c r="BI40" s="157"/>
+      <c r="BJ40" s="157"/>
+      <c r="BK40" s="157"/>
+      <c r="BL40" s="157"/>
+      <c r="BM40" s="158"/>
       <c r="BN40" s="88"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8408,15 +8405,15 @@
       <c r="BB41" s="81"/>
       <c r="BC41" s="81"/>
       <c r="BD41" s="81"/>
-      <c r="BE41" s="169"/>
-      <c r="BF41" s="169"/>
-      <c r="BG41" s="169"/>
-      <c r="BH41" s="169"/>
-      <c r="BI41" s="169"/>
-      <c r="BJ41" s="169"/>
-      <c r="BK41" s="169"/>
-      <c r="BL41" s="169"/>
-      <c r="BM41" s="170"/>
+      <c r="BE41" s="157"/>
+      <c r="BF41" s="157"/>
+      <c r="BG41" s="157"/>
+      <c r="BH41" s="157"/>
+      <c r="BI41" s="157"/>
+      <c r="BJ41" s="157"/>
+      <c r="BK41" s="157"/>
+      <c r="BL41" s="157"/>
+      <c r="BM41" s="158"/>
       <c r="BN41" s="88"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8476,15 +8473,15 @@
       <c r="BB42" s="81"/>
       <c r="BC42" s="81"/>
       <c r="BD42" s="81"/>
-      <c r="BE42" s="169"/>
-      <c r="BF42" s="169"/>
-      <c r="BG42" s="169"/>
-      <c r="BH42" s="169"/>
-      <c r="BI42" s="169"/>
-      <c r="BJ42" s="169"/>
-      <c r="BK42" s="169"/>
-      <c r="BL42" s="169"/>
-      <c r="BM42" s="170"/>
+      <c r="BE42" s="157"/>
+      <c r="BF42" s="157"/>
+      <c r="BG42" s="157"/>
+      <c r="BH42" s="157"/>
+      <c r="BI42" s="157"/>
+      <c r="BJ42" s="157"/>
+      <c r="BK42" s="157"/>
+      <c r="BL42" s="157"/>
+      <c r="BM42" s="158"/>
       <c r="BN42" s="88"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8544,15 +8541,15 @@
       <c r="BB43" s="110"/>
       <c r="BC43" s="110"/>
       <c r="BD43" s="110"/>
-      <c r="BE43" s="171"/>
-      <c r="BF43" s="171"/>
-      <c r="BG43" s="171"/>
-      <c r="BH43" s="171"/>
-      <c r="BI43" s="171"/>
-      <c r="BJ43" s="171"/>
-      <c r="BK43" s="171"/>
-      <c r="BL43" s="171"/>
-      <c r="BM43" s="172"/>
+      <c r="BE43" s="155"/>
+      <c r="BF43" s="155"/>
+      <c r="BG43" s="155"/>
+      <c r="BH43" s="155"/>
+      <c r="BI43" s="155"/>
+      <c r="BJ43" s="155"/>
+      <c r="BK43" s="155"/>
+      <c r="BL43" s="155"/>
+      <c r="BM43" s="156"/>
       <c r="BN43" s="111"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8625,27 +8622,11 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BE43:BM43"/>
-    <mergeCell ref="BE38:BM38"/>
-    <mergeCell ref="BE39:BM39"/>
-    <mergeCell ref="BE40:BM40"/>
-    <mergeCell ref="BE41:BM41"/>
-    <mergeCell ref="BE42:BM42"/>
-    <mergeCell ref="BE33:BM33"/>
-    <mergeCell ref="BE34:BM34"/>
-    <mergeCell ref="BE35:BM35"/>
-    <mergeCell ref="BE36:BM36"/>
-    <mergeCell ref="BE37:BM37"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE32:BM32"/>
-    <mergeCell ref="AW6:BM7"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -8658,11 +8639,27 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW6:BM7"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE43:BM43"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
   </mergeCells>
   <phoneticPr fontId="51"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8878,34 +8875,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="237"/>
       <c r="AQ1" s="25"/>
       <c r="AR1" s="25"/>
       <c r="AS1" s="25"/>
@@ -8932,166 +8929,166 @@
       <c r="BN1" s="27"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="347" t="s">
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="180" t="s">
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="243"/>
+      <c r="O2" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="348" t="s">
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="247" t="s">
         <v>100</v>
       </c>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="183"/>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="183"/>
-      <c r="AJ2" s="183"/>
-      <c r="AK2" s="183"/>
-      <c r="AL2" s="183"/>
-      <c r="AM2" s="183"/>
-      <c r="AN2" s="183"/>
-      <c r="AO2" s="183"/>
-      <c r="AP2" s="183"/>
-      <c r="AQ2" s="183"/>
-      <c r="AR2" s="183"/>
-      <c r="AS2" s="183"/>
-      <c r="AT2" s="183"/>
-      <c r="AU2" s="183"/>
-      <c r="AV2" s="184"/>
-      <c r="AW2" s="185" t="s">
+      <c r="V2" s="248"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="248"/>
+      <c r="Y2" s="248"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="248"/>
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="248"/>
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="248"/>
+      <c r="AG2" s="248"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
+      <c r="AN2" s="248"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="248"/>
+      <c r="AQ2" s="248"/>
+      <c r="AR2" s="248"/>
+      <c r="AS2" s="248"/>
+      <c r="AT2" s="248"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="249"/>
+      <c r="AW2" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="186"/>
-      <c r="AY2" s="187"/>
-      <c r="AZ2" s="188">
+      <c r="AX2" s="224"/>
+      <c r="AY2" s="225"/>
+      <c r="AZ2" s="221">
         <v>45427</v>
       </c>
-      <c r="BA2" s="189"/>
-      <c r="BB2" s="189"/>
-      <c r="BC2" s="189"/>
-      <c r="BD2" s="189"/>
-      <c r="BE2" s="189"/>
-      <c r="BF2" s="185" t="s">
+      <c r="BA2" s="222"/>
+      <c r="BB2" s="222"/>
+      <c r="BC2" s="222"/>
+      <c r="BD2" s="222"/>
+      <c r="BE2" s="222"/>
+      <c r="BF2" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="BG2" s="186"/>
-      <c r="BH2" s="187"/>
-      <c r="BI2" s="411" t="s">
+      <c r="BG2" s="224"/>
+      <c r="BH2" s="225"/>
+      <c r="BI2" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="BJ2" s="189"/>
-      <c r="BK2" s="189"/>
-      <c r="BL2" s="189"/>
-      <c r="BM2" s="189"/>
-      <c r="BN2" s="190"/>
+      <c r="BJ2" s="222"/>
+      <c r="BK2" s="222"/>
+      <c r="BL2" s="222"/>
+      <c r="BM2" s="222"/>
+      <c r="BN2" s="227"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="228" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194" t="s">
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="191" t="s">
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="197"/>
-      <c r="AJ3" s="197"/>
-      <c r="AK3" s="197"/>
-      <c r="AL3" s="197"/>
-      <c r="AM3" s="197"/>
-      <c r="AN3" s="197"/>
-      <c r="AO3" s="197"/>
-      <c r="AP3" s="197"/>
-      <c r="AQ3" s="197"/>
-      <c r="AR3" s="197"/>
-      <c r="AS3" s="197"/>
-      <c r="AT3" s="197"/>
-      <c r="AU3" s="197"/>
-      <c r="AV3" s="198"/>
-      <c r="AW3" s="199" t="s">
+      <c r="P3" s="229"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="233"/>
+      <c r="V3" s="212"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="212"/>
+      <c r="Y3" s="212"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="212"/>
+      <c r="AD3" s="212"/>
+      <c r="AE3" s="212"/>
+      <c r="AF3" s="212"/>
+      <c r="AG3" s="212"/>
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="212"/>
+      <c r="AJ3" s="212"/>
+      <c r="AK3" s="212"/>
+      <c r="AL3" s="212"/>
+      <c r="AM3" s="212"/>
+      <c r="AN3" s="212"/>
+      <c r="AO3" s="212"/>
+      <c r="AP3" s="212"/>
+      <c r="AQ3" s="212"/>
+      <c r="AR3" s="212"/>
+      <c r="AS3" s="212"/>
+      <c r="AT3" s="212"/>
+      <c r="AU3" s="212"/>
+      <c r="AV3" s="213"/>
+      <c r="AW3" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="AX3" s="200"/>
-      <c r="AY3" s="201"/>
-      <c r="AZ3" s="200"/>
-      <c r="BA3" s="200"/>
-      <c r="BB3" s="200"/>
-      <c r="BC3" s="200"/>
-      <c r="BD3" s="200"/>
-      <c r="BE3" s="200"/>
-      <c r="BF3" s="199" t="s">
+      <c r="AX3" s="211"/>
+      <c r="AY3" s="235"/>
+      <c r="AZ3" s="211"/>
+      <c r="BA3" s="211"/>
+      <c r="BB3" s="211"/>
+      <c r="BC3" s="211"/>
+      <c r="BD3" s="211"/>
+      <c r="BE3" s="211"/>
+      <c r="BF3" s="234" t="s">
         <v>17</v>
       </c>
-      <c r="BG3" s="200"/>
-      <c r="BH3" s="201"/>
-      <c r="BI3" s="200"/>
-      <c r="BJ3" s="197"/>
-      <c r="BK3" s="197"/>
-      <c r="BL3" s="197"/>
-      <c r="BM3" s="197"/>
-      <c r="BN3" s="198"/>
+      <c r="BG3" s="211"/>
+      <c r="BH3" s="235"/>
+      <c r="BI3" s="211"/>
+      <c r="BJ3" s="212"/>
+      <c r="BK3" s="212"/>
+      <c r="BL3" s="212"/>
+      <c r="BM3" s="212"/>
+      <c r="BN3" s="213"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
@@ -9135,36 +9132,36 @@
       <c r="AM4" s="29"/>
       <c r="AN4" s="29"/>
       <c r="AO4" s="29"/>
-      <c r="AP4" s="202" t="s">
+      <c r="AP4" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="AQ4" s="203"/>
-      <c r="AR4" s="203"/>
-      <c r="AS4" s="204" t="s">
+      <c r="AQ4" s="215"/>
+      <c r="AR4" s="215"/>
+      <c r="AS4" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="AT4" s="204"/>
-      <c r="AU4" s="204"/>
-      <c r="AV4" s="204"/>
-      <c r="AW4" s="204"/>
-      <c r="AX4" s="204"/>
-      <c r="AY4" s="204"/>
-      <c r="AZ4" s="204"/>
-      <c r="BA4" s="204"/>
-      <c r="BB4" s="204"/>
-      <c r="BC4" s="204"/>
-      <c r="BD4" s="204"/>
-      <c r="BE4" s="204" t="s">
+      <c r="AT4" s="216"/>
+      <c r="AU4" s="216"/>
+      <c r="AV4" s="216"/>
+      <c r="AW4" s="216"/>
+      <c r="AX4" s="216"/>
+      <c r="AY4" s="216"/>
+      <c r="AZ4" s="216"/>
+      <c r="BA4" s="216"/>
+      <c r="BB4" s="216"/>
+      <c r="BC4" s="216"/>
+      <c r="BD4" s="216"/>
+      <c r="BE4" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="BF4" s="203"/>
-      <c r="BG4" s="203"/>
-      <c r="BH4" s="203"/>
-      <c r="BI4" s="203"/>
-      <c r="BJ4" s="203"/>
-      <c r="BK4" s="203"/>
-      <c r="BL4" s="203"/>
-      <c r="BM4" s="203"/>
+      <c r="BF4" s="215"/>
+      <c r="BG4" s="215"/>
+      <c r="BH4" s="215"/>
+      <c r="BI4" s="215"/>
+      <c r="BJ4" s="215"/>
+      <c r="BK4" s="215"/>
+      <c r="BL4" s="215"/>
+      <c r="BM4" s="215"/>
       <c r="BN4" s="30"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9209,36 +9206,36 @@
       <c r="AM5" s="29"/>
       <c r="AN5" s="29"/>
       <c r="AO5" s="29"/>
-      <c r="AP5" s="205" t="s">
+      <c r="AP5" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="206"/>
-      <c r="AR5" s="207"/>
-      <c r="AS5" s="349" t="s">
+      <c r="AQ5" s="200"/>
+      <c r="AR5" s="201"/>
+      <c r="AS5" s="217" t="s">
         <v>100</v>
       </c>
-      <c r="AT5" s="209"/>
-      <c r="AU5" s="209"/>
-      <c r="AV5" s="209"/>
-      <c r="AW5" s="209"/>
-      <c r="AX5" s="209"/>
-      <c r="AY5" s="209"/>
-      <c r="AZ5" s="209"/>
-      <c r="BA5" s="209"/>
-      <c r="BB5" s="209"/>
-      <c r="BC5" s="209"/>
-      <c r="BD5" s="210"/>
-      <c r="BE5" s="208" t="s">
+      <c r="AT5" s="218"/>
+      <c r="AU5" s="218"/>
+      <c r="AV5" s="218"/>
+      <c r="AW5" s="218"/>
+      <c r="AX5" s="218"/>
+      <c r="AY5" s="218"/>
+      <c r="AZ5" s="218"/>
+      <c r="BA5" s="218"/>
+      <c r="BB5" s="218"/>
+      <c r="BC5" s="218"/>
+      <c r="BD5" s="219"/>
+      <c r="BE5" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="BF5" s="209"/>
-      <c r="BG5" s="209"/>
-      <c r="BH5" s="209"/>
-      <c r="BI5" s="209"/>
-      <c r="BJ5" s="209"/>
-      <c r="BK5" s="209"/>
-      <c r="BL5" s="209"/>
-      <c r="BM5" s="210"/>
+      <c r="BF5" s="218"/>
+      <c r="BG5" s="218"/>
+      <c r="BH5" s="218"/>
+      <c r="BI5" s="218"/>
+      <c r="BJ5" s="218"/>
+      <c r="BK5" s="218"/>
+      <c r="BL5" s="218"/>
+      <c r="BM5" s="219"/>
       <c r="BN5" s="30"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9283,36 +9280,36 @@
       <c r="AM6" s="29"/>
       <c r="AN6" s="29"/>
       <c r="AO6" s="29"/>
-      <c r="AP6" s="205" t="s">
+      <c r="AP6" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="AQ6" s="206"/>
-      <c r="AR6" s="207"/>
-      <c r="AS6" s="350" t="s">
+      <c r="AQ6" s="200"/>
+      <c r="AR6" s="201"/>
+      <c r="AS6" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="AT6" s="212"/>
-      <c r="AU6" s="212"/>
-      <c r="AV6" s="212"/>
-      <c r="AW6" s="212"/>
-      <c r="AX6" s="212"/>
-      <c r="AY6" s="212"/>
-      <c r="AZ6" s="212"/>
-      <c r="BA6" s="212"/>
-      <c r="BB6" s="212"/>
-      <c r="BC6" s="212"/>
-      <c r="BD6" s="213"/>
-      <c r="BE6" s="350" t="s">
+      <c r="AT6" s="209"/>
+      <c r="AU6" s="209"/>
+      <c r="AV6" s="209"/>
+      <c r="AW6" s="209"/>
+      <c r="AX6" s="209"/>
+      <c r="AY6" s="209"/>
+      <c r="AZ6" s="209"/>
+      <c r="BA6" s="209"/>
+      <c r="BB6" s="209"/>
+      <c r="BC6" s="209"/>
+      <c r="BD6" s="210"/>
+      <c r="BE6" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="BF6" s="212"/>
-      <c r="BG6" s="212"/>
-      <c r="BH6" s="212"/>
-      <c r="BI6" s="212"/>
-      <c r="BJ6" s="212"/>
-      <c r="BK6" s="212"/>
-      <c r="BL6" s="212"/>
-      <c r="BM6" s="213"/>
+      <c r="BF6" s="209"/>
+      <c r="BG6" s="209"/>
+      <c r="BH6" s="209"/>
+      <c r="BI6" s="209"/>
+      <c r="BJ6" s="209"/>
+      <c r="BK6" s="209"/>
+      <c r="BL6" s="209"/>
+      <c r="BM6" s="210"/>
       <c r="BN6" s="30"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9377,17 +9374,17 @@
       <c r="BB7" s="59"/>
       <c r="BC7" s="59"/>
       <c r="BD7" s="60"/>
-      <c r="BE7" s="372" t="s">
+      <c r="BE7" s="202" t="s">
         <v>56</v>
       </c>
-      <c r="BF7" s="373"/>
-      <c r="BG7" s="373"/>
-      <c r="BH7" s="373"/>
-      <c r="BI7" s="373"/>
-      <c r="BJ7" s="373"/>
-      <c r="BK7" s="373"/>
-      <c r="BL7" s="373"/>
-      <c r="BM7" s="374"/>
+      <c r="BF7" s="203"/>
+      <c r="BG7" s="203"/>
+      <c r="BH7" s="203"/>
+      <c r="BI7" s="203"/>
+      <c r="BJ7" s="203"/>
+      <c r="BK7" s="203"/>
+      <c r="BL7" s="203"/>
+      <c r="BM7" s="204"/>
       <c r="BN7" s="30"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9437,31 +9434,31 @@
         <v>4</v>
       </c>
       <c r="AR8" s="70"/>
-      <c r="AS8" s="350" t="s">
+      <c r="AS8" s="208" t="s">
         <v>72</v>
       </c>
-      <c r="AT8" s="212"/>
-      <c r="AU8" s="212"/>
-      <c r="AV8" s="212"/>
-      <c r="AW8" s="212"/>
-      <c r="AX8" s="212"/>
-      <c r="AY8" s="212"/>
-      <c r="AZ8" s="212"/>
-      <c r="BA8" s="212"/>
-      <c r="BB8" s="212"/>
-      <c r="BC8" s="212"/>
-      <c r="BD8" s="213"/>
-      <c r="BE8" s="214" t="s">
+      <c r="AT8" s="209"/>
+      <c r="AU8" s="209"/>
+      <c r="AV8" s="209"/>
+      <c r="AW8" s="209"/>
+      <c r="AX8" s="209"/>
+      <c r="AY8" s="209"/>
+      <c r="AZ8" s="209"/>
+      <c r="BA8" s="209"/>
+      <c r="BB8" s="209"/>
+      <c r="BC8" s="209"/>
+      <c r="BD8" s="210"/>
+      <c r="BE8" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="BF8" s="215"/>
-      <c r="BG8" s="215"/>
-      <c r="BH8" s="215"/>
-      <c r="BI8" s="215"/>
-      <c r="BJ8" s="215"/>
-      <c r="BK8" s="215"/>
-      <c r="BL8" s="215"/>
-      <c r="BM8" s="216"/>
+      <c r="BF8" s="206"/>
+      <c r="BG8" s="206"/>
+      <c r="BH8" s="206"/>
+      <c r="BI8" s="206"/>
+      <c r="BJ8" s="206"/>
+      <c r="BK8" s="206"/>
+      <c r="BL8" s="206"/>
+      <c r="BM8" s="207"/>
       <c r="BN8" s="30"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9511,7 +9508,7 @@
         <v>5</v>
       </c>
       <c r="AR9" s="70"/>
-      <c r="AS9" s="351" t="s">
+      <c r="AS9" s="116" t="s">
         <v>73</v>
       </c>
       <c r="AT9" s="59"/>
@@ -9525,17 +9522,17 @@
       <c r="BB9" s="59"/>
       <c r="BC9" s="59"/>
       <c r="BD9" s="60"/>
-      <c r="BE9" s="214" t="s">
+      <c r="BE9" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="BF9" s="215"/>
-      <c r="BG9" s="215"/>
-      <c r="BH9" s="215"/>
-      <c r="BI9" s="215"/>
-      <c r="BJ9" s="215"/>
-      <c r="BK9" s="215"/>
-      <c r="BL9" s="215"/>
-      <c r="BM9" s="216"/>
+      <c r="BF9" s="206"/>
+      <c r="BG9" s="206"/>
+      <c r="BH9" s="206"/>
+      <c r="BI9" s="206"/>
+      <c r="BJ9" s="206"/>
+      <c r="BK9" s="206"/>
+      <c r="BL9" s="206"/>
+      <c r="BM9" s="207"/>
       <c r="BN9" s="30"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9585,7 +9582,7 @@
         <v>6</v>
       </c>
       <c r="AR10" s="70"/>
-      <c r="AS10" s="351" t="s">
+      <c r="AS10" s="116" t="s">
         <v>74</v>
       </c>
       <c r="AT10" s="59"/>
@@ -9599,17 +9596,17 @@
       <c r="BB10" s="59"/>
       <c r="BC10" s="59"/>
       <c r="BD10" s="60"/>
-      <c r="BE10" s="214" t="s">
+      <c r="BE10" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="BF10" s="215"/>
-      <c r="BG10" s="215"/>
-      <c r="BH10" s="215"/>
-      <c r="BI10" s="215"/>
-      <c r="BJ10" s="215"/>
-      <c r="BK10" s="215"/>
-      <c r="BL10" s="215"/>
-      <c r="BM10" s="216"/>
+      <c r="BF10" s="206"/>
+      <c r="BG10" s="206"/>
+      <c r="BH10" s="206"/>
+      <c r="BI10" s="206"/>
+      <c r="BJ10" s="206"/>
+      <c r="BK10" s="206"/>
+      <c r="BL10" s="206"/>
+      <c r="BM10" s="207"/>
       <c r="BN10" s="30"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9659,7 +9656,7 @@
         <v>7</v>
       </c>
       <c r="AR11" s="70"/>
-      <c r="AS11" s="351" t="s">
+      <c r="AS11" s="116" t="s">
         <v>75</v>
       </c>
       <c r="AT11" s="59"/>
@@ -9673,17 +9670,17 @@
       <c r="BB11" s="59"/>
       <c r="BC11" s="59"/>
       <c r="BD11" s="60"/>
-      <c r="BE11" s="214" t="s">
+      <c r="BE11" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="BF11" s="215"/>
-      <c r="BG11" s="215"/>
-      <c r="BH11" s="215"/>
-      <c r="BI11" s="215"/>
-      <c r="BJ11" s="215"/>
-      <c r="BK11" s="215"/>
-      <c r="BL11" s="215"/>
-      <c r="BM11" s="216"/>
+      <c r="BF11" s="206"/>
+      <c r="BG11" s="206"/>
+      <c r="BH11" s="206"/>
+      <c r="BI11" s="206"/>
+      <c r="BJ11" s="206"/>
+      <c r="BK11" s="206"/>
+      <c r="BL11" s="206"/>
+      <c r="BM11" s="207"/>
       <c r="BN11" s="30"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9728,12 +9725,12 @@
       <c r="AM12" s="29"/>
       <c r="AN12" s="29"/>
       <c r="AO12" s="29"/>
-      <c r="AP12" s="205" t="s">
+      <c r="AP12" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="AQ12" s="206"/>
-      <c r="AR12" s="207"/>
-      <c r="AS12" s="351" t="s">
+      <c r="AQ12" s="200"/>
+      <c r="AR12" s="201"/>
+      <c r="AS12" s="116" t="s">
         <v>76</v>
       </c>
       <c r="AT12" s="59"/>
@@ -9747,17 +9744,17 @@
       <c r="BB12" s="59"/>
       <c r="BC12" s="59"/>
       <c r="BD12" s="60"/>
-      <c r="BE12" s="214" t="s">
+      <c r="BE12" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="BF12" s="215"/>
-      <c r="BG12" s="215"/>
-      <c r="BH12" s="215"/>
-      <c r="BI12" s="215"/>
-      <c r="BJ12" s="215"/>
-      <c r="BK12" s="215"/>
-      <c r="BL12" s="215"/>
-      <c r="BM12" s="216"/>
+      <c r="BF12" s="206"/>
+      <c r="BG12" s="206"/>
+      <c r="BH12" s="206"/>
+      <c r="BI12" s="206"/>
+      <c r="BJ12" s="206"/>
+      <c r="BK12" s="206"/>
+      <c r="BL12" s="206"/>
+      <c r="BM12" s="207"/>
       <c r="BN12" s="30"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9802,10 +9799,10 @@
       <c r="AM13" s="29"/>
       <c r="AN13" s="29"/>
       <c r="AO13" s="29"/>
-      <c r="AP13" s="205"/>
-      <c r="AQ13" s="206"/>
-      <c r="AR13" s="207"/>
-      <c r="AS13" s="351"/>
+      <c r="AP13" s="199"/>
+      <c r="AQ13" s="200"/>
+      <c r="AR13" s="201"/>
+      <c r="AS13" s="116"/>
       <c r="AT13" s="59"/>
       <c r="AU13" s="59"/>
       <c r="AV13" s="59"/>
@@ -9870,7 +9867,7 @@
       <c r="AP14" s="58"/>
       <c r="AQ14" s="69"/>
       <c r="AR14" s="70"/>
-      <c r="AS14" s="351"/>
+      <c r="AS14" s="116"/>
       <c r="AT14" s="59"/>
       <c r="AU14" s="59"/>
       <c r="AV14" s="59"/>
@@ -9935,30 +9932,30 @@
       <c r="AM15" s="29"/>
       <c r="AN15" s="29"/>
       <c r="AO15" s="29"/>
-      <c r="AP15" s="352"/>
-      <c r="AQ15" s="353"/>
-      <c r="AR15" s="354"/>
-      <c r="AS15" s="355"/>
-      <c r="AT15" s="356"/>
-      <c r="AU15" s="356"/>
-      <c r="AV15" s="356"/>
-      <c r="AW15" s="356"/>
-      <c r="AX15" s="356"/>
-      <c r="AY15" s="356"/>
-      <c r="AZ15" s="356"/>
-      <c r="BA15" s="356"/>
-      <c r="BB15" s="356"/>
-      <c r="BC15" s="356"/>
-      <c r="BD15" s="357"/>
-      <c r="BE15" s="358"/>
-      <c r="BF15" s="359"/>
-      <c r="BG15" s="359"/>
-      <c r="BH15" s="359"/>
-      <c r="BI15" s="359"/>
-      <c r="BJ15" s="359"/>
-      <c r="BK15" s="359"/>
-      <c r="BL15" s="359"/>
-      <c r="BM15" s="360"/>
+      <c r="AP15" s="117"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="119"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="121"/>
+      <c r="AU15" s="121"/>
+      <c r="AV15" s="121"/>
+      <c r="AW15" s="121"/>
+      <c r="AX15" s="121"/>
+      <c r="AY15" s="121"/>
+      <c r="AZ15" s="121"/>
+      <c r="BA15" s="121"/>
+      <c r="BB15" s="121"/>
+      <c r="BC15" s="121"/>
+      <c r="BD15" s="122"/>
+      <c r="BE15" s="123"/>
+      <c r="BF15" s="124"/>
+      <c r="BG15" s="124"/>
+      <c r="BH15" s="124"/>
+      <c r="BI15" s="124"/>
+      <c r="BJ15" s="124"/>
+      <c r="BK15" s="124"/>
+      <c r="BL15" s="124"/>
+      <c r="BM15" s="125"/>
       <c r="BN15" s="30"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -10223,25 +10220,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="BE7:BM7"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="BE10:BM10"/>
-    <mergeCell ref="BE11:BM11"/>
-    <mergeCell ref="BE12:BM12"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:BD6"/>
-    <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AS8:BD8"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="BI3:BN3"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AS4:BD4"/>
-    <mergeCell ref="BE4:BM4"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AS5:BD5"/>
-    <mergeCell ref="BE5:BM5"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:AV2"/>
     <mergeCell ref="AZ2:BE2"/>
     <mergeCell ref="BF2:BH2"/>
     <mergeCell ref="BI2:BN2"/>
@@ -10252,12 +10235,26 @@
     <mergeCell ref="AW3:AY3"/>
     <mergeCell ref="AZ3:BE3"/>
     <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="U2:AV2"/>
     <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="BI3:BN3"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="AS4:BD4"/>
+    <mergeCell ref="BE4:BM4"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AS5:BD5"/>
+    <mergeCell ref="BE5:BM5"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:BD6"/>
+    <mergeCell ref="BE6:BM6"/>
+    <mergeCell ref="AS8:BD8"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="BE10:BM10"/>
+    <mergeCell ref="BE11:BM11"/>
+    <mergeCell ref="BE12:BM12"/>
+    <mergeCell ref="AP12:AR12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10270,7 +10267,7 @@
   <dimension ref="A1:BM25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BH4" sqref="BH4:BK4"/>
+      <selection activeCell="C9" sqref="C9:BK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -10603,34 +10600,34 @@
       <c r="BK1" s="21"/>
     </row>
     <row r="2" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="236" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="237"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -10655,32 +10652,32 @@
       <c r="BK2" s="26"/>
     </row>
     <row r="3" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="173"/>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="174"/>
+      <c r="A3" s="236"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
+      <c r="Q3" s="237"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="237"/>
       <c r="AP3" s="25"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
@@ -10705,160 +10702,160 @@
       <c r="BK3" s="25"/>
     </row>
     <row r="4" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="286" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="220" t="s">
+      <c r="B4" s="287"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="287"/>
+      <c r="E4" s="287"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="289" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="223" t="s">
+      <c r="H4" s="290"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="290"/>
+      <c r="M4" s="290"/>
+      <c r="N4" s="291"/>
+      <c r="O4" s="292" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="224"/>
-      <c r="Q4" s="224"/>
-      <c r="R4" s="224"/>
-      <c r="S4" s="224"/>
-      <c r="T4" s="225"/>
-      <c r="U4" s="226" t="s">
+      <c r="P4" s="293"/>
+      <c r="Q4" s="293"/>
+      <c r="R4" s="293"/>
+      <c r="S4" s="293"/>
+      <c r="T4" s="294"/>
+      <c r="U4" s="295" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="227"/>
-      <c r="W4" s="227"/>
-      <c r="X4" s="227"/>
-      <c r="Y4" s="227"/>
-      <c r="Z4" s="227"/>
-      <c r="AA4" s="227"/>
-      <c r="AB4" s="227"/>
-      <c r="AC4" s="227"/>
-      <c r="AD4" s="227"/>
-      <c r="AE4" s="227"/>
-      <c r="AF4" s="227"/>
-      <c r="AG4" s="227"/>
-      <c r="AH4" s="227"/>
-      <c r="AI4" s="227"/>
-      <c r="AJ4" s="227"/>
-      <c r="AK4" s="227"/>
-      <c r="AL4" s="227"/>
-      <c r="AM4" s="227"/>
-      <c r="AN4" s="227"/>
-      <c r="AO4" s="227"/>
-      <c r="AP4" s="227"/>
-      <c r="AQ4" s="227"/>
-      <c r="AR4" s="227"/>
-      <c r="AS4" s="227"/>
-      <c r="AT4" s="227"/>
-      <c r="AU4" s="228"/>
-      <c r="AV4" s="229" t="s">
+      <c r="V4" s="296"/>
+      <c r="W4" s="296"/>
+      <c r="X4" s="296"/>
+      <c r="Y4" s="296"/>
+      <c r="Z4" s="296"/>
+      <c r="AA4" s="296"/>
+      <c r="AB4" s="296"/>
+      <c r="AC4" s="296"/>
+      <c r="AD4" s="296"/>
+      <c r="AE4" s="296"/>
+      <c r="AF4" s="296"/>
+      <c r="AG4" s="296"/>
+      <c r="AH4" s="296"/>
+      <c r="AI4" s="296"/>
+      <c r="AJ4" s="296"/>
+      <c r="AK4" s="296"/>
+      <c r="AL4" s="296"/>
+      <c r="AM4" s="296"/>
+      <c r="AN4" s="296"/>
+      <c r="AO4" s="296"/>
+      <c r="AP4" s="296"/>
+      <c r="AQ4" s="296"/>
+      <c r="AR4" s="296"/>
+      <c r="AS4" s="296"/>
+      <c r="AT4" s="296"/>
+      <c r="AU4" s="297"/>
+      <c r="AV4" s="298" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="230"/>
-      <c r="AX4" s="231"/>
-      <c r="AY4" s="232">
+      <c r="AW4" s="299"/>
+      <c r="AX4" s="300"/>
+      <c r="AY4" s="264">
         <v>45427</v>
       </c>
-      <c r="AZ4" s="233"/>
-      <c r="BA4" s="233"/>
-      <c r="BB4" s="233"/>
-      <c r="BC4" s="233"/>
-      <c r="BD4" s="233"/>
-      <c r="BE4" s="234" t="s">
+      <c r="AZ4" s="265"/>
+      <c r="BA4" s="265"/>
+      <c r="BB4" s="265"/>
+      <c r="BC4" s="265"/>
+      <c r="BD4" s="265"/>
+      <c r="BE4" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="BF4" s="235"/>
-      <c r="BG4" s="236"/>
-      <c r="BH4" s="412" t="s">
+      <c r="BF4" s="267"/>
+      <c r="BG4" s="268"/>
+      <c r="BH4" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="BI4" s="237"/>
-      <c r="BJ4" s="237"/>
-      <c r="BK4" s="238"/>
+      <c r="BI4" s="257"/>
+      <c r="BJ4" s="257"/>
+      <c r="BK4" s="258"/>
     </row>
     <row r="5" spans="1:65" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="369" t="s">
+      <c r="A5" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="370"/>
-      <c r="C5" s="370"/>
-      <c r="D5" s="370"/>
-      <c r="E5" s="370"/>
-      <c r="F5" s="371"/>
-      <c r="G5" s="367" t="s">
+      <c r="B5" s="271"/>
+      <c r="C5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="273" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="367"/>
-      <c r="I5" s="367"/>
-      <c r="J5" s="367"/>
-      <c r="K5" s="367"/>
-      <c r="L5" s="367"/>
-      <c r="M5" s="367"/>
-      <c r="N5" s="368"/>
-      <c r="O5" s="239" t="s">
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="240"/>
-      <c r="Q5" s="240"/>
-      <c r="R5" s="240"/>
-      <c r="S5" s="240"/>
-      <c r="T5" s="241"/>
-      <c r="U5" s="244"/>
-      <c r="V5" s="245"/>
-      <c r="W5" s="245"/>
-      <c r="X5" s="245"/>
-      <c r="Y5" s="245"/>
-      <c r="Z5" s="245"/>
-      <c r="AA5" s="245"/>
-      <c r="AB5" s="245"/>
-      <c r="AC5" s="245"/>
-      <c r="AD5" s="245"/>
-      <c r="AE5" s="245"/>
-      <c r="AF5" s="245"/>
-      <c r="AG5" s="245"/>
-      <c r="AH5" s="245"/>
-      <c r="AI5" s="245"/>
-      <c r="AJ5" s="245"/>
-      <c r="AK5" s="245"/>
-      <c r="AL5" s="245"/>
-      <c r="AM5" s="245"/>
-      <c r="AN5" s="245"/>
-      <c r="AO5" s="245"/>
-      <c r="AP5" s="245"/>
-      <c r="AQ5" s="245"/>
-      <c r="AR5" s="245"/>
-      <c r="AS5" s="245"/>
-      <c r="AT5" s="245"/>
-      <c r="AU5" s="246"/>
-      <c r="AV5" s="247" t="s">
+      <c r="P5" s="276"/>
+      <c r="Q5" s="276"/>
+      <c r="R5" s="276"/>
+      <c r="S5" s="276"/>
+      <c r="T5" s="277"/>
+      <c r="U5" s="278"/>
+      <c r="V5" s="279"/>
+      <c r="W5" s="279"/>
+      <c r="X5" s="279"/>
+      <c r="Y5" s="279"/>
+      <c r="Z5" s="279"/>
+      <c r="AA5" s="279"/>
+      <c r="AB5" s="279"/>
+      <c r="AC5" s="279"/>
+      <c r="AD5" s="279"/>
+      <c r="AE5" s="279"/>
+      <c r="AF5" s="279"/>
+      <c r="AG5" s="279"/>
+      <c r="AH5" s="279"/>
+      <c r="AI5" s="279"/>
+      <c r="AJ5" s="279"/>
+      <c r="AK5" s="279"/>
+      <c r="AL5" s="279"/>
+      <c r="AM5" s="279"/>
+      <c r="AN5" s="279"/>
+      <c r="AO5" s="279"/>
+      <c r="AP5" s="279"/>
+      <c r="AQ5" s="279"/>
+      <c r="AR5" s="279"/>
+      <c r="AS5" s="279"/>
+      <c r="AT5" s="279"/>
+      <c r="AU5" s="280"/>
+      <c r="AV5" s="281" t="s">
         <v>16</v>
       </c>
-      <c r="AW5" s="248"/>
-      <c r="AX5" s="249"/>
-      <c r="AY5" s="248"/>
-      <c r="AZ5" s="248"/>
-      <c r="BA5" s="248"/>
-      <c r="BB5" s="248"/>
-      <c r="BC5" s="248"/>
-      <c r="BD5" s="248"/>
-      <c r="BE5" s="250" t="s">
+      <c r="AW5" s="282"/>
+      <c r="AX5" s="283"/>
+      <c r="AY5" s="282"/>
+      <c r="AZ5" s="282"/>
+      <c r="BA5" s="282"/>
+      <c r="BB5" s="282"/>
+      <c r="BC5" s="282"/>
+      <c r="BD5" s="282"/>
+      <c r="BE5" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="BF5" s="251"/>
-      <c r="BG5" s="252"/>
-      <c r="BH5" s="251"/>
-      <c r="BI5" s="237"/>
-      <c r="BJ5" s="237"/>
-      <c r="BK5" s="238"/>
+      <c r="BF5" s="256"/>
+      <c r="BG5" s="285"/>
+      <c r="BH5" s="256"/>
+      <c r="BI5" s="257"/>
+      <c r="BJ5" s="257"/>
+      <c r="BK5" s="258"/>
     </row>
     <row r="6" spans="1:65" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
@@ -10900,96 +10897,96 @@
       <c r="AK6" s="33"/>
       <c r="AL6" s="33"/>
       <c r="AM6" s="33"/>
-      <c r="AN6" s="253"/>
-      <c r="AO6" s="254"/>
-      <c r="AP6" s="254"/>
-      <c r="AQ6" s="253"/>
-      <c r="AR6" s="253"/>
-      <c r="AS6" s="253"/>
-      <c r="AT6" s="253"/>
-      <c r="AU6" s="253"/>
-      <c r="AV6" s="253"/>
-      <c r="AW6" s="253"/>
-      <c r="AX6" s="253"/>
-      <c r="AY6" s="253"/>
-      <c r="AZ6" s="253"/>
-      <c r="BA6" s="253"/>
-      <c r="BB6" s="253"/>
-      <c r="BC6" s="253"/>
-      <c r="BD6" s="254"/>
-      <c r="BE6" s="254"/>
-      <c r="BF6" s="254"/>
-      <c r="BG6" s="254"/>
-      <c r="BH6" s="254"/>
-      <c r="BI6" s="254"/>
-      <c r="BJ6" s="254"/>
-      <c r="BK6" s="254"/>
+      <c r="AN6" s="259"/>
+      <c r="AO6" s="260"/>
+      <c r="AP6" s="260"/>
+      <c r="AQ6" s="259"/>
+      <c r="AR6" s="259"/>
+      <c r="AS6" s="259"/>
+      <c r="AT6" s="259"/>
+      <c r="AU6" s="259"/>
+      <c r="AV6" s="259"/>
+      <c r="AW6" s="259"/>
+      <c r="AX6" s="259"/>
+      <c r="AY6" s="259"/>
+      <c r="AZ6" s="259"/>
+      <c r="BA6" s="259"/>
+      <c r="BB6" s="259"/>
+      <c r="BC6" s="259"/>
+      <c r="BD6" s="260"/>
+      <c r="BE6" s="260"/>
+      <c r="BF6" s="260"/>
+      <c r="BG6" s="260"/>
+      <c r="BH6" s="260"/>
+      <c r="BI6" s="260"/>
+      <c r="BJ6" s="260"/>
+      <c r="BK6" s="260"/>
     </row>
     <row r="7" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
-      <c r="C7" s="255" t="s">
+      <c r="C7" s="261" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="256"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="256"/>
-      <c r="O7" s="256"/>
-      <c r="P7" s="256"/>
-      <c r="Q7" s="256"/>
-      <c r="R7" s="256"/>
-      <c r="S7" s="256"/>
-      <c r="T7" s="256"/>
-      <c r="U7" s="256"/>
-      <c r="V7" s="256"/>
-      <c r="W7" s="256"/>
-      <c r="X7" s="256"/>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="256"/>
-      <c r="AA7" s="256"/>
-      <c r="AB7" s="256"/>
-      <c r="AC7" s="256"/>
-      <c r="AD7" s="256"/>
-      <c r="AE7" s="256"/>
-      <c r="AF7" s="256"/>
-      <c r="AG7" s="256"/>
-      <c r="AH7" s="256"/>
-      <c r="AI7" s="256"/>
-      <c r="AJ7" s="256"/>
-      <c r="AK7" s="256"/>
-      <c r="AL7" s="256"/>
-      <c r="AM7" s="256"/>
-      <c r="AN7" s="256"/>
-      <c r="AO7" s="256"/>
-      <c r="AP7" s="256"/>
-      <c r="AQ7" s="256"/>
-      <c r="AR7" s="256"/>
-      <c r="AS7" s="256"/>
-      <c r="AT7" s="256"/>
-      <c r="AU7" s="256"/>
-      <c r="AV7" s="256"/>
-      <c r="AW7" s="256"/>
-      <c r="AX7" s="256"/>
-      <c r="AY7" s="256"/>
-      <c r="AZ7" s="256"/>
-      <c r="BA7" s="256"/>
-      <c r="BB7" s="256"/>
-      <c r="BC7" s="256"/>
-      <c r="BD7" s="256"/>
-      <c r="BE7" s="256"/>
-      <c r="BF7" s="256"/>
-      <c r="BG7" s="256"/>
-      <c r="BH7" s="256"/>
-      <c r="BI7" s="256"/>
-      <c r="BJ7" s="256"/>
-      <c r="BK7" s="257"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="262"/>
+      <c r="L7" s="262"/>
+      <c r="M7" s="262"/>
+      <c r="N7" s="262"/>
+      <c r="O7" s="262"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="262"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="262"/>
+      <c r="U7" s="262"/>
+      <c r="V7" s="262"/>
+      <c r="W7" s="262"/>
+      <c r="X7" s="262"/>
+      <c r="Y7" s="262"/>
+      <c r="Z7" s="262"/>
+      <c r="AA7" s="262"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="262"/>
+      <c r="AD7" s="262"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="262"/>
+      <c r="AG7" s="262"/>
+      <c r="AH7" s="262"/>
+      <c r="AI7" s="262"/>
+      <c r="AJ7" s="262"/>
+      <c r="AK7" s="262"/>
+      <c r="AL7" s="262"/>
+      <c r="AM7" s="262"/>
+      <c r="AN7" s="262"/>
+      <c r="AO7" s="262"/>
+      <c r="AP7" s="262"/>
+      <c r="AQ7" s="262"/>
+      <c r="AR7" s="262"/>
+      <c r="AS7" s="262"/>
+      <c r="AT7" s="262"/>
+      <c r="AU7" s="262"/>
+      <c r="AV7" s="262"/>
+      <c r="AW7" s="262"/>
+      <c r="AX7" s="262"/>
+      <c r="AY7" s="262"/>
+      <c r="AZ7" s="262"/>
+      <c r="BA7" s="262"/>
+      <c r="BB7" s="262"/>
+      <c r="BC7" s="262"/>
+      <c r="BD7" s="262"/>
+      <c r="BE7" s="262"/>
+      <c r="BF7" s="262"/>
+      <c r="BG7" s="262"/>
+      <c r="BH7" s="262"/>
+      <c r="BI7" s="262"/>
+      <c r="BJ7" s="262"/>
+      <c r="BK7" s="263"/>
     </row>
     <row r="8" spans="1:65" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="84"/>
@@ -11058,274 +11055,274 @@
     <row r="9" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="377" t="s">
+      <c r="C9" s="254" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="378"/>
-      <c r="E9" s="378"/>
-      <c r="F9" s="378"/>
-      <c r="G9" s="378"/>
-      <c r="H9" s="378"/>
-      <c r="I9" s="378"/>
-      <c r="J9" s="378"/>
-      <c r="K9" s="378"/>
-      <c r="L9" s="378"/>
-      <c r="M9" s="378"/>
-      <c r="N9" s="378"/>
-      <c r="O9" s="378"/>
-      <c r="P9" s="378"/>
-      <c r="Q9" s="378"/>
-      <c r="R9" s="378"/>
-      <c r="S9" s="378"/>
-      <c r="T9" s="378"/>
-      <c r="U9" s="378"/>
-      <c r="V9" s="378"/>
-      <c r="W9" s="378"/>
-      <c r="X9" s="378"/>
-      <c r="Y9" s="378"/>
-      <c r="Z9" s="378"/>
-      <c r="AA9" s="378"/>
-      <c r="AB9" s="378"/>
-      <c r="AC9" s="378"/>
-      <c r="AD9" s="378"/>
-      <c r="AE9" s="378"/>
-      <c r="AF9" s="378"/>
-      <c r="AG9" s="378"/>
-      <c r="AH9" s="378"/>
-      <c r="AI9" s="378"/>
-      <c r="AJ9" s="378"/>
-      <c r="AK9" s="378"/>
-      <c r="AL9" s="378"/>
-      <c r="AM9" s="378"/>
-      <c r="AN9" s="378"/>
-      <c r="AO9" s="378"/>
-      <c r="AP9" s="378"/>
-      <c r="AQ9" s="378"/>
-      <c r="AR9" s="378"/>
-      <c r="AS9" s="378"/>
-      <c r="AT9" s="378"/>
-      <c r="AU9" s="378"/>
-      <c r="AV9" s="378"/>
-      <c r="AW9" s="378"/>
-      <c r="AX9" s="378"/>
-      <c r="AY9" s="378"/>
-      <c r="AZ9" s="378"/>
-      <c r="BA9" s="378"/>
-      <c r="BB9" s="378"/>
-      <c r="BC9" s="378"/>
-      <c r="BD9" s="378"/>
-      <c r="BE9" s="378"/>
-      <c r="BF9" s="378"/>
-      <c r="BG9" s="378"/>
-      <c r="BH9" s="378"/>
-      <c r="BI9" s="378"/>
-      <c r="BJ9" s="378"/>
-      <c r="BK9" s="379"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="250"/>
+      <c r="H9" s="250"/>
+      <c r="I9" s="250"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="250"/>
+      <c r="L9" s="250"/>
+      <c r="M9" s="250"/>
+      <c r="N9" s="250"/>
+      <c r="O9" s="250"/>
+      <c r="P9" s="250"/>
+      <c r="Q9" s="250"/>
+      <c r="R9" s="250"/>
+      <c r="S9" s="250"/>
+      <c r="T9" s="250"/>
+      <c r="U9" s="250"/>
+      <c r="V9" s="250"/>
+      <c r="W9" s="250"/>
+      <c r="X9" s="250"/>
+      <c r="Y9" s="250"/>
+      <c r="Z9" s="250"/>
+      <c r="AA9" s="250"/>
+      <c r="AB9" s="250"/>
+      <c r="AC9" s="250"/>
+      <c r="AD9" s="250"/>
+      <c r="AE9" s="250"/>
+      <c r="AF9" s="250"/>
+      <c r="AG9" s="250"/>
+      <c r="AH9" s="250"/>
+      <c r="AI9" s="250"/>
+      <c r="AJ9" s="250"/>
+      <c r="AK9" s="250"/>
+      <c r="AL9" s="250"/>
+      <c r="AM9" s="250"/>
+      <c r="AN9" s="250"/>
+      <c r="AO9" s="250"/>
+      <c r="AP9" s="250"/>
+      <c r="AQ9" s="250"/>
+      <c r="AR9" s="250"/>
+      <c r="AS9" s="250"/>
+      <c r="AT9" s="250"/>
+      <c r="AU9" s="250"/>
+      <c r="AV9" s="250"/>
+      <c r="AW9" s="250"/>
+      <c r="AX9" s="250"/>
+      <c r="AY9" s="250"/>
+      <c r="AZ9" s="250"/>
+      <c r="BA9" s="250"/>
+      <c r="BB9" s="250"/>
+      <c r="BC9" s="250"/>
+      <c r="BD9" s="250"/>
+      <c r="BE9" s="250"/>
+      <c r="BF9" s="250"/>
+      <c r="BG9" s="250"/>
+      <c r="BH9" s="250"/>
+      <c r="BI9" s="250"/>
+      <c r="BJ9" s="250"/>
+      <c r="BK9" s="255"/>
     </row>
     <row r="10" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="53"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="375"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="378" t="s">
+      <c r="E10" s="250" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="378"/>
-      <c r="G10" s="378"/>
-      <c r="H10" s="378"/>
-      <c r="I10" s="378"/>
-      <c r="J10" s="378"/>
-      <c r="K10" s="378"/>
-      <c r="L10" s="378"/>
-      <c r="M10" s="378"/>
-      <c r="N10" s="378"/>
-      <c r="O10" s="378"/>
-      <c r="P10" s="378"/>
-      <c r="Q10" s="378"/>
-      <c r="R10" s="378"/>
-      <c r="S10" s="378"/>
-      <c r="T10" s="378"/>
-      <c r="U10" s="378"/>
-      <c r="V10" s="378"/>
-      <c r="W10" s="378"/>
-      <c r="X10" s="378"/>
-      <c r="Y10" s="378"/>
-      <c r="Z10" s="378"/>
-      <c r="AA10" s="378"/>
-      <c r="AB10" s="378"/>
-      <c r="AC10" s="378"/>
-      <c r="AD10" s="378"/>
-      <c r="AE10" s="378"/>
-      <c r="AF10" s="378"/>
-      <c r="AG10" s="378"/>
-      <c r="AH10" s="378"/>
-      <c r="AI10" s="378"/>
-      <c r="AJ10" s="378"/>
-      <c r="AK10" s="378"/>
-      <c r="AL10" s="378"/>
-      <c r="AM10" s="378"/>
-      <c r="AN10" s="378"/>
-      <c r="AO10" s="378"/>
-      <c r="AP10" s="378"/>
-      <c r="AQ10" s="408"/>
-      <c r="AR10" s="408"/>
-      <c r="AS10" s="408"/>
-      <c r="AT10" s="408"/>
-      <c r="AU10" s="408"/>
-      <c r="AV10" s="408"/>
-      <c r="AW10" s="408"/>
-      <c r="AX10" s="408"/>
-      <c r="AY10" s="408"/>
-      <c r="AZ10" s="408"/>
-      <c r="BA10" s="408"/>
-      <c r="BB10" s="408"/>
-      <c r="BC10" s="408"/>
-      <c r="BD10" s="408"/>
-      <c r="BE10" s="408"/>
-      <c r="BF10" s="408"/>
-      <c r="BG10" s="408"/>
-      <c r="BH10" s="408"/>
-      <c r="BI10" s="408"/>
-      <c r="BJ10" s="408"/>
-      <c r="BK10" s="409"/>
-      <c r="BL10" s="408"/>
-      <c r="BM10" s="408"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="250"/>
+      <c r="I10" s="250"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="250"/>
+      <c r="L10" s="250"/>
+      <c r="M10" s="250"/>
+      <c r="N10" s="250"/>
+      <c r="O10" s="250"/>
+      <c r="P10" s="250"/>
+      <c r="Q10" s="250"/>
+      <c r="R10" s="250"/>
+      <c r="S10" s="250"/>
+      <c r="T10" s="250"/>
+      <c r="U10" s="250"/>
+      <c r="V10" s="250"/>
+      <c r="W10" s="250"/>
+      <c r="X10" s="250"/>
+      <c r="Y10" s="250"/>
+      <c r="Z10" s="250"/>
+      <c r="AA10" s="250"/>
+      <c r="AB10" s="250"/>
+      <c r="AC10" s="250"/>
+      <c r="AD10" s="250"/>
+      <c r="AE10" s="250"/>
+      <c r="AF10" s="250"/>
+      <c r="AG10" s="250"/>
+      <c r="AH10" s="250"/>
+      <c r="AI10" s="250"/>
+      <c r="AJ10" s="250"/>
+      <c r="AK10" s="250"/>
+      <c r="AL10" s="250"/>
+      <c r="AM10" s="250"/>
+      <c r="AN10" s="250"/>
+      <c r="AO10" s="250"/>
+      <c r="AP10" s="250"/>
+      <c r="AQ10" s="136"/>
+      <c r="AR10" s="136"/>
+      <c r="AS10" s="136"/>
+      <c r="AT10" s="136"/>
+      <c r="AU10" s="136"/>
+      <c r="AV10" s="136"/>
+      <c r="AW10" s="136"/>
+      <c r="AX10" s="136"/>
+      <c r="AY10" s="136"/>
+      <c r="AZ10" s="136"/>
+      <c r="BA10" s="136"/>
+      <c r="BB10" s="136"/>
+      <c r="BC10" s="136"/>
+      <c r="BD10" s="136"/>
+      <c r="BE10" s="136"/>
+      <c r="BF10" s="136"/>
+      <c r="BG10" s="136"/>
+      <c r="BH10" s="136"/>
+      <c r="BI10" s="136"/>
+      <c r="BJ10" s="136"/>
+      <c r="BK10" s="137"/>
+      <c r="BL10" s="136"/>
+      <c r="BM10" s="136"/>
     </row>
     <row r="11" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="53"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="375"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="38"/>
-      <c r="E11" s="380"/>
-      <c r="F11" s="380"/>
-      <c r="G11" s="380"/>
-      <c r="H11" s="380"/>
-      <c r="I11" s="380"/>
-      <c r="J11" s="380"/>
-      <c r="K11" s="380"/>
-      <c r="L11" s="380"/>
-      <c r="M11" s="380"/>
-      <c r="N11" s="380"/>
-      <c r="O11" s="380"/>
-      <c r="P11" s="380"/>
-      <c r="Q11" s="380"/>
-      <c r="R11" s="380"/>
-      <c r="S11" s="380"/>
-      <c r="T11" s="380"/>
-      <c r="U11" s="380"/>
-      <c r="V11" s="380"/>
-      <c r="W11" s="380"/>
-      <c r="X11" s="380"/>
-      <c r="Y11" s="380"/>
-      <c r="Z11" s="380"/>
-      <c r="AA11" s="380"/>
-      <c r="AB11" s="380"/>
-      <c r="AC11" s="380"/>
-      <c r="AD11" s="380"/>
-      <c r="AE11" s="380"/>
-      <c r="AF11" s="380"/>
-      <c r="AG11" s="380"/>
-      <c r="AH11" s="380"/>
-      <c r="AI11" s="380"/>
-      <c r="AJ11" s="380"/>
-      <c r="AK11" s="380"/>
-      <c r="AL11" s="380"/>
-      <c r="AM11" s="380"/>
-      <c r="AN11" s="380"/>
-      <c r="AO11" s="380"/>
-      <c r="AP11" s="380"/>
-      <c r="AQ11" s="380"/>
-      <c r="AR11" s="380"/>
-      <c r="AS11" s="380"/>
-      <c r="AT11" s="380"/>
-      <c r="AU11" s="380"/>
-      <c r="AV11" s="380"/>
-      <c r="AW11" s="380"/>
-      <c r="AX11" s="380"/>
-      <c r="AY11" s="380"/>
-      <c r="AZ11" s="380"/>
-      <c r="BA11" s="380"/>
-      <c r="BB11" s="380"/>
-      <c r="BC11" s="380"/>
-      <c r="BD11" s="380"/>
-      <c r="BE11" s="380"/>
-      <c r="BF11" s="380"/>
-      <c r="BG11" s="380"/>
-      <c r="BH11" s="380"/>
-      <c r="BI11" s="380"/>
-      <c r="BJ11" s="380"/>
-      <c r="BK11" s="376"/>
-      <c r="BL11" s="380"/>
-      <c r="BM11" s="380"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="129"/>
+      <c r="AG11" s="129"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="129"/>
+      <c r="AJ11" s="129"/>
+      <c r="AK11" s="129"/>
+      <c r="AL11" s="129"/>
+      <c r="AM11" s="129"/>
+      <c r="AN11" s="129"/>
+      <c r="AO11" s="129"/>
+      <c r="AP11" s="129"/>
+      <c r="AQ11" s="129"/>
+      <c r="AR11" s="129"/>
+      <c r="AS11" s="129"/>
+      <c r="AT11" s="129"/>
+      <c r="AU11" s="129"/>
+      <c r="AV11" s="129"/>
+      <c r="AW11" s="129"/>
+      <c r="AX11" s="129"/>
+      <c r="AY11" s="129"/>
+      <c r="AZ11" s="129"/>
+      <c r="BA11" s="129"/>
+      <c r="BB11" s="129"/>
+      <c r="BC11" s="129"/>
+      <c r="BD11" s="129"/>
+      <c r="BE11" s="129"/>
+      <c r="BF11" s="129"/>
+      <c r="BG11" s="129"/>
+      <c r="BH11" s="129"/>
+      <c r="BI11" s="129"/>
+      <c r="BJ11" s="129"/>
+      <c r="BK11" s="128"/>
+      <c r="BL11" s="129"/>
+      <c r="BM11" s="129"/>
     </row>
     <row r="12" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="53"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="377" t="s">
+      <c r="C12" s="254" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="378"/>
-      <c r="E12" s="378"/>
-      <c r="F12" s="378"/>
-      <c r="G12" s="378"/>
-      <c r="H12" s="378"/>
-      <c r="I12" s="378"/>
-      <c r="J12" s="378"/>
-      <c r="K12" s="378"/>
-      <c r="L12" s="378"/>
-      <c r="M12" s="378"/>
-      <c r="N12" s="378"/>
-      <c r="O12" s="378"/>
-      <c r="P12" s="378"/>
-      <c r="Q12" s="378"/>
-      <c r="R12" s="378"/>
-      <c r="S12" s="378"/>
-      <c r="T12" s="378"/>
-      <c r="U12" s="378"/>
-      <c r="V12" s="378"/>
-      <c r="W12" s="378"/>
-      <c r="X12" s="378"/>
-      <c r="Y12" s="378"/>
-      <c r="Z12" s="378"/>
-      <c r="AA12" s="378"/>
-      <c r="AB12" s="378"/>
-      <c r="AC12" s="378"/>
-      <c r="AD12" s="378"/>
-      <c r="AE12" s="378"/>
-      <c r="AF12" s="378"/>
-      <c r="AG12" s="378"/>
-      <c r="AH12" s="378"/>
-      <c r="AI12" s="378"/>
-      <c r="AJ12" s="378"/>
-      <c r="AK12" s="378"/>
-      <c r="AL12" s="378"/>
-      <c r="AM12" s="378"/>
-      <c r="AN12" s="378"/>
-      <c r="AO12" s="378"/>
-      <c r="AP12" s="378"/>
-      <c r="AQ12" s="378"/>
-      <c r="AR12" s="378"/>
-      <c r="AS12" s="378"/>
-      <c r="AT12" s="378"/>
-      <c r="AU12" s="378"/>
-      <c r="AV12" s="378"/>
-      <c r="AW12" s="378"/>
-      <c r="AX12" s="378"/>
-      <c r="AY12" s="378"/>
-      <c r="AZ12" s="378"/>
-      <c r="BA12" s="378"/>
-      <c r="BB12" s="378"/>
-      <c r="BC12" s="378"/>
-      <c r="BD12" s="378"/>
-      <c r="BE12" s="378"/>
-      <c r="BF12" s="378"/>
-      <c r="BG12" s="378"/>
-      <c r="BH12" s="378"/>
-      <c r="BI12" s="378"/>
-      <c r="BJ12" s="378"/>
-      <c r="BK12" s="379"/>
-      <c r="BL12" s="380"/>
-      <c r="BM12" s="380"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="250"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="250"/>
+      <c r="I12" s="250"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="250"/>
+      <c r="L12" s="250"/>
+      <c r="M12" s="250"/>
+      <c r="N12" s="250"/>
+      <c r="O12" s="250"/>
+      <c r="P12" s="250"/>
+      <c r="Q12" s="250"/>
+      <c r="R12" s="250"/>
+      <c r="S12" s="250"/>
+      <c r="T12" s="250"/>
+      <c r="U12" s="250"/>
+      <c r="V12" s="250"/>
+      <c r="W12" s="250"/>
+      <c r="X12" s="250"/>
+      <c r="Y12" s="250"/>
+      <c r="Z12" s="250"/>
+      <c r="AA12" s="250"/>
+      <c r="AB12" s="250"/>
+      <c r="AC12" s="250"/>
+      <c r="AD12" s="250"/>
+      <c r="AE12" s="250"/>
+      <c r="AF12" s="250"/>
+      <c r="AG12" s="250"/>
+      <c r="AH12" s="250"/>
+      <c r="AI12" s="250"/>
+      <c r="AJ12" s="250"/>
+      <c r="AK12" s="250"/>
+      <c r="AL12" s="250"/>
+      <c r="AM12" s="250"/>
+      <c r="AN12" s="250"/>
+      <c r="AO12" s="250"/>
+      <c r="AP12" s="250"/>
+      <c r="AQ12" s="250"/>
+      <c r="AR12" s="250"/>
+      <c r="AS12" s="250"/>
+      <c r="AT12" s="250"/>
+      <c r="AU12" s="250"/>
+      <c r="AV12" s="250"/>
+      <c r="AW12" s="250"/>
+      <c r="AX12" s="250"/>
+      <c r="AY12" s="250"/>
+      <c r="AZ12" s="250"/>
+      <c r="BA12" s="250"/>
+      <c r="BB12" s="250"/>
+      <c r="BC12" s="250"/>
+      <c r="BD12" s="250"/>
+      <c r="BE12" s="250"/>
+      <c r="BF12" s="250"/>
+      <c r="BG12" s="250"/>
+      <c r="BH12" s="250"/>
+      <c r="BI12" s="250"/>
+      <c r="BJ12" s="250"/>
+      <c r="BK12" s="255"/>
+      <c r="BL12" s="129"/>
+      <c r="BM12" s="129"/>
     </row>
     <row r="13" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
@@ -11395,69 +11392,69 @@
     <row r="14" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="381" t="s">
+      <c r="C14" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="382"/>
-      <c r="E14" s="382"/>
-      <c r="F14" s="382"/>
-      <c r="G14" s="382"/>
-      <c r="H14" s="382"/>
-      <c r="I14" s="382"/>
-      <c r="J14" s="382"/>
-      <c r="K14" s="382"/>
-      <c r="L14" s="382"/>
-      <c r="M14" s="382"/>
-      <c r="N14" s="382"/>
-      <c r="O14" s="382"/>
-      <c r="P14" s="382"/>
-      <c r="Q14" s="382"/>
-      <c r="R14" s="382"/>
-      <c r="S14" s="382"/>
-      <c r="T14" s="382"/>
-      <c r="U14" s="382"/>
-      <c r="V14" s="382"/>
-      <c r="W14" s="382"/>
-      <c r="X14" s="382"/>
-      <c r="Y14" s="382"/>
-      <c r="Z14" s="382"/>
-      <c r="AA14" s="382"/>
-      <c r="AB14" s="382"/>
-      <c r="AC14" s="382"/>
-      <c r="AD14" s="382"/>
-      <c r="AE14" s="382"/>
-      <c r="AF14" s="382"/>
-      <c r="AG14" s="382"/>
-      <c r="AH14" s="382"/>
-      <c r="AI14" s="382"/>
-      <c r="AJ14" s="382"/>
-      <c r="AK14" s="382"/>
-      <c r="AL14" s="382"/>
-      <c r="AM14" s="382"/>
-      <c r="AN14" s="382"/>
-      <c r="AO14" s="382"/>
-      <c r="AP14" s="382"/>
-      <c r="AQ14" s="382"/>
-      <c r="AR14" s="382"/>
-      <c r="AS14" s="382"/>
-      <c r="AT14" s="382"/>
-      <c r="AU14" s="382"/>
-      <c r="AV14" s="382"/>
-      <c r="AW14" s="382"/>
-      <c r="AX14" s="382"/>
-      <c r="AY14" s="382"/>
-      <c r="AZ14" s="382"/>
-      <c r="BA14" s="382"/>
-      <c r="BB14" s="382"/>
-      <c r="BC14" s="382"/>
-      <c r="BD14" s="382"/>
-      <c r="BE14" s="382"/>
-      <c r="BF14" s="382"/>
-      <c r="BG14" s="382"/>
-      <c r="BH14" s="382"/>
-      <c r="BI14" s="382"/>
-      <c r="BJ14" s="382"/>
-      <c r="BK14" s="383"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="252"/>
+      <c r="G14" s="252"/>
+      <c r="H14" s="252"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="252"/>
+      <c r="K14" s="252"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="252"/>
+      <c r="N14" s="252"/>
+      <c r="O14" s="252"/>
+      <c r="P14" s="252"/>
+      <c r="Q14" s="252"/>
+      <c r="R14" s="252"/>
+      <c r="S14" s="252"/>
+      <c r="T14" s="252"/>
+      <c r="U14" s="252"/>
+      <c r="V14" s="252"/>
+      <c r="W14" s="252"/>
+      <c r="X14" s="252"/>
+      <c r="Y14" s="252"/>
+      <c r="Z14" s="252"/>
+      <c r="AA14" s="252"/>
+      <c r="AB14" s="252"/>
+      <c r="AC14" s="252"/>
+      <c r="AD14" s="252"/>
+      <c r="AE14" s="252"/>
+      <c r="AF14" s="252"/>
+      <c r="AG14" s="252"/>
+      <c r="AH14" s="252"/>
+      <c r="AI14" s="252"/>
+      <c r="AJ14" s="252"/>
+      <c r="AK14" s="252"/>
+      <c r="AL14" s="252"/>
+      <c r="AM14" s="252"/>
+      <c r="AN14" s="252"/>
+      <c r="AO14" s="252"/>
+      <c r="AP14" s="252"/>
+      <c r="AQ14" s="252"/>
+      <c r="AR14" s="252"/>
+      <c r="AS14" s="252"/>
+      <c r="AT14" s="252"/>
+      <c r="AU14" s="252"/>
+      <c r="AV14" s="252"/>
+      <c r="AW14" s="252"/>
+      <c r="AX14" s="252"/>
+      <c r="AY14" s="252"/>
+      <c r="AZ14" s="252"/>
+      <c r="BA14" s="252"/>
+      <c r="BB14" s="252"/>
+      <c r="BC14" s="252"/>
+      <c r="BD14" s="252"/>
+      <c r="BE14" s="252"/>
+      <c r="BF14" s="252"/>
+      <c r="BG14" s="252"/>
+      <c r="BH14" s="252"/>
+      <c r="BI14" s="252"/>
+      <c r="BJ14" s="252"/>
+      <c r="BK14" s="253"/>
     </row>
     <row r="15" spans="1:65" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="82"/>
@@ -11527,75 +11524,75 @@
     <row r="16" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="377" t="s">
+      <c r="C16" s="254" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="378"/>
-      <c r="E16" s="378"/>
-      <c r="F16" s="378"/>
-      <c r="G16" s="378"/>
-      <c r="H16" s="378"/>
-      <c r="I16" s="378"/>
-      <c r="J16" s="378"/>
-      <c r="K16" s="378"/>
-      <c r="L16" s="378"/>
-      <c r="M16" s="378"/>
-      <c r="N16" s="378"/>
-      <c r="O16" s="378"/>
-      <c r="P16" s="378"/>
-      <c r="Q16" s="378"/>
-      <c r="R16" s="378"/>
-      <c r="S16" s="378"/>
-      <c r="T16" s="378"/>
-      <c r="U16" s="378"/>
-      <c r="V16" s="378"/>
-      <c r="W16" s="378"/>
-      <c r="X16" s="378"/>
-      <c r="Y16" s="378"/>
-      <c r="Z16" s="378"/>
-      <c r="AA16" s="378"/>
-      <c r="AB16" s="378"/>
-      <c r="AC16" s="378"/>
-      <c r="AD16" s="378"/>
-      <c r="AE16" s="378"/>
-      <c r="AF16" s="378"/>
-      <c r="AG16" s="378"/>
-      <c r="AH16" s="378"/>
-      <c r="AI16" s="378"/>
-      <c r="AJ16" s="378"/>
-      <c r="AK16" s="378"/>
-      <c r="AL16" s="378"/>
-      <c r="AM16" s="378"/>
-      <c r="AN16" s="378"/>
-      <c r="AO16" s="378"/>
-      <c r="AP16" s="378"/>
-      <c r="AQ16" s="378"/>
-      <c r="AR16" s="378"/>
-      <c r="AS16" s="378"/>
-      <c r="AT16" s="378"/>
-      <c r="AU16" s="378"/>
-      <c r="AV16" s="378"/>
-      <c r="AW16" s="378"/>
-      <c r="AX16" s="378"/>
-      <c r="AY16" s="378"/>
-      <c r="AZ16" s="378"/>
-      <c r="BA16" s="378"/>
-      <c r="BB16" s="378"/>
-      <c r="BC16" s="378"/>
-      <c r="BD16" s="378"/>
-      <c r="BE16" s="378"/>
-      <c r="BF16" s="378"/>
-      <c r="BG16" s="378"/>
-      <c r="BH16" s="378"/>
-      <c r="BI16" s="378"/>
-      <c r="BJ16" s="378"/>
-      <c r="BK16" s="379"/>
+      <c r="D16" s="250"/>
+      <c r="E16" s="250"/>
+      <c r="F16" s="250"/>
+      <c r="G16" s="250"/>
+      <c r="H16" s="250"/>
+      <c r="I16" s="250"/>
+      <c r="J16" s="250"/>
+      <c r="K16" s="250"/>
+      <c r="L16" s="250"/>
+      <c r="M16" s="250"/>
+      <c r="N16" s="250"/>
+      <c r="O16" s="250"/>
+      <c r="P16" s="250"/>
+      <c r="Q16" s="250"/>
+      <c r="R16" s="250"/>
+      <c r="S16" s="250"/>
+      <c r="T16" s="250"/>
+      <c r="U16" s="250"/>
+      <c r="V16" s="250"/>
+      <c r="W16" s="250"/>
+      <c r="X16" s="250"/>
+      <c r="Y16" s="250"/>
+      <c r="Z16" s="250"/>
+      <c r="AA16" s="250"/>
+      <c r="AB16" s="250"/>
+      <c r="AC16" s="250"/>
+      <c r="AD16" s="250"/>
+      <c r="AE16" s="250"/>
+      <c r="AF16" s="250"/>
+      <c r="AG16" s="250"/>
+      <c r="AH16" s="250"/>
+      <c r="AI16" s="250"/>
+      <c r="AJ16" s="250"/>
+      <c r="AK16" s="250"/>
+      <c r="AL16" s="250"/>
+      <c r="AM16" s="250"/>
+      <c r="AN16" s="250"/>
+      <c r="AO16" s="250"/>
+      <c r="AP16" s="250"/>
+      <c r="AQ16" s="250"/>
+      <c r="AR16" s="250"/>
+      <c r="AS16" s="250"/>
+      <c r="AT16" s="250"/>
+      <c r="AU16" s="250"/>
+      <c r="AV16" s="250"/>
+      <c r="AW16" s="250"/>
+      <c r="AX16" s="250"/>
+      <c r="AY16" s="250"/>
+      <c r="AZ16" s="250"/>
+      <c r="BA16" s="250"/>
+      <c r="BB16" s="250"/>
+      <c r="BC16" s="250"/>
+      <c r="BD16" s="250"/>
+      <c r="BE16" s="250"/>
+      <c r="BF16" s="250"/>
+      <c r="BG16" s="250"/>
+      <c r="BH16" s="250"/>
+      <c r="BI16" s="250"/>
+      <c r="BJ16" s="250"/>
+      <c r="BK16" s="255"/>
     </row>
     <row r="17" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="53"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="375"/>
-      <c r="D17" s="385" t="s">
+      <c r="C17" s="127"/>
+      <c r="D17" s="131" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="37" t="s">
@@ -11622,48 +11619,48 @@
       <c r="X17" s="37"/>
       <c r="Y17" s="37"/>
       <c r="Z17" s="37"/>
-      <c r="AA17" s="380"/>
-      <c r="AB17" s="380"/>
-      <c r="AC17" s="380"/>
-      <c r="AD17" s="380"/>
-      <c r="AE17" s="380"/>
-      <c r="AF17" s="380"/>
-      <c r="AG17" s="380"/>
-      <c r="AH17" s="380"/>
-      <c r="AI17" s="380"/>
-      <c r="AJ17" s="380"/>
-      <c r="AK17" s="380"/>
-      <c r="AL17" s="380"/>
-      <c r="AM17" s="380"/>
-      <c r="AN17" s="380"/>
-      <c r="AO17" s="380"/>
-      <c r="AP17" s="380"/>
-      <c r="AQ17" s="380"/>
-      <c r="AR17" s="380"/>
-      <c r="AS17" s="380"/>
-      <c r="AT17" s="380"/>
-      <c r="AU17" s="380"/>
-      <c r="AV17" s="380"/>
-      <c r="AW17" s="380"/>
-      <c r="AX17" s="380"/>
-      <c r="AY17" s="380"/>
-      <c r="AZ17" s="380"/>
-      <c r="BA17" s="380"/>
-      <c r="BB17" s="380"/>
-      <c r="BC17" s="380"/>
-      <c r="BD17" s="380"/>
-      <c r="BE17" s="380"/>
-      <c r="BF17" s="380"/>
-      <c r="BG17" s="380"/>
-      <c r="BH17" s="380"/>
-      <c r="BI17" s="380"/>
-      <c r="BJ17" s="380"/>
-      <c r="BK17" s="376"/>
+      <c r="AA17" s="129"/>
+      <c r="AB17" s="129"/>
+      <c r="AC17" s="129"/>
+      <c r="AD17" s="129"/>
+      <c r="AE17" s="129"/>
+      <c r="AF17" s="129"/>
+      <c r="AG17" s="129"/>
+      <c r="AH17" s="129"/>
+      <c r="AI17" s="129"/>
+      <c r="AJ17" s="129"/>
+      <c r="AK17" s="129"/>
+      <c r="AL17" s="129"/>
+      <c r="AM17" s="129"/>
+      <c r="AN17" s="129"/>
+      <c r="AO17" s="129"/>
+      <c r="AP17" s="129"/>
+      <c r="AQ17" s="129"/>
+      <c r="AR17" s="129"/>
+      <c r="AS17" s="129"/>
+      <c r="AT17" s="129"/>
+      <c r="AU17" s="129"/>
+      <c r="AV17" s="129"/>
+      <c r="AW17" s="129"/>
+      <c r="AX17" s="129"/>
+      <c r="AY17" s="129"/>
+      <c r="AZ17" s="129"/>
+      <c r="BA17" s="129"/>
+      <c r="BB17" s="129"/>
+      <c r="BC17" s="129"/>
+      <c r="BD17" s="129"/>
+      <c r="BE17" s="129"/>
+      <c r="BF17" s="129"/>
+      <c r="BG17" s="129"/>
+      <c r="BH17" s="129"/>
+      <c r="BI17" s="129"/>
+      <c r="BJ17" s="129"/>
+      <c r="BK17" s="128"/>
     </row>
     <row r="18" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="53"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="375"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="54"/>
       <c r="E18" s="37" t="s">
         <v>82</v>
@@ -11689,48 +11686,48 @@
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
       <c r="Z18" s="37"/>
-      <c r="AA18" s="380"/>
-      <c r="AB18" s="380"/>
-      <c r="AC18" s="380"/>
-      <c r="AD18" s="380"/>
-      <c r="AE18" s="380"/>
-      <c r="AF18" s="380"/>
-      <c r="AG18" s="380"/>
-      <c r="AH18" s="380"/>
-      <c r="AI18" s="380"/>
-      <c r="AJ18" s="380"/>
-      <c r="AK18" s="380"/>
-      <c r="AL18" s="380"/>
-      <c r="AM18" s="380"/>
-      <c r="AN18" s="380"/>
-      <c r="AO18" s="380"/>
-      <c r="AP18" s="380"/>
-      <c r="AQ18" s="380"/>
-      <c r="AR18" s="380"/>
-      <c r="AS18" s="380"/>
-      <c r="AT18" s="380"/>
-      <c r="AU18" s="380"/>
-      <c r="AV18" s="380"/>
-      <c r="AW18" s="380"/>
-      <c r="AX18" s="380"/>
-      <c r="AY18" s="380"/>
-      <c r="AZ18" s="380"/>
-      <c r="BA18" s="380"/>
-      <c r="BB18" s="380"/>
-      <c r="BC18" s="380"/>
-      <c r="BD18" s="380"/>
-      <c r="BE18" s="380"/>
-      <c r="BF18" s="380"/>
-      <c r="BG18" s="380"/>
-      <c r="BH18" s="380"/>
-      <c r="BI18" s="380"/>
-      <c r="BJ18" s="380"/>
-      <c r="BK18" s="376"/>
+      <c r="AA18" s="129"/>
+      <c r="AB18" s="129"/>
+      <c r="AC18" s="129"/>
+      <c r="AD18" s="129"/>
+      <c r="AE18" s="129"/>
+      <c r="AF18" s="129"/>
+      <c r="AG18" s="129"/>
+      <c r="AH18" s="129"/>
+      <c r="AI18" s="129"/>
+      <c r="AJ18" s="129"/>
+      <c r="AK18" s="129"/>
+      <c r="AL18" s="129"/>
+      <c r="AM18" s="129"/>
+      <c r="AN18" s="129"/>
+      <c r="AO18" s="129"/>
+      <c r="AP18" s="129"/>
+      <c r="AQ18" s="129"/>
+      <c r="AR18" s="129"/>
+      <c r="AS18" s="129"/>
+      <c r="AT18" s="129"/>
+      <c r="AU18" s="129"/>
+      <c r="AV18" s="129"/>
+      <c r="AW18" s="129"/>
+      <c r="AX18" s="129"/>
+      <c r="AY18" s="129"/>
+      <c r="AZ18" s="129"/>
+      <c r="BA18" s="129"/>
+      <c r="BB18" s="129"/>
+      <c r="BC18" s="129"/>
+      <c r="BD18" s="129"/>
+      <c r="BE18" s="129"/>
+      <c r="BF18" s="129"/>
+      <c r="BG18" s="129"/>
+      <c r="BH18" s="129"/>
+      <c r="BI18" s="129"/>
+      <c r="BJ18" s="129"/>
+      <c r="BK18" s="128"/>
     </row>
     <row r="19" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="53"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="375"/>
+      <c r="C19" s="127"/>
       <c r="D19" s="54"/>
       <c r="E19" s="37" t="s">
         <v>83</v>
@@ -11756,48 +11753,48 @@
       <c r="X19" s="37"/>
       <c r="Y19" s="37"/>
       <c r="Z19" s="37"/>
-      <c r="AA19" s="380"/>
-      <c r="AB19" s="380"/>
-      <c r="AC19" s="380"/>
-      <c r="AD19" s="380"/>
-      <c r="AE19" s="380"/>
-      <c r="AF19" s="380"/>
-      <c r="AG19" s="380"/>
-      <c r="AH19" s="380"/>
-      <c r="AI19" s="380"/>
-      <c r="AJ19" s="380"/>
-      <c r="AK19" s="380"/>
-      <c r="AL19" s="380"/>
-      <c r="AM19" s="380"/>
-      <c r="AN19" s="380"/>
-      <c r="AO19" s="380"/>
-      <c r="AP19" s="380"/>
-      <c r="AQ19" s="380"/>
-      <c r="AR19" s="380"/>
-      <c r="AS19" s="380"/>
-      <c r="AT19" s="380"/>
-      <c r="AU19" s="380"/>
-      <c r="AV19" s="380"/>
-      <c r="AW19" s="380"/>
-      <c r="AX19" s="380"/>
-      <c r="AY19" s="380"/>
-      <c r="AZ19" s="380"/>
-      <c r="BA19" s="380"/>
-      <c r="BB19" s="380"/>
-      <c r="BC19" s="380"/>
-      <c r="BD19" s="380"/>
-      <c r="BE19" s="380"/>
-      <c r="BF19" s="380"/>
-      <c r="BG19" s="380"/>
-      <c r="BH19" s="380"/>
-      <c r="BI19" s="380"/>
-      <c r="BJ19" s="380"/>
-      <c r="BK19" s="376"/>
+      <c r="AA19" s="129"/>
+      <c r="AB19" s="129"/>
+      <c r="AC19" s="129"/>
+      <c r="AD19" s="129"/>
+      <c r="AE19" s="129"/>
+      <c r="AF19" s="129"/>
+      <c r="AG19" s="129"/>
+      <c r="AH19" s="129"/>
+      <c r="AI19" s="129"/>
+      <c r="AJ19" s="129"/>
+      <c r="AK19" s="129"/>
+      <c r="AL19" s="129"/>
+      <c r="AM19" s="129"/>
+      <c r="AN19" s="129"/>
+      <c r="AO19" s="129"/>
+      <c r="AP19" s="129"/>
+      <c r="AQ19" s="129"/>
+      <c r="AR19" s="129"/>
+      <c r="AS19" s="129"/>
+      <c r="AT19" s="129"/>
+      <c r="AU19" s="129"/>
+      <c r="AV19" s="129"/>
+      <c r="AW19" s="129"/>
+      <c r="AX19" s="129"/>
+      <c r="AY19" s="129"/>
+      <c r="AZ19" s="129"/>
+      <c r="BA19" s="129"/>
+      <c r="BB19" s="129"/>
+      <c r="BC19" s="129"/>
+      <c r="BD19" s="129"/>
+      <c r="BE19" s="129"/>
+      <c r="BF19" s="129"/>
+      <c r="BG19" s="129"/>
+      <c r="BH19" s="129"/>
+      <c r="BI19" s="129"/>
+      <c r="BJ19" s="129"/>
+      <c r="BK19" s="128"/>
     </row>
     <row r="20" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="53"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="375"/>
+      <c r="C20" s="127"/>
       <c r="D20" s="54"/>
       <c r="E20" s="37" t="s">
         <v>84</v>
@@ -11823,48 +11820,48 @@
       <c r="X20" s="37"/>
       <c r="Y20" s="37"/>
       <c r="Z20" s="37"/>
-      <c r="AA20" s="380"/>
-      <c r="AB20" s="380"/>
-      <c r="AC20" s="380"/>
-      <c r="AD20" s="380"/>
-      <c r="AE20" s="380"/>
-      <c r="AF20" s="380"/>
-      <c r="AG20" s="380"/>
-      <c r="AH20" s="380"/>
-      <c r="AI20" s="380"/>
-      <c r="AJ20" s="380"/>
-      <c r="AK20" s="380"/>
-      <c r="AL20" s="380"/>
-      <c r="AM20" s="380"/>
-      <c r="AN20" s="380"/>
-      <c r="AO20" s="380"/>
-      <c r="AP20" s="380"/>
-      <c r="AQ20" s="380"/>
-      <c r="AR20" s="380"/>
-      <c r="AS20" s="380"/>
-      <c r="AT20" s="380"/>
-      <c r="AU20" s="380"/>
-      <c r="AV20" s="380"/>
-      <c r="AW20" s="380"/>
-      <c r="AX20" s="380"/>
-      <c r="AY20" s="380"/>
-      <c r="AZ20" s="380"/>
-      <c r="BA20" s="380"/>
-      <c r="BB20" s="380"/>
-      <c r="BC20" s="380"/>
-      <c r="BD20" s="380"/>
-      <c r="BE20" s="380"/>
-      <c r="BF20" s="380"/>
-      <c r="BG20" s="380"/>
-      <c r="BH20" s="380"/>
-      <c r="BI20" s="380"/>
-      <c r="BJ20" s="380"/>
-      <c r="BK20" s="376"/>
+      <c r="AA20" s="129"/>
+      <c r="AB20" s="129"/>
+      <c r="AC20" s="129"/>
+      <c r="AD20" s="129"/>
+      <c r="AE20" s="129"/>
+      <c r="AF20" s="129"/>
+      <c r="AG20" s="129"/>
+      <c r="AH20" s="129"/>
+      <c r="AI20" s="129"/>
+      <c r="AJ20" s="129"/>
+      <c r="AK20" s="129"/>
+      <c r="AL20" s="129"/>
+      <c r="AM20" s="129"/>
+      <c r="AN20" s="129"/>
+      <c r="AO20" s="129"/>
+      <c r="AP20" s="129"/>
+      <c r="AQ20" s="129"/>
+      <c r="AR20" s="129"/>
+      <c r="AS20" s="129"/>
+      <c r="AT20" s="129"/>
+      <c r="AU20" s="129"/>
+      <c r="AV20" s="129"/>
+      <c r="AW20" s="129"/>
+      <c r="AX20" s="129"/>
+      <c r="AY20" s="129"/>
+      <c r="AZ20" s="129"/>
+      <c r="BA20" s="129"/>
+      <c r="BB20" s="129"/>
+      <c r="BC20" s="129"/>
+      <c r="BD20" s="129"/>
+      <c r="BE20" s="129"/>
+      <c r="BF20" s="129"/>
+      <c r="BG20" s="129"/>
+      <c r="BH20" s="129"/>
+      <c r="BI20" s="129"/>
+      <c r="BJ20" s="129"/>
+      <c r="BK20" s="128"/>
     </row>
     <row r="21" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="53"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="375"/>
+      <c r="C21" s="127"/>
       <c r="D21" s="54"/>
       <c r="E21" s="37" t="s">
         <v>45</v>
@@ -11890,48 +11887,48 @@
       <c r="X21" s="37"/>
       <c r="Y21" s="37"/>
       <c r="Z21" s="37"/>
-      <c r="AA21" s="380"/>
-      <c r="AB21" s="380"/>
-      <c r="AC21" s="380"/>
-      <c r="AD21" s="380"/>
-      <c r="AE21" s="380"/>
-      <c r="AF21" s="380"/>
-      <c r="AG21" s="380"/>
-      <c r="AH21" s="380"/>
-      <c r="AI21" s="380"/>
-      <c r="AJ21" s="380"/>
-      <c r="AK21" s="380"/>
-      <c r="AL21" s="380"/>
-      <c r="AM21" s="380"/>
-      <c r="AN21" s="380"/>
-      <c r="AO21" s="380"/>
-      <c r="AP21" s="380"/>
-      <c r="AQ21" s="380"/>
-      <c r="AR21" s="380"/>
-      <c r="AS21" s="380"/>
-      <c r="AT21" s="380"/>
-      <c r="AU21" s="380"/>
-      <c r="AV21" s="380"/>
-      <c r="AW21" s="380"/>
-      <c r="AX21" s="380"/>
-      <c r="AY21" s="380"/>
-      <c r="AZ21" s="380"/>
-      <c r="BA21" s="380"/>
-      <c r="BB21" s="380"/>
-      <c r="BC21" s="380"/>
-      <c r="BD21" s="380"/>
-      <c r="BE21" s="380"/>
-      <c r="BF21" s="380"/>
-      <c r="BG21" s="380"/>
-      <c r="BH21" s="380"/>
-      <c r="BI21" s="380"/>
-      <c r="BJ21" s="380"/>
-      <c r="BK21" s="376"/>
+      <c r="AA21" s="129"/>
+      <c r="AB21" s="129"/>
+      <c r="AC21" s="129"/>
+      <c r="AD21" s="129"/>
+      <c r="AE21" s="129"/>
+      <c r="AF21" s="129"/>
+      <c r="AG21" s="129"/>
+      <c r="AH21" s="129"/>
+      <c r="AI21" s="129"/>
+      <c r="AJ21" s="129"/>
+      <c r="AK21" s="129"/>
+      <c r="AL21" s="129"/>
+      <c r="AM21" s="129"/>
+      <c r="AN21" s="129"/>
+      <c r="AO21" s="129"/>
+      <c r="AP21" s="129"/>
+      <c r="AQ21" s="129"/>
+      <c r="AR21" s="129"/>
+      <c r="AS21" s="129"/>
+      <c r="AT21" s="129"/>
+      <c r="AU21" s="129"/>
+      <c r="AV21" s="129"/>
+      <c r="AW21" s="129"/>
+      <c r="AX21" s="129"/>
+      <c r="AY21" s="129"/>
+      <c r="AZ21" s="129"/>
+      <c r="BA21" s="129"/>
+      <c r="BB21" s="129"/>
+      <c r="BC21" s="129"/>
+      <c r="BD21" s="129"/>
+      <c r="BE21" s="129"/>
+      <c r="BF21" s="129"/>
+      <c r="BG21" s="129"/>
+      <c r="BH21" s="129"/>
+      <c r="BI21" s="129"/>
+      <c r="BJ21" s="129"/>
+      <c r="BK21" s="128"/>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
       <c r="B22" s="36"/>
-      <c r="C22" s="361"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
@@ -11996,8 +11993,8 @@
     <row r="23" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A23" s="53"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="384"/>
-      <c r="D23" s="385" t="s">
+      <c r="C23" s="130"/>
+      <c r="D23" s="131" t="s">
         <v>79</v>
       </c>
       <c r="E23" s="37" t="s">
@@ -12060,7 +12057,7 @@
       <c r="BH23" s="38"/>
       <c r="BI23" s="38"/>
       <c r="BJ23" s="38"/>
-      <c r="BK23" s="376"/>
+      <c r="BK23" s="128"/>
     </row>
     <row r="24" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
@@ -12194,6 +12191,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AU4"/>
+    <mergeCell ref="AY4:BD4"/>
+    <mergeCell ref="BE4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AU5"/>
+    <mergeCell ref="AV5:AX5"/>
+    <mergeCell ref="AY5:BD5"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="AV4:AX4"/>
     <mergeCell ref="E10:AP10"/>
     <mergeCell ref="C14:BK14"/>
     <mergeCell ref="C16:BK16"/>
@@ -12204,22 +12217,6 @@
     <mergeCell ref="BC6:BK6"/>
     <mergeCell ref="C7:BK7"/>
     <mergeCell ref="C9:BK9"/>
-    <mergeCell ref="AY4:BD4"/>
-    <mergeCell ref="BE4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AU5"/>
-    <mergeCell ref="AV5:AX5"/>
-    <mergeCell ref="AY5:BD5"/>
-    <mergeCell ref="BE5:BG5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AU4"/>
-    <mergeCell ref="AV4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12438,35 +12435,35 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="237"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -12492,33 +12489,33 @@
       <c r="BL2" s="26"/>
     </row>
     <row r="3" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="258"/>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="259"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="259"/>
-      <c r="M3" s="259"/>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="259"/>
-      <c r="R3" s="259"/>
-      <c r="S3" s="259"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="259"/>
-      <c r="AA3" s="259"/>
+      <c r="A3" s="375"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="376"/>
+      <c r="M3" s="376"/>
+      <c r="N3" s="376"/>
+      <c r="O3" s="376"/>
+      <c r="P3" s="376"/>
+      <c r="Q3" s="376"/>
+      <c r="R3" s="376"/>
+      <c r="S3" s="376"/>
+      <c r="T3" s="376"/>
+      <c r="U3" s="376"/>
+      <c r="V3" s="376"/>
+      <c r="W3" s="376"/>
+      <c r="X3" s="376"/>
+      <c r="Y3" s="376"/>
+      <c r="Z3" s="376"/>
+      <c r="AA3" s="376"/>
       <c r="AB3" s="46"/>
       <c r="AC3" s="46"/>
       <c r="AD3" s="46"/>
@@ -12558,1102 +12555,1102 @@
       <c r="BL3" s="74"/>
     </row>
     <row r="4" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="377" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="263" t="s">
+      <c r="B4" s="378"/>
+      <c r="C4" s="378"/>
+      <c r="D4" s="378"/>
+      <c r="E4" s="378"/>
+      <c r="F4" s="379"/>
+      <c r="G4" s="380" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="264"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="264"/>
-      <c r="O4" s="265"/>
-      <c r="P4" s="266" t="s">
+      <c r="H4" s="381"/>
+      <c r="I4" s="381"/>
+      <c r="J4" s="381"/>
+      <c r="K4" s="381"/>
+      <c r="L4" s="381"/>
+      <c r="M4" s="381"/>
+      <c r="N4" s="381"/>
+      <c r="O4" s="382"/>
+      <c r="P4" s="383" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="267"/>
-      <c r="U4" s="268"/>
-      <c r="V4" s="269" t="s">
+      <c r="Q4" s="384"/>
+      <c r="R4" s="384"/>
+      <c r="S4" s="384"/>
+      <c r="T4" s="384"/>
+      <c r="U4" s="385"/>
+      <c r="V4" s="386" t="s">
         <v>100</v>
       </c>
-      <c r="W4" s="270"/>
-      <c r="X4" s="270"/>
-      <c r="Y4" s="270"/>
-      <c r="Z4" s="270"/>
-      <c r="AA4" s="270"/>
-      <c r="AB4" s="270"/>
-      <c r="AC4" s="270"/>
-      <c r="AD4" s="270"/>
-      <c r="AE4" s="270"/>
-      <c r="AF4" s="270"/>
-      <c r="AG4" s="270"/>
-      <c r="AH4" s="270"/>
-      <c r="AI4" s="270"/>
-      <c r="AJ4" s="270"/>
-      <c r="AK4" s="270"/>
-      <c r="AL4" s="270"/>
-      <c r="AM4" s="270"/>
-      <c r="AN4" s="270"/>
-      <c r="AO4" s="270"/>
-      <c r="AP4" s="270"/>
-      <c r="AQ4" s="270"/>
-      <c r="AR4" s="270"/>
-      <c r="AS4" s="270"/>
-      <c r="AT4" s="270"/>
-      <c r="AU4" s="270"/>
-      <c r="AV4" s="271"/>
-      <c r="AW4" s="272" t="s">
+      <c r="W4" s="387"/>
+      <c r="X4" s="387"/>
+      <c r="Y4" s="387"/>
+      <c r="Z4" s="387"/>
+      <c r="AA4" s="387"/>
+      <c r="AB4" s="387"/>
+      <c r="AC4" s="387"/>
+      <c r="AD4" s="387"/>
+      <c r="AE4" s="387"/>
+      <c r="AF4" s="387"/>
+      <c r="AG4" s="387"/>
+      <c r="AH4" s="387"/>
+      <c r="AI4" s="387"/>
+      <c r="AJ4" s="387"/>
+      <c r="AK4" s="387"/>
+      <c r="AL4" s="387"/>
+      <c r="AM4" s="387"/>
+      <c r="AN4" s="387"/>
+      <c r="AO4" s="387"/>
+      <c r="AP4" s="387"/>
+      <c r="AQ4" s="387"/>
+      <c r="AR4" s="387"/>
+      <c r="AS4" s="387"/>
+      <c r="AT4" s="387"/>
+      <c r="AU4" s="387"/>
+      <c r="AV4" s="388"/>
+      <c r="AW4" s="364" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="273"/>
-      <c r="AY4" s="274"/>
-      <c r="AZ4" s="232">
+      <c r="AX4" s="365"/>
+      <c r="AY4" s="389"/>
+      <c r="AZ4" s="264">
         <v>45427</v>
       </c>
-      <c r="BA4" s="233"/>
-      <c r="BB4" s="233"/>
-      <c r="BC4" s="233"/>
-      <c r="BD4" s="233"/>
-      <c r="BE4" s="233"/>
-      <c r="BF4" s="272" t="s">
+      <c r="BA4" s="265"/>
+      <c r="BB4" s="265"/>
+      <c r="BC4" s="265"/>
+      <c r="BD4" s="265"/>
+      <c r="BE4" s="265"/>
+      <c r="BF4" s="364" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="273"/>
-      <c r="BH4" s="275"/>
-      <c r="BI4" s="413" t="s">
+      <c r="BG4" s="365"/>
+      <c r="BH4" s="366"/>
+      <c r="BI4" s="367" t="s">
         <v>106</v>
       </c>
-      <c r="BJ4" s="237"/>
-      <c r="BK4" s="237"/>
-      <c r="BL4" s="238"/>
+      <c r="BJ4" s="257"/>
+      <c r="BK4" s="257"/>
+      <c r="BL4" s="258"/>
     </row>
     <row r="5" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="276" t="s">
+      <c r="A5" s="368" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="277"/>
-      <c r="C5" s="277"/>
-      <c r="D5" s="277"/>
-      <c r="E5" s="277"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="279"/>
-      <c r="P5" s="276" t="s">
+      <c r="B5" s="369"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="370"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="371"/>
+      <c r="P5" s="368" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="277"/>
-      <c r="U5" s="278"/>
-      <c r="V5" s="280"/>
-      <c r="W5" s="189"/>
-      <c r="X5" s="189"/>
-      <c r="Y5" s="189"/>
-      <c r="Z5" s="189"/>
-      <c r="AA5" s="189"/>
-      <c r="AB5" s="189"/>
-      <c r="AC5" s="189"/>
-      <c r="AD5" s="189"/>
-      <c r="AE5" s="189"/>
-      <c r="AF5" s="189"/>
-      <c r="AG5" s="189"/>
-      <c r="AH5" s="189"/>
-      <c r="AI5" s="189"/>
-      <c r="AJ5" s="189"/>
-      <c r="AK5" s="189"/>
-      <c r="AL5" s="189"/>
-      <c r="AM5" s="189"/>
-      <c r="AN5" s="189"/>
-      <c r="AO5" s="281"/>
-      <c r="AP5" s="281"/>
-      <c r="AQ5" s="281"/>
-      <c r="AR5" s="281"/>
-      <c r="AS5" s="281"/>
-      <c r="AT5" s="281"/>
-      <c r="AU5" s="281"/>
-      <c r="AV5" s="282"/>
-      <c r="AW5" s="283" t="s">
+      <c r="Q5" s="369"/>
+      <c r="R5" s="369"/>
+      <c r="S5" s="369"/>
+      <c r="T5" s="369"/>
+      <c r="U5" s="370"/>
+      <c r="V5" s="372"/>
+      <c r="W5" s="222"/>
+      <c r="X5" s="222"/>
+      <c r="Y5" s="222"/>
+      <c r="Z5" s="222"/>
+      <c r="AA5" s="222"/>
+      <c r="AB5" s="222"/>
+      <c r="AC5" s="222"/>
+      <c r="AD5" s="222"/>
+      <c r="AE5" s="222"/>
+      <c r="AF5" s="222"/>
+      <c r="AG5" s="222"/>
+      <c r="AH5" s="222"/>
+      <c r="AI5" s="222"/>
+      <c r="AJ5" s="222"/>
+      <c r="AK5" s="222"/>
+      <c r="AL5" s="222"/>
+      <c r="AM5" s="222"/>
+      <c r="AN5" s="222"/>
+      <c r="AO5" s="351"/>
+      <c r="AP5" s="351"/>
+      <c r="AQ5" s="351"/>
+      <c r="AR5" s="351"/>
+      <c r="AS5" s="351"/>
+      <c r="AT5" s="351"/>
+      <c r="AU5" s="351"/>
+      <c r="AV5" s="352"/>
+      <c r="AW5" s="350" t="s">
         <v>16</v>
       </c>
-      <c r="AX5" s="284"/>
-      <c r="AY5" s="285"/>
-      <c r="AZ5" s="284"/>
-      <c r="BA5" s="284"/>
-      <c r="BB5" s="284"/>
-      <c r="BC5" s="284"/>
-      <c r="BD5" s="284"/>
-      <c r="BE5" s="284"/>
-      <c r="BF5" s="283" t="s">
+      <c r="AX5" s="373"/>
+      <c r="AY5" s="374"/>
+      <c r="AZ5" s="373"/>
+      <c r="BA5" s="373"/>
+      <c r="BB5" s="373"/>
+      <c r="BC5" s="373"/>
+      <c r="BD5" s="373"/>
+      <c r="BE5" s="373"/>
+      <c r="BF5" s="350" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="284"/>
-      <c r="BH5" s="284"/>
-      <c r="BI5" s="283"/>
-      <c r="BJ5" s="281"/>
-      <c r="BK5" s="281"/>
-      <c r="BL5" s="282"/>
+      <c r="BG5" s="373"/>
+      <c r="BH5" s="373"/>
+      <c r="BI5" s="350"/>
+      <c r="BJ5" s="351"/>
+      <c r="BK5" s="351"/>
+      <c r="BL5" s="352"/>
     </row>
     <row r="6" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="286" t="s">
+      <c r="A6" s="353" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="287"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="287"/>
-      <c r="M6" s="287"/>
-      <c r="N6" s="287"/>
-      <c r="O6" s="287"/>
-      <c r="P6" s="287"/>
-      <c r="Q6" s="287"/>
-      <c r="R6" s="287"/>
-      <c r="S6" s="287"/>
-      <c r="T6" s="287"/>
-      <c r="U6" s="287"/>
-      <c r="V6" s="287"/>
-      <c r="W6" s="287"/>
-      <c r="X6" s="287"/>
-      <c r="Y6" s="287"/>
-      <c r="Z6" s="287"/>
-      <c r="AA6" s="287"/>
-      <c r="AB6" s="288"/>
-      <c r="AC6" s="286" t="s">
+      <c r="B6" s="354"/>
+      <c r="C6" s="354"/>
+      <c r="D6" s="354"/>
+      <c r="E6" s="354"/>
+      <c r="F6" s="354"/>
+      <c r="G6" s="354"/>
+      <c r="H6" s="354"/>
+      <c r="I6" s="354"/>
+      <c r="J6" s="354"/>
+      <c r="K6" s="354"/>
+      <c r="L6" s="354"/>
+      <c r="M6" s="354"/>
+      <c r="N6" s="354"/>
+      <c r="O6" s="354"/>
+      <c r="P6" s="354"/>
+      <c r="Q6" s="354"/>
+      <c r="R6" s="354"/>
+      <c r="S6" s="354"/>
+      <c r="T6" s="354"/>
+      <c r="U6" s="354"/>
+      <c r="V6" s="354"/>
+      <c r="W6" s="354"/>
+      <c r="X6" s="354"/>
+      <c r="Y6" s="354"/>
+      <c r="Z6" s="354"/>
+      <c r="AA6" s="354"/>
+      <c r="AB6" s="355"/>
+      <c r="AC6" s="353" t="s">
         <v>29</v>
       </c>
-      <c r="AD6" s="287"/>
-      <c r="AE6" s="287"/>
-      <c r="AF6" s="287"/>
-      <c r="AG6" s="287"/>
-      <c r="AH6" s="287"/>
-      <c r="AI6" s="287"/>
-      <c r="AJ6" s="287"/>
-      <c r="AK6" s="287"/>
-      <c r="AL6" s="287"/>
-      <c r="AM6" s="287"/>
-      <c r="AN6" s="287"/>
-      <c r="AO6" s="289" t="s">
+      <c r="AD6" s="354"/>
+      <c r="AE6" s="354"/>
+      <c r="AF6" s="354"/>
+      <c r="AG6" s="354"/>
+      <c r="AH6" s="354"/>
+      <c r="AI6" s="354"/>
+      <c r="AJ6" s="354"/>
+      <c r="AK6" s="354"/>
+      <c r="AL6" s="354"/>
+      <c r="AM6" s="354"/>
+      <c r="AN6" s="354"/>
+      <c r="AO6" s="356" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="290"/>
-      <c r="AQ6" s="290"/>
-      <c r="AR6" s="290"/>
-      <c r="AS6" s="290"/>
-      <c r="AT6" s="290"/>
-      <c r="AU6" s="290"/>
-      <c r="AV6" s="290"/>
-      <c r="AW6" s="290"/>
-      <c r="AX6" s="290"/>
-      <c r="AY6" s="290"/>
-      <c r="AZ6" s="290"/>
-      <c r="BA6" s="290"/>
-      <c r="BB6" s="290"/>
-      <c r="BC6" s="290"/>
-      <c r="BD6" s="290"/>
-      <c r="BE6" s="290"/>
-      <c r="BF6" s="290"/>
-      <c r="BG6" s="290"/>
-      <c r="BH6" s="290"/>
-      <c r="BI6" s="290"/>
-      <c r="BJ6" s="290"/>
-      <c r="BK6" s="290"/>
-      <c r="BL6" s="291"/>
+      <c r="AP6" s="357"/>
+      <c r="AQ6" s="357"/>
+      <c r="AR6" s="357"/>
+      <c r="AS6" s="357"/>
+      <c r="AT6" s="357"/>
+      <c r="AU6" s="357"/>
+      <c r="AV6" s="357"/>
+      <c r="AW6" s="357"/>
+      <c r="AX6" s="357"/>
+      <c r="AY6" s="357"/>
+      <c r="AZ6" s="357"/>
+      <c r="BA6" s="357"/>
+      <c r="BB6" s="357"/>
+      <c r="BC6" s="357"/>
+      <c r="BD6" s="357"/>
+      <c r="BE6" s="357"/>
+      <c r="BF6" s="357"/>
+      <c r="BG6" s="357"/>
+      <c r="BH6" s="357"/>
+      <c r="BI6" s="357"/>
+      <c r="BJ6" s="357"/>
+      <c r="BK6" s="357"/>
+      <c r="BL6" s="358"/>
     </row>
     <row r="7" spans="1:64" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="298" t="s">
+      <c r="B7" s="341" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="299"/>
-      <c r="J7" s="299"/>
-      <c r="K7" s="299"/>
-      <c r="L7" s="302"/>
-      <c r="M7" s="295" t="s">
+      <c r="C7" s="342"/>
+      <c r="D7" s="342"/>
+      <c r="E7" s="342"/>
+      <c r="F7" s="342"/>
+      <c r="G7" s="342"/>
+      <c r="H7" s="342"/>
+      <c r="I7" s="342"/>
+      <c r="J7" s="342"/>
+      <c r="K7" s="342"/>
+      <c r="L7" s="345"/>
+      <c r="M7" s="362" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="296"/>
-      <c r="O7" s="296"/>
-      <c r="P7" s="297"/>
-      <c r="Q7" s="295" t="s">
+      <c r="N7" s="346"/>
+      <c r="O7" s="346"/>
+      <c r="P7" s="363"/>
+      <c r="Q7" s="362" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="297"/>
-      <c r="S7" s="295" t="s">
+      <c r="R7" s="363"/>
+      <c r="S7" s="362" t="s">
         <v>86</v>
       </c>
-      <c r="T7" s="297"/>
-      <c r="U7" s="295" t="s">
+      <c r="T7" s="363"/>
+      <c r="U7" s="362" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="297"/>
-      <c r="W7" s="295" t="s">
+      <c r="V7" s="363"/>
+      <c r="W7" s="362" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="297"/>
-      <c r="Y7" s="298" t="s">
+      <c r="X7" s="363"/>
+      <c r="Y7" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="299"/>
-      <c r="AA7" s="299"/>
-      <c r="AB7" s="300"/>
-      <c r="AC7" s="301" t="s">
+      <c r="Z7" s="342"/>
+      <c r="AA7" s="342"/>
+      <c r="AB7" s="343"/>
+      <c r="AC7" s="344" t="s">
         <v>38</v>
       </c>
-      <c r="AD7" s="299"/>
-      <c r="AE7" s="299"/>
-      <c r="AF7" s="299"/>
-      <c r="AG7" s="302"/>
-      <c r="AH7" s="296" t="s">
+      <c r="AD7" s="342"/>
+      <c r="AE7" s="342"/>
+      <c r="AF7" s="342"/>
+      <c r="AG7" s="345"/>
+      <c r="AH7" s="346" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="296"/>
-      <c r="AJ7" s="296"/>
-      <c r="AK7" s="296"/>
-      <c r="AL7" s="296"/>
-      <c r="AM7" s="296"/>
-      <c r="AN7" s="296"/>
-      <c r="AO7" s="292"/>
-      <c r="AP7" s="293"/>
-      <c r="AQ7" s="293"/>
-      <c r="AR7" s="293"/>
-      <c r="AS7" s="293"/>
-      <c r="AT7" s="293"/>
-      <c r="AU7" s="293"/>
-      <c r="AV7" s="293"/>
-      <c r="AW7" s="293"/>
-      <c r="AX7" s="293"/>
-      <c r="AY7" s="293"/>
-      <c r="AZ7" s="293"/>
-      <c r="BA7" s="293"/>
-      <c r="BB7" s="293"/>
-      <c r="BC7" s="293"/>
-      <c r="BD7" s="293"/>
-      <c r="BE7" s="293"/>
-      <c r="BF7" s="293"/>
-      <c r="BG7" s="293"/>
-      <c r="BH7" s="293"/>
-      <c r="BI7" s="293"/>
-      <c r="BJ7" s="293"/>
-      <c r="BK7" s="293"/>
-      <c r="BL7" s="294"/>
+      <c r="AI7" s="346"/>
+      <c r="AJ7" s="346"/>
+      <c r="AK7" s="346"/>
+      <c r="AL7" s="346"/>
+      <c r="AM7" s="346"/>
+      <c r="AN7" s="346"/>
+      <c r="AO7" s="359"/>
+      <c r="AP7" s="360"/>
+      <c r="AQ7" s="360"/>
+      <c r="AR7" s="360"/>
+      <c r="AS7" s="360"/>
+      <c r="AT7" s="360"/>
+      <c r="AU7" s="360"/>
+      <c r="AV7" s="360"/>
+      <c r="AW7" s="360"/>
+      <c r="AX7" s="360"/>
+      <c r="AY7" s="360"/>
+      <c r="AZ7" s="360"/>
+      <c r="BA7" s="360"/>
+      <c r="BB7" s="360"/>
+      <c r="BC7" s="360"/>
+      <c r="BD7" s="360"/>
+      <c r="BE7" s="360"/>
+      <c r="BF7" s="360"/>
+      <c r="BG7" s="360"/>
+      <c r="BH7" s="360"/>
+      <c r="BI7" s="360"/>
+      <c r="BJ7" s="360"/>
+      <c r="BK7" s="360"/>
+      <c r="BL7" s="361"/>
     </row>
     <row r="8" spans="1:64" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="50">
         <v>1</v>
       </c>
-      <c r="B8" s="364" t="s">
+      <c r="B8" s="347" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
-      <c r="G8" s="365"/>
-      <c r="H8" s="365"/>
-      <c r="I8" s="365"/>
-      <c r="J8" s="365"/>
-      <c r="K8" s="365"/>
-      <c r="L8" s="366"/>
-      <c r="M8" s="304" t="s">
+      <c r="C8" s="348"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="348"/>
+      <c r="H8" s="348"/>
+      <c r="I8" s="348"/>
+      <c r="J8" s="348"/>
+      <c r="K8" s="348"/>
+      <c r="L8" s="349"/>
+      <c r="M8" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="305"/>
-      <c r="O8" s="305"/>
-      <c r="P8" s="306"/>
-      <c r="Q8" s="307">
+      <c r="N8" s="325"/>
+      <c r="O8" s="325"/>
+      <c r="P8" s="326"/>
+      <c r="Q8" s="334">
         <v>6</v>
       </c>
-      <c r="R8" s="308"/>
-      <c r="S8" s="304" t="s">
+      <c r="R8" s="335"/>
+      <c r="S8" s="324" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="306"/>
-      <c r="U8" s="309" t="s">
+      <c r="T8" s="326"/>
+      <c r="U8" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="V8" s="310"/>
-      <c r="W8" s="304" t="s">
+      <c r="V8" s="330"/>
+      <c r="W8" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="X8" s="306"/>
-      <c r="Y8" s="304" t="s">
+      <c r="X8" s="326"/>
+      <c r="Y8" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="Z8" s="305"/>
-      <c r="AA8" s="305"/>
-      <c r="AB8" s="306"/>
-      <c r="AC8" s="311" t="s">
+      <c r="Z8" s="325"/>
+      <c r="AA8" s="325"/>
+      <c r="AB8" s="326"/>
+      <c r="AC8" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="AD8" s="312"/>
-      <c r="AE8" s="312"/>
-      <c r="AF8" s="312"/>
-      <c r="AG8" s="313"/>
-      <c r="AH8" s="314" t="s">
+      <c r="AD8" s="303"/>
+      <c r="AE8" s="303"/>
+      <c r="AF8" s="303"/>
+      <c r="AG8" s="304"/>
+      <c r="AH8" s="336" t="s">
         <v>65</v>
       </c>
-      <c r="AI8" s="315"/>
-      <c r="AJ8" s="315"/>
-      <c r="AK8" s="315"/>
-      <c r="AL8" s="315"/>
-      <c r="AM8" s="315"/>
-      <c r="AN8" s="315"/>
-      <c r="AO8" s="316"/>
-      <c r="AP8" s="317"/>
-      <c r="AQ8" s="317"/>
-      <c r="AR8" s="317"/>
-      <c r="AS8" s="317"/>
-      <c r="AT8" s="317"/>
-      <c r="AU8" s="317"/>
-      <c r="AV8" s="317"/>
-      <c r="AW8" s="317"/>
-      <c r="AX8" s="317"/>
-      <c r="AY8" s="317"/>
-      <c r="AZ8" s="317"/>
-      <c r="BA8" s="317"/>
-      <c r="BB8" s="317"/>
-      <c r="BC8" s="317"/>
-      <c r="BD8" s="317"/>
-      <c r="BE8" s="317"/>
-      <c r="BF8" s="317"/>
-      <c r="BG8" s="317"/>
-      <c r="BH8" s="317"/>
-      <c r="BI8" s="317"/>
-      <c r="BJ8" s="317"/>
-      <c r="BK8" s="317"/>
-      <c r="BL8" s="318"/>
+      <c r="AI8" s="337"/>
+      <c r="AJ8" s="337"/>
+      <c r="AK8" s="337"/>
+      <c r="AL8" s="337"/>
+      <c r="AM8" s="337"/>
+      <c r="AN8" s="337"/>
+      <c r="AO8" s="338"/>
+      <c r="AP8" s="339"/>
+      <c r="AQ8" s="339"/>
+      <c r="AR8" s="339"/>
+      <c r="AS8" s="339"/>
+      <c r="AT8" s="339"/>
+      <c r="AU8" s="339"/>
+      <c r="AV8" s="339"/>
+      <c r="AW8" s="339"/>
+      <c r="AX8" s="339"/>
+      <c r="AY8" s="339"/>
+      <c r="AZ8" s="339"/>
+      <c r="BA8" s="339"/>
+      <c r="BB8" s="339"/>
+      <c r="BC8" s="339"/>
+      <c r="BD8" s="339"/>
+      <c r="BE8" s="339"/>
+      <c r="BF8" s="339"/>
+      <c r="BG8" s="339"/>
+      <c r="BH8" s="339"/>
+      <c r="BI8" s="339"/>
+      <c r="BJ8" s="339"/>
+      <c r="BK8" s="339"/>
+      <c r="BL8" s="340"/>
     </row>
     <row r="9" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="50">
         <v>2</v>
       </c>
-      <c r="B9" s="350" t="s">
+      <c r="B9" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="303"/>
-      <c r="M9" s="304" t="s">
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="323"/>
+      <c r="M9" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="305"/>
-      <c r="O9" s="305"/>
-      <c r="P9" s="306"/>
-      <c r="Q9" s="307">
+      <c r="N9" s="325"/>
+      <c r="O9" s="325"/>
+      <c r="P9" s="326"/>
+      <c r="Q9" s="334">
         <v>4</v>
       </c>
-      <c r="R9" s="308"/>
-      <c r="S9" s="304" t="s">
+      <c r="R9" s="335"/>
+      <c r="S9" s="324" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="306"/>
-      <c r="U9" s="309" t="s">
+      <c r="T9" s="326"/>
+      <c r="U9" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="V9" s="310"/>
-      <c r="W9" s="304" t="s">
+      <c r="V9" s="330"/>
+      <c r="W9" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="X9" s="306"/>
-      <c r="Y9" s="304" t="s">
+      <c r="X9" s="326"/>
+      <c r="Y9" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="Z9" s="305"/>
-      <c r="AA9" s="305"/>
-      <c r="AB9" s="306"/>
-      <c r="AC9" s="311" t="s">
+      <c r="Z9" s="325"/>
+      <c r="AA9" s="325"/>
+      <c r="AB9" s="326"/>
+      <c r="AC9" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="AD9" s="312"/>
-      <c r="AE9" s="312"/>
-      <c r="AF9" s="312"/>
-      <c r="AG9" s="313"/>
-      <c r="AH9" s="319" t="s">
+      <c r="AD9" s="303"/>
+      <c r="AE9" s="303"/>
+      <c r="AF9" s="303"/>
+      <c r="AG9" s="304"/>
+      <c r="AH9" s="305" t="s">
         <v>66</v>
       </c>
-      <c r="AI9" s="320"/>
-      <c r="AJ9" s="320"/>
-      <c r="AK9" s="320"/>
-      <c r="AL9" s="320"/>
-      <c r="AM9" s="320"/>
-      <c r="AN9" s="320"/>
-      <c r="AO9" s="321"/>
-      <c r="AP9" s="322"/>
-      <c r="AQ9" s="322"/>
-      <c r="AR9" s="322"/>
-      <c r="AS9" s="322"/>
-      <c r="AT9" s="322"/>
-      <c r="AU9" s="322"/>
-      <c r="AV9" s="322"/>
-      <c r="AW9" s="322"/>
-      <c r="AX9" s="322"/>
-      <c r="AY9" s="322"/>
-      <c r="AZ9" s="322"/>
-      <c r="BA9" s="322"/>
-      <c r="BB9" s="322"/>
-      <c r="BC9" s="322"/>
-      <c r="BD9" s="322"/>
-      <c r="BE9" s="322"/>
-      <c r="BF9" s="322"/>
-      <c r="BG9" s="322"/>
-      <c r="BH9" s="322"/>
-      <c r="BI9" s="322"/>
-      <c r="BJ9" s="322"/>
-      <c r="BK9" s="322"/>
-      <c r="BL9" s="323"/>
+      <c r="AI9" s="306"/>
+      <c r="AJ9" s="306"/>
+      <c r="AK9" s="306"/>
+      <c r="AL9" s="306"/>
+      <c r="AM9" s="306"/>
+      <c r="AN9" s="306"/>
+      <c r="AO9" s="307"/>
+      <c r="AP9" s="308"/>
+      <c r="AQ9" s="308"/>
+      <c r="AR9" s="308"/>
+      <c r="AS9" s="308"/>
+      <c r="AT9" s="308"/>
+      <c r="AU9" s="308"/>
+      <c r="AV9" s="308"/>
+      <c r="AW9" s="308"/>
+      <c r="AX9" s="308"/>
+      <c r="AY9" s="308"/>
+      <c r="AZ9" s="308"/>
+      <c r="BA9" s="308"/>
+      <c r="BB9" s="308"/>
+      <c r="BC9" s="308"/>
+      <c r="BD9" s="308"/>
+      <c r="BE9" s="308"/>
+      <c r="BF9" s="308"/>
+      <c r="BG9" s="308"/>
+      <c r="BH9" s="308"/>
+      <c r="BI9" s="308"/>
+      <c r="BJ9" s="308"/>
+      <c r="BK9" s="308"/>
+      <c r="BL9" s="309"/>
     </row>
     <row r="10" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="50">
         <v>3</v>
       </c>
-      <c r="B10" s="350" t="s">
+      <c r="B10" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
-      <c r="L10" s="303"/>
-      <c r="M10" s="304" t="s">
+      <c r="C10" s="209"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="209"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="209"/>
+      <c r="L10" s="323"/>
+      <c r="M10" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="305"/>
-      <c r="O10" s="305"/>
-      <c r="P10" s="306"/>
-      <c r="Q10" s="307">
+      <c r="N10" s="325"/>
+      <c r="O10" s="325"/>
+      <c r="P10" s="326"/>
+      <c r="Q10" s="334">
         <v>2</v>
       </c>
-      <c r="R10" s="308"/>
-      <c r="S10" s="324" t="s">
+      <c r="R10" s="335"/>
+      <c r="S10" s="327" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="325"/>
-      <c r="U10" s="309" t="s">
+      <c r="T10" s="331"/>
+      <c r="U10" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="310"/>
-      <c r="W10" s="304" t="s">
+      <c r="V10" s="330"/>
+      <c r="W10" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="X10" s="306"/>
-      <c r="Y10" s="304" t="s">
+      <c r="X10" s="326"/>
+      <c r="Y10" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="305"/>
-      <c r="AA10" s="305"/>
-      <c r="AB10" s="306"/>
-      <c r="AC10" s="311" t="s">
+      <c r="Z10" s="325"/>
+      <c r="AA10" s="325"/>
+      <c r="AB10" s="326"/>
+      <c r="AC10" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="AD10" s="312"/>
-      <c r="AE10" s="312"/>
-      <c r="AF10" s="312"/>
-      <c r="AG10" s="313"/>
-      <c r="AH10" s="319" t="s">
+      <c r="AD10" s="303"/>
+      <c r="AE10" s="303"/>
+      <c r="AF10" s="303"/>
+      <c r="AG10" s="304"/>
+      <c r="AH10" s="305" t="s">
         <v>67</v>
       </c>
-      <c r="AI10" s="320"/>
-      <c r="AJ10" s="320"/>
-      <c r="AK10" s="320"/>
-      <c r="AL10" s="320"/>
-      <c r="AM10" s="320"/>
-      <c r="AN10" s="320"/>
-      <c r="AO10" s="321"/>
-      <c r="AP10" s="322"/>
-      <c r="AQ10" s="322"/>
-      <c r="AR10" s="322"/>
-      <c r="AS10" s="322"/>
-      <c r="AT10" s="322"/>
-      <c r="AU10" s="322"/>
-      <c r="AV10" s="322"/>
-      <c r="AW10" s="322"/>
-      <c r="AX10" s="322"/>
-      <c r="AY10" s="322"/>
-      <c r="AZ10" s="322"/>
-      <c r="BA10" s="322"/>
-      <c r="BB10" s="322"/>
-      <c r="BC10" s="322"/>
-      <c r="BD10" s="322"/>
-      <c r="BE10" s="322"/>
-      <c r="BF10" s="322"/>
-      <c r="BG10" s="322"/>
-      <c r="BH10" s="322"/>
-      <c r="BI10" s="322"/>
-      <c r="BJ10" s="322"/>
-      <c r="BK10" s="322"/>
-      <c r="BL10" s="323"/>
+      <c r="AI10" s="306"/>
+      <c r="AJ10" s="306"/>
+      <c r="AK10" s="306"/>
+      <c r="AL10" s="306"/>
+      <c r="AM10" s="306"/>
+      <c r="AN10" s="306"/>
+      <c r="AO10" s="307"/>
+      <c r="AP10" s="308"/>
+      <c r="AQ10" s="308"/>
+      <c r="AR10" s="308"/>
+      <c r="AS10" s="308"/>
+      <c r="AT10" s="308"/>
+      <c r="AU10" s="308"/>
+      <c r="AV10" s="308"/>
+      <c r="AW10" s="308"/>
+      <c r="AX10" s="308"/>
+      <c r="AY10" s="308"/>
+      <c r="AZ10" s="308"/>
+      <c r="BA10" s="308"/>
+      <c r="BB10" s="308"/>
+      <c r="BC10" s="308"/>
+      <c r="BD10" s="308"/>
+      <c r="BE10" s="308"/>
+      <c r="BF10" s="308"/>
+      <c r="BG10" s="308"/>
+      <c r="BH10" s="308"/>
+      <c r="BI10" s="308"/>
+      <c r="BJ10" s="308"/>
+      <c r="BK10" s="308"/>
+      <c r="BL10" s="309"/>
     </row>
     <row r="11" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50">
         <v>4</v>
       </c>
-      <c r="B11" s="350" t="s">
+      <c r="B11" s="208" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="212"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-      <c r="L11" s="303"/>
-      <c r="M11" s="304" t="s">
+      <c r="C11" s="209"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="323"/>
+      <c r="M11" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="305"/>
-      <c r="O11" s="305"/>
-      <c r="P11" s="306"/>
-      <c r="Q11" s="307">
+      <c r="N11" s="325"/>
+      <c r="O11" s="325"/>
+      <c r="P11" s="326"/>
+      <c r="Q11" s="334">
         <v>2</v>
       </c>
-      <c r="R11" s="308"/>
-      <c r="S11" s="324" t="s">
+      <c r="R11" s="335"/>
+      <c r="S11" s="327" t="s">
         <v>86</v>
       </c>
-      <c r="T11" s="325"/>
-      <c r="U11" s="309" t="s">
+      <c r="T11" s="331"/>
+      <c r="U11" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="V11" s="310"/>
-      <c r="W11" s="304" t="s">
+      <c r="V11" s="330"/>
+      <c r="W11" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="X11" s="306"/>
-      <c r="Y11" s="304" t="s">
+      <c r="X11" s="326"/>
+      <c r="Y11" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="Z11" s="305"/>
-      <c r="AA11" s="305"/>
-      <c r="AB11" s="306"/>
-      <c r="AC11" s="311" t="s">
+      <c r="Z11" s="325"/>
+      <c r="AA11" s="325"/>
+      <c r="AB11" s="326"/>
+      <c r="AC11" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="AD11" s="312"/>
-      <c r="AE11" s="312"/>
-      <c r="AF11" s="312"/>
-      <c r="AG11" s="313"/>
-      <c r="AH11" s="319" t="s">
+      <c r="AD11" s="303"/>
+      <c r="AE11" s="303"/>
+      <c r="AF11" s="303"/>
+      <c r="AG11" s="304"/>
+      <c r="AH11" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="AI11" s="320"/>
-      <c r="AJ11" s="320"/>
-      <c r="AK11" s="320"/>
-      <c r="AL11" s="320"/>
-      <c r="AM11" s="320"/>
-      <c r="AN11" s="320"/>
-      <c r="AO11" s="321"/>
-      <c r="AP11" s="322"/>
-      <c r="AQ11" s="322"/>
-      <c r="AR11" s="322"/>
-      <c r="AS11" s="322"/>
-      <c r="AT11" s="322"/>
-      <c r="AU11" s="322"/>
-      <c r="AV11" s="322"/>
-      <c r="AW11" s="322"/>
-      <c r="AX11" s="322"/>
-      <c r="AY11" s="322"/>
-      <c r="AZ11" s="322"/>
-      <c r="BA11" s="322"/>
-      <c r="BB11" s="322"/>
-      <c r="BC11" s="322"/>
-      <c r="BD11" s="322"/>
-      <c r="BE11" s="322"/>
-      <c r="BF11" s="322"/>
-      <c r="BG11" s="322"/>
-      <c r="BH11" s="322"/>
-      <c r="BI11" s="322"/>
-      <c r="BJ11" s="322"/>
-      <c r="BK11" s="322"/>
-      <c r="BL11" s="323"/>
+      <c r="AI11" s="306"/>
+      <c r="AJ11" s="306"/>
+      <c r="AK11" s="306"/>
+      <c r="AL11" s="306"/>
+      <c r="AM11" s="306"/>
+      <c r="AN11" s="306"/>
+      <c r="AO11" s="307"/>
+      <c r="AP11" s="308"/>
+      <c r="AQ11" s="308"/>
+      <c r="AR11" s="308"/>
+      <c r="AS11" s="308"/>
+      <c r="AT11" s="308"/>
+      <c r="AU11" s="308"/>
+      <c r="AV11" s="308"/>
+      <c r="AW11" s="308"/>
+      <c r="AX11" s="308"/>
+      <c r="AY11" s="308"/>
+      <c r="AZ11" s="308"/>
+      <c r="BA11" s="308"/>
+      <c r="BB11" s="308"/>
+      <c r="BC11" s="308"/>
+      <c r="BD11" s="308"/>
+      <c r="BE11" s="308"/>
+      <c r="BF11" s="308"/>
+      <c r="BG11" s="308"/>
+      <c r="BH11" s="308"/>
+      <c r="BI11" s="308"/>
+      <c r="BJ11" s="308"/>
+      <c r="BK11" s="308"/>
+      <c r="BL11" s="309"/>
     </row>
     <row r="12" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="50">
         <v>5</v>
       </c>
-      <c r="B12" s="350" t="s">
+      <c r="B12" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="303"/>
-      <c r="M12" s="304" t="s">
+      <c r="C12" s="209"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="209"/>
+      <c r="G12" s="209"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="209"/>
+      <c r="L12" s="323"/>
+      <c r="M12" s="324" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="305"/>
-      <c r="O12" s="305"/>
-      <c r="P12" s="306"/>
-      <c r="Q12" s="307">
+      <c r="N12" s="325"/>
+      <c r="O12" s="325"/>
+      <c r="P12" s="326"/>
+      <c r="Q12" s="334">
         <v>8</v>
       </c>
-      <c r="R12" s="308"/>
-      <c r="S12" s="324" t="s">
+      <c r="R12" s="335"/>
+      <c r="S12" s="327" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="325"/>
-      <c r="U12" s="309" t="s">
+      <c r="T12" s="331"/>
+      <c r="U12" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="V12" s="310"/>
-      <c r="W12" s="304" t="s">
+      <c r="V12" s="330"/>
+      <c r="W12" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="X12" s="306"/>
-      <c r="Y12" s="304" t="s">
+      <c r="X12" s="326"/>
+      <c r="Y12" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="Z12" s="305"/>
-      <c r="AA12" s="305"/>
-      <c r="AB12" s="306"/>
-      <c r="AC12" s="311" t="s">
+      <c r="Z12" s="325"/>
+      <c r="AA12" s="325"/>
+      <c r="AB12" s="326"/>
+      <c r="AC12" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="AD12" s="312"/>
-      <c r="AE12" s="312"/>
-      <c r="AF12" s="312"/>
-      <c r="AG12" s="313"/>
-      <c r="AH12" s="319" t="s">
+      <c r="AD12" s="303"/>
+      <c r="AE12" s="303"/>
+      <c r="AF12" s="303"/>
+      <c r="AG12" s="304"/>
+      <c r="AH12" s="305" t="s">
         <v>63</v>
       </c>
-      <c r="AI12" s="362"/>
-      <c r="AJ12" s="362"/>
-      <c r="AK12" s="362"/>
-      <c r="AL12" s="362"/>
-      <c r="AM12" s="362"/>
-      <c r="AN12" s="363"/>
-      <c r="AO12" s="321" t="s">
+      <c r="AI12" s="332"/>
+      <c r="AJ12" s="332"/>
+      <c r="AK12" s="332"/>
+      <c r="AL12" s="332"/>
+      <c r="AM12" s="332"/>
+      <c r="AN12" s="333"/>
+      <c r="AO12" s="307" t="s">
         <v>105</v>
       </c>
-      <c r="AP12" s="322"/>
-      <c r="AQ12" s="322"/>
-      <c r="AR12" s="322"/>
-      <c r="AS12" s="322"/>
-      <c r="AT12" s="322"/>
-      <c r="AU12" s="322"/>
-      <c r="AV12" s="322"/>
-      <c r="AW12" s="322"/>
-      <c r="AX12" s="322"/>
-      <c r="AY12" s="322"/>
-      <c r="AZ12" s="322"/>
-      <c r="BA12" s="322"/>
-      <c r="BB12" s="322"/>
-      <c r="BC12" s="322"/>
-      <c r="BD12" s="322"/>
-      <c r="BE12" s="322"/>
-      <c r="BF12" s="322"/>
-      <c r="BG12" s="322"/>
-      <c r="BH12" s="322"/>
-      <c r="BI12" s="322"/>
-      <c r="BJ12" s="322"/>
-      <c r="BK12" s="322"/>
-      <c r="BL12" s="323"/>
+      <c r="AP12" s="308"/>
+      <c r="AQ12" s="308"/>
+      <c r="AR12" s="308"/>
+      <c r="AS12" s="308"/>
+      <c r="AT12" s="308"/>
+      <c r="AU12" s="308"/>
+      <c r="AV12" s="308"/>
+      <c r="AW12" s="308"/>
+      <c r="AX12" s="308"/>
+      <c r="AY12" s="308"/>
+      <c r="AZ12" s="308"/>
+      <c r="BA12" s="308"/>
+      <c r="BB12" s="308"/>
+      <c r="BC12" s="308"/>
+      <c r="BD12" s="308"/>
+      <c r="BE12" s="308"/>
+      <c r="BF12" s="308"/>
+      <c r="BG12" s="308"/>
+      <c r="BH12" s="308"/>
+      <c r="BI12" s="308"/>
+      <c r="BJ12" s="308"/>
+      <c r="BK12" s="308"/>
+      <c r="BL12" s="309"/>
     </row>
     <row r="13" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="50">
         <v>6</v>
       </c>
-      <c r="B13" s="350" t="s">
+      <c r="B13" s="208" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
-      <c r="L13" s="303"/>
-      <c r="M13" s="304" t="s">
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="209"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="323"/>
+      <c r="M13" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="305"/>
-      <c r="O13" s="305"/>
-      <c r="P13" s="306"/>
-      <c r="Q13" s="307">
+      <c r="N13" s="325"/>
+      <c r="O13" s="325"/>
+      <c r="P13" s="326"/>
+      <c r="Q13" s="334">
         <v>8</v>
       </c>
-      <c r="R13" s="308"/>
-      <c r="S13" s="324" t="s">
+      <c r="R13" s="335"/>
+      <c r="S13" s="327" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="325"/>
-      <c r="U13" s="309" t="s">
+      <c r="T13" s="331"/>
+      <c r="U13" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="310"/>
-      <c r="W13" s="304" t="s">
+      <c r="V13" s="330"/>
+      <c r="W13" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="X13" s="306"/>
-      <c r="Y13" s="304" t="s">
+      <c r="X13" s="326"/>
+      <c r="Y13" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="Z13" s="305"/>
-      <c r="AA13" s="305"/>
-      <c r="AB13" s="306"/>
-      <c r="AC13" s="311" t="s">
+      <c r="Z13" s="325"/>
+      <c r="AA13" s="325"/>
+      <c r="AB13" s="326"/>
+      <c r="AC13" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="AD13" s="312"/>
-      <c r="AE13" s="312"/>
-      <c r="AF13" s="312"/>
-      <c r="AG13" s="313"/>
-      <c r="AH13" s="319" t="s">
+      <c r="AD13" s="303"/>
+      <c r="AE13" s="303"/>
+      <c r="AF13" s="303"/>
+      <c r="AG13" s="304"/>
+      <c r="AH13" s="305" t="s">
         <v>69</v>
       </c>
-      <c r="AI13" s="362"/>
-      <c r="AJ13" s="362"/>
-      <c r="AK13" s="362"/>
-      <c r="AL13" s="362"/>
-      <c r="AM13" s="362"/>
-      <c r="AN13" s="363"/>
-      <c r="AO13" s="321" t="s">
+      <c r="AI13" s="332"/>
+      <c r="AJ13" s="332"/>
+      <c r="AK13" s="332"/>
+      <c r="AL13" s="332"/>
+      <c r="AM13" s="332"/>
+      <c r="AN13" s="333"/>
+      <c r="AO13" s="307" t="s">
         <v>105</v>
       </c>
-      <c r="AP13" s="322"/>
-      <c r="AQ13" s="322"/>
-      <c r="AR13" s="322"/>
-      <c r="AS13" s="322"/>
-      <c r="AT13" s="322"/>
-      <c r="AU13" s="322"/>
-      <c r="AV13" s="322"/>
-      <c r="AW13" s="322"/>
-      <c r="AX13" s="322"/>
-      <c r="AY13" s="322"/>
-      <c r="AZ13" s="322"/>
-      <c r="BA13" s="322"/>
-      <c r="BB13" s="322"/>
-      <c r="BC13" s="322"/>
-      <c r="BD13" s="322"/>
-      <c r="BE13" s="322"/>
-      <c r="BF13" s="322"/>
-      <c r="BG13" s="322"/>
-      <c r="BH13" s="322"/>
-      <c r="BI13" s="322"/>
-      <c r="BJ13" s="322"/>
-      <c r="BK13" s="322"/>
-      <c r="BL13" s="323"/>
+      <c r="AP13" s="308"/>
+      <c r="AQ13" s="308"/>
+      <c r="AR13" s="308"/>
+      <c r="AS13" s="308"/>
+      <c r="AT13" s="308"/>
+      <c r="AU13" s="308"/>
+      <c r="AV13" s="308"/>
+      <c r="AW13" s="308"/>
+      <c r="AX13" s="308"/>
+      <c r="AY13" s="308"/>
+      <c r="AZ13" s="308"/>
+      <c r="BA13" s="308"/>
+      <c r="BB13" s="308"/>
+      <c r="BC13" s="308"/>
+      <c r="BD13" s="308"/>
+      <c r="BE13" s="308"/>
+      <c r="BF13" s="308"/>
+      <c r="BG13" s="308"/>
+      <c r="BH13" s="308"/>
+      <c r="BI13" s="308"/>
+      <c r="BJ13" s="308"/>
+      <c r="BK13" s="308"/>
+      <c r="BL13" s="309"/>
     </row>
     <row r="14" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
-      <c r="B14" s="211"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="212"/>
-      <c r="L14" s="303"/>
-      <c r="M14" s="304"/>
-      <c r="N14" s="305"/>
-      <c r="O14" s="305"/>
-      <c r="P14" s="306"/>
+      <c r="B14" s="322"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="209"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="209"/>
+      <c r="K14" s="209"/>
+      <c r="L14" s="323"/>
+      <c r="M14" s="324"/>
+      <c r="N14" s="325"/>
+      <c r="O14" s="325"/>
+      <c r="P14" s="326"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="73"/>
-      <c r="S14" s="324"/>
-      <c r="T14" s="325"/>
-      <c r="U14" s="309"/>
-      <c r="V14" s="310"/>
-      <c r="W14" s="304"/>
-      <c r="X14" s="306"/>
-      <c r="Y14" s="304"/>
-      <c r="Z14" s="305"/>
-      <c r="AA14" s="305"/>
-      <c r="AB14" s="306"/>
-      <c r="AC14" s="311"/>
-      <c r="AD14" s="312"/>
-      <c r="AE14" s="312"/>
-      <c r="AF14" s="312"/>
-      <c r="AG14" s="313"/>
-      <c r="AH14" s="319"/>
-      <c r="AI14" s="320"/>
-      <c r="AJ14" s="320"/>
-      <c r="AK14" s="320"/>
-      <c r="AL14" s="320"/>
-      <c r="AM14" s="320"/>
-      <c r="AN14" s="320"/>
-      <c r="AO14" s="321"/>
-      <c r="AP14" s="322"/>
-      <c r="AQ14" s="322"/>
-      <c r="AR14" s="322"/>
-      <c r="AS14" s="322"/>
-      <c r="AT14" s="322"/>
-      <c r="AU14" s="322"/>
-      <c r="AV14" s="322"/>
-      <c r="AW14" s="322"/>
-      <c r="AX14" s="322"/>
-      <c r="AY14" s="322"/>
-      <c r="AZ14" s="322"/>
-      <c r="BA14" s="322"/>
-      <c r="BB14" s="322"/>
-      <c r="BC14" s="322"/>
-      <c r="BD14" s="322"/>
-      <c r="BE14" s="322"/>
-      <c r="BF14" s="322"/>
-      <c r="BG14" s="322"/>
-      <c r="BH14" s="322"/>
-      <c r="BI14" s="322"/>
-      <c r="BJ14" s="322"/>
-      <c r="BK14" s="322"/>
-      <c r="BL14" s="323"/>
+      <c r="S14" s="327"/>
+      <c r="T14" s="331"/>
+      <c r="U14" s="329"/>
+      <c r="V14" s="330"/>
+      <c r="W14" s="324"/>
+      <c r="X14" s="326"/>
+      <c r="Y14" s="324"/>
+      <c r="Z14" s="325"/>
+      <c r="AA14" s="325"/>
+      <c r="AB14" s="326"/>
+      <c r="AC14" s="302"/>
+      <c r="AD14" s="303"/>
+      <c r="AE14" s="303"/>
+      <c r="AF14" s="303"/>
+      <c r="AG14" s="304"/>
+      <c r="AH14" s="305"/>
+      <c r="AI14" s="306"/>
+      <c r="AJ14" s="306"/>
+      <c r="AK14" s="306"/>
+      <c r="AL14" s="306"/>
+      <c r="AM14" s="306"/>
+      <c r="AN14" s="306"/>
+      <c r="AO14" s="307"/>
+      <c r="AP14" s="308"/>
+      <c r="AQ14" s="308"/>
+      <c r="AR14" s="308"/>
+      <c r="AS14" s="308"/>
+      <c r="AT14" s="308"/>
+      <c r="AU14" s="308"/>
+      <c r="AV14" s="308"/>
+      <c r="AW14" s="308"/>
+      <c r="AX14" s="308"/>
+      <c r="AY14" s="308"/>
+      <c r="AZ14" s="308"/>
+      <c r="BA14" s="308"/>
+      <c r="BB14" s="308"/>
+      <c r="BC14" s="308"/>
+      <c r="BD14" s="308"/>
+      <c r="BE14" s="308"/>
+      <c r="BF14" s="308"/>
+      <c r="BG14" s="308"/>
+      <c r="BH14" s="308"/>
+      <c r="BI14" s="308"/>
+      <c r="BJ14" s="308"/>
+      <c r="BK14" s="308"/>
+      <c r="BL14" s="309"/>
     </row>
     <row r="15" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="50"/>
-      <c r="B15" s="211"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="303"/>
-      <c r="M15" s="304"/>
-      <c r="N15" s="305"/>
-      <c r="O15" s="305"/>
-      <c r="P15" s="306"/>
+      <c r="B15" s="322"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="323"/>
+      <c r="M15" s="324"/>
+      <c r="N15" s="325"/>
+      <c r="O15" s="325"/>
+      <c r="P15" s="326"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="114"/>
-      <c r="S15" s="324"/>
-      <c r="T15" s="325"/>
-      <c r="U15" s="309"/>
-      <c r="V15" s="310"/>
-      <c r="W15" s="304"/>
-      <c r="X15" s="306"/>
-      <c r="Y15" s="304"/>
-      <c r="Z15" s="305"/>
-      <c r="AA15" s="305"/>
-      <c r="AB15" s="306"/>
-      <c r="AC15" s="311"/>
-      <c r="AD15" s="312"/>
-      <c r="AE15" s="312"/>
-      <c r="AF15" s="312"/>
-      <c r="AG15" s="313"/>
-      <c r="AH15" s="319"/>
-      <c r="AI15" s="320"/>
-      <c r="AJ15" s="320"/>
-      <c r="AK15" s="320"/>
-      <c r="AL15" s="320"/>
-      <c r="AM15" s="320"/>
-      <c r="AN15" s="320"/>
-      <c r="AO15" s="321"/>
-      <c r="AP15" s="322"/>
-      <c r="AQ15" s="322"/>
-      <c r="AR15" s="322"/>
-      <c r="AS15" s="322"/>
-      <c r="AT15" s="322"/>
-      <c r="AU15" s="322"/>
-      <c r="AV15" s="322"/>
-      <c r="AW15" s="322"/>
-      <c r="AX15" s="322"/>
-      <c r="AY15" s="322"/>
-      <c r="AZ15" s="322"/>
-      <c r="BA15" s="322"/>
-      <c r="BB15" s="322"/>
-      <c r="BC15" s="322"/>
-      <c r="BD15" s="322"/>
-      <c r="BE15" s="322"/>
-      <c r="BF15" s="322"/>
-      <c r="BG15" s="322"/>
-      <c r="BH15" s="322"/>
-      <c r="BI15" s="322"/>
-      <c r="BJ15" s="322"/>
-      <c r="BK15" s="322"/>
-      <c r="BL15" s="323"/>
+      <c r="S15" s="327"/>
+      <c r="T15" s="331"/>
+      <c r="U15" s="329"/>
+      <c r="V15" s="330"/>
+      <c r="W15" s="324"/>
+      <c r="X15" s="326"/>
+      <c r="Y15" s="324"/>
+      <c r="Z15" s="325"/>
+      <c r="AA15" s="325"/>
+      <c r="AB15" s="326"/>
+      <c r="AC15" s="302"/>
+      <c r="AD15" s="303"/>
+      <c r="AE15" s="303"/>
+      <c r="AF15" s="303"/>
+      <c r="AG15" s="304"/>
+      <c r="AH15" s="305"/>
+      <c r="AI15" s="306"/>
+      <c r="AJ15" s="306"/>
+      <c r="AK15" s="306"/>
+      <c r="AL15" s="306"/>
+      <c r="AM15" s="306"/>
+      <c r="AN15" s="306"/>
+      <c r="AO15" s="307"/>
+      <c r="AP15" s="308"/>
+      <c r="AQ15" s="308"/>
+      <c r="AR15" s="308"/>
+      <c r="AS15" s="308"/>
+      <c r="AT15" s="308"/>
+      <c r="AU15" s="308"/>
+      <c r="AV15" s="308"/>
+      <c r="AW15" s="308"/>
+      <c r="AX15" s="308"/>
+      <c r="AY15" s="308"/>
+      <c r="AZ15" s="308"/>
+      <c r="BA15" s="308"/>
+      <c r="BB15" s="308"/>
+      <c r="BC15" s="308"/>
+      <c r="BD15" s="308"/>
+      <c r="BE15" s="308"/>
+      <c r="BF15" s="308"/>
+      <c r="BG15" s="308"/>
+      <c r="BH15" s="308"/>
+      <c r="BI15" s="308"/>
+      <c r="BJ15" s="308"/>
+      <c r="BK15" s="308"/>
+      <c r="BL15" s="309"/>
     </row>
     <row r="16" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
-      <c r="B16" s="211"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
-      <c r="K16" s="212"/>
-      <c r="L16" s="303"/>
-      <c r="M16" s="304"/>
-      <c r="N16" s="305"/>
-      <c r="O16" s="305"/>
-      <c r="P16" s="306"/>
+      <c r="B16" s="322"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="323"/>
+      <c r="M16" s="324"/>
+      <c r="N16" s="325"/>
+      <c r="O16" s="325"/>
+      <c r="P16" s="326"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="56"/>
-      <c r="S16" s="324"/>
-      <c r="T16" s="325"/>
-      <c r="U16" s="309"/>
-      <c r="V16" s="310"/>
-      <c r="W16" s="304"/>
-      <c r="X16" s="306"/>
-      <c r="Y16" s="304"/>
-      <c r="Z16" s="305"/>
-      <c r="AA16" s="305"/>
-      <c r="AB16" s="306"/>
-      <c r="AC16" s="311"/>
-      <c r="AD16" s="312"/>
-      <c r="AE16" s="312"/>
-      <c r="AF16" s="312"/>
-      <c r="AG16" s="313"/>
-      <c r="AH16" s="319"/>
-      <c r="AI16" s="320"/>
-      <c r="AJ16" s="320"/>
-      <c r="AK16" s="320"/>
-      <c r="AL16" s="320"/>
-      <c r="AM16" s="320"/>
-      <c r="AN16" s="320"/>
-      <c r="AO16" s="321"/>
-      <c r="AP16" s="322"/>
-      <c r="AQ16" s="322"/>
-      <c r="AR16" s="322"/>
-      <c r="AS16" s="322"/>
-      <c r="AT16" s="322"/>
-      <c r="AU16" s="322"/>
-      <c r="AV16" s="322"/>
-      <c r="AW16" s="322"/>
-      <c r="AX16" s="322"/>
-      <c r="AY16" s="322"/>
-      <c r="AZ16" s="322"/>
-      <c r="BA16" s="322"/>
-      <c r="BB16" s="322"/>
-      <c r="BC16" s="322"/>
-      <c r="BD16" s="322"/>
-      <c r="BE16" s="322"/>
-      <c r="BF16" s="322"/>
-      <c r="BG16" s="322"/>
-      <c r="BH16" s="322"/>
-      <c r="BI16" s="322"/>
-      <c r="BJ16" s="322"/>
-      <c r="BK16" s="322"/>
-      <c r="BL16" s="323"/>
+      <c r="S16" s="327"/>
+      <c r="T16" s="331"/>
+      <c r="U16" s="329"/>
+      <c r="V16" s="330"/>
+      <c r="W16" s="324"/>
+      <c r="X16" s="326"/>
+      <c r="Y16" s="324"/>
+      <c r="Z16" s="325"/>
+      <c r="AA16" s="325"/>
+      <c r="AB16" s="326"/>
+      <c r="AC16" s="302"/>
+      <c r="AD16" s="303"/>
+      <c r="AE16" s="303"/>
+      <c r="AF16" s="303"/>
+      <c r="AG16" s="304"/>
+      <c r="AH16" s="305"/>
+      <c r="AI16" s="306"/>
+      <c r="AJ16" s="306"/>
+      <c r="AK16" s="306"/>
+      <c r="AL16" s="306"/>
+      <c r="AM16" s="306"/>
+      <c r="AN16" s="306"/>
+      <c r="AO16" s="307"/>
+      <c r="AP16" s="308"/>
+      <c r="AQ16" s="308"/>
+      <c r="AR16" s="308"/>
+      <c r="AS16" s="308"/>
+      <c r="AT16" s="308"/>
+      <c r="AU16" s="308"/>
+      <c r="AV16" s="308"/>
+      <c r="AW16" s="308"/>
+      <c r="AX16" s="308"/>
+      <c r="AY16" s="308"/>
+      <c r="AZ16" s="308"/>
+      <c r="BA16" s="308"/>
+      <c r="BB16" s="308"/>
+      <c r="BC16" s="308"/>
+      <c r="BD16" s="308"/>
+      <c r="BE16" s="308"/>
+      <c r="BF16" s="308"/>
+      <c r="BG16" s="308"/>
+      <c r="BH16" s="308"/>
+      <c r="BI16" s="308"/>
+      <c r="BJ16" s="308"/>
+      <c r="BK16" s="308"/>
+      <c r="BL16" s="309"/>
     </row>
     <row r="17" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
-      <c r="B17" s="211"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="303"/>
-      <c r="M17" s="304"/>
-      <c r="N17" s="305"/>
-      <c r="O17" s="305"/>
-      <c r="P17" s="306"/>
+      <c r="B17" s="322"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="323"/>
+      <c r="M17" s="324"/>
+      <c r="N17" s="325"/>
+      <c r="O17" s="325"/>
+      <c r="P17" s="326"/>
       <c r="Q17" s="55"/>
       <c r="R17" s="73"/>
-      <c r="S17" s="324"/>
-      <c r="T17" s="326"/>
-      <c r="U17" s="309"/>
-      <c r="V17" s="310"/>
-      <c r="W17" s="305"/>
-      <c r="X17" s="306"/>
-      <c r="Y17" s="304"/>
-      <c r="Z17" s="305"/>
-      <c r="AA17" s="305"/>
-      <c r="AB17" s="306"/>
-      <c r="AC17" s="311"/>
-      <c r="AD17" s="312"/>
-      <c r="AE17" s="312"/>
-      <c r="AF17" s="312"/>
-      <c r="AG17" s="313"/>
-      <c r="AH17" s="319"/>
-      <c r="AI17" s="320"/>
-      <c r="AJ17" s="320"/>
-      <c r="AK17" s="320"/>
-      <c r="AL17" s="320"/>
-      <c r="AM17" s="320"/>
-      <c r="AN17" s="320"/>
-      <c r="AO17" s="321"/>
-      <c r="AP17" s="322"/>
-      <c r="AQ17" s="322"/>
-      <c r="AR17" s="322"/>
-      <c r="AS17" s="322"/>
-      <c r="AT17" s="322"/>
-      <c r="AU17" s="322"/>
-      <c r="AV17" s="322"/>
-      <c r="AW17" s="322"/>
-      <c r="AX17" s="322"/>
-      <c r="AY17" s="322"/>
-      <c r="AZ17" s="322"/>
-      <c r="BA17" s="322"/>
-      <c r="BB17" s="322"/>
-      <c r="BC17" s="322"/>
-      <c r="BD17" s="322"/>
-      <c r="BE17" s="322"/>
-      <c r="BF17" s="322"/>
-      <c r="BG17" s="322"/>
-      <c r="BH17" s="322"/>
-      <c r="BI17" s="322"/>
-      <c r="BJ17" s="322"/>
-      <c r="BK17" s="322"/>
-      <c r="BL17" s="323"/>
+      <c r="S17" s="327"/>
+      <c r="T17" s="328"/>
+      <c r="U17" s="329"/>
+      <c r="V17" s="330"/>
+      <c r="W17" s="325"/>
+      <c r="X17" s="326"/>
+      <c r="Y17" s="324"/>
+      <c r="Z17" s="325"/>
+      <c r="AA17" s="325"/>
+      <c r="AB17" s="326"/>
+      <c r="AC17" s="302"/>
+      <c r="AD17" s="303"/>
+      <c r="AE17" s="303"/>
+      <c r="AF17" s="303"/>
+      <c r="AG17" s="304"/>
+      <c r="AH17" s="305"/>
+      <c r="AI17" s="306"/>
+      <c r="AJ17" s="306"/>
+      <c r="AK17" s="306"/>
+      <c r="AL17" s="306"/>
+      <c r="AM17" s="306"/>
+      <c r="AN17" s="306"/>
+      <c r="AO17" s="307"/>
+      <c r="AP17" s="308"/>
+      <c r="AQ17" s="308"/>
+      <c r="AR17" s="308"/>
+      <c r="AS17" s="308"/>
+      <c r="AT17" s="308"/>
+      <c r="AU17" s="308"/>
+      <c r="AV17" s="308"/>
+      <c r="AW17" s="308"/>
+      <c r="AX17" s="308"/>
+      <c r="AY17" s="308"/>
+      <c r="AZ17" s="308"/>
+      <c r="BA17" s="308"/>
+      <c r="BB17" s="308"/>
+      <c r="BC17" s="308"/>
+      <c r="BD17" s="308"/>
+      <c r="BE17" s="308"/>
+      <c r="BF17" s="308"/>
+      <c r="BG17" s="308"/>
+      <c r="BH17" s="308"/>
+      <c r="BI17" s="308"/>
+      <c r="BJ17" s="308"/>
+      <c r="BK17" s="308"/>
+      <c r="BL17" s="309"/>
     </row>
     <row r="18" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
@@ -13668,27 +13665,27 @@
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
       <c r="L18" s="91"/>
-      <c r="M18" s="327"/>
-      <c r="N18" s="327"/>
-      <c r="O18" s="327"/>
-      <c r="P18" s="328"/>
+      <c r="M18" s="310"/>
+      <c r="N18" s="310"/>
+      <c r="O18" s="310"/>
+      <c r="P18" s="311"/>
       <c r="Q18" s="92"/>
       <c r="R18" s="93"/>
-      <c r="S18" s="329"/>
-      <c r="T18" s="330"/>
-      <c r="U18" s="331"/>
-      <c r="V18" s="332"/>
-      <c r="W18" s="333"/>
-      <c r="X18" s="334"/>
-      <c r="Y18" s="335"/>
-      <c r="Z18" s="333"/>
-      <c r="AA18" s="333"/>
-      <c r="AB18" s="334"/>
-      <c r="AC18" s="336"/>
-      <c r="AD18" s="337"/>
-      <c r="AE18" s="337"/>
-      <c r="AF18" s="337"/>
-      <c r="AG18" s="338"/>
+      <c r="S18" s="312"/>
+      <c r="T18" s="313"/>
+      <c r="U18" s="314"/>
+      <c r="V18" s="315"/>
+      <c r="W18" s="316"/>
+      <c r="X18" s="317"/>
+      <c r="Y18" s="318"/>
+      <c r="Z18" s="316"/>
+      <c r="AA18" s="316"/>
+      <c r="AB18" s="317"/>
+      <c r="AC18" s="319"/>
+      <c r="AD18" s="320"/>
+      <c r="AE18" s="320"/>
+      <c r="AF18" s="320"/>
+      <c r="AG18" s="321"/>
       <c r="AH18" s="94"/>
       <c r="AI18" s="95"/>
       <c r="AJ18" s="96"/>
@@ -13762,44 +13759,151 @@
       <c r="B28" s="51"/>
     </row>
     <row r="29" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="339"/>
-      <c r="B29" s="339"/>
+      <c r="A29" s="301"/>
+      <c r="B29" s="301"/>
     </row>
     <row r="30" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="339"/>
-      <c r="B30" s="339"/>
+      <c r="A30" s="301"/>
+      <c r="B30" s="301"/>
     </row>
     <row r="31" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="339"/>
-      <c r="B31" s="339"/>
+      <c r="A31" s="301"/>
+      <c r="B31" s="301"/>
     </row>
     <row r="32" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="339"/>
-      <c r="B32" s="339"/>
+      <c r="A32" s="301"/>
+      <c r="B32" s="301"/>
     </row>
     <row r="33" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="339"/>
-      <c r="B33" s="339"/>
+      <c r="A33" s="301"/>
+      <c r="B33" s="301"/>
     </row>
     <row r="34" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="339"/>
-      <c r="B34" s="339"/>
+      <c r="A34" s="301"/>
+      <c r="B34" s="301"/>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="339"/>
-      <c r="B35" s="339"/>
+      <c r="A35" s="301"/>
+      <c r="B35" s="301"/>
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="AH17:AN17"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A6:AB6"/>
+    <mergeCell ref="AC6:AN6"/>
+    <mergeCell ref="AO6:BL7"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="AO8:BL8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AO9:BL9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AN10"/>
+    <mergeCell ref="AO10:BL10"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="AO11:BL11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AH12:AN12"/>
+    <mergeCell ref="AO12:BL12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AH13:AN13"/>
+    <mergeCell ref="AO13:BL13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AH14:AN14"/>
+    <mergeCell ref="AO14:BL14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AH15:AN15"/>
+    <mergeCell ref="AO15:BL15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="AH16:AN16"/>
+    <mergeCell ref="AO16:BL16"/>
     <mergeCell ref="AO17:BL17"/>
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="S18:T18"/>
@@ -13813,122 +13917,15 @@
     <mergeCell ref="U17:V17"/>
     <mergeCell ref="W17:X17"/>
     <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AO15:BL15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="AH16:AN16"/>
-    <mergeCell ref="AO16:BL16"/>
-    <mergeCell ref="AH14:AN14"/>
-    <mergeCell ref="AO14:BL14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AH15:AN15"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AH13:AN13"/>
-    <mergeCell ref="AO13:BL13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AH12:AN12"/>
-    <mergeCell ref="AO12:BL12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="AO11:BL11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="AO10:BL10"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
-    <mergeCell ref="AO9:BL9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="AO8:BL8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="AC7:AG7"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="A6:AB6"/>
-    <mergeCell ref="AC6:AN6"/>
-    <mergeCell ref="AO6:BL7"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AH17:AN17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14141,35 +14138,35 @@
       <c r="BC1" s="23"/>
     </row>
     <row r="2" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="236" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="237"/>
       <c r="AH2" s="25"/>
       <c r="AI2" s="25"/>
       <c r="AJ2" s="25"/>
@@ -14194,33 +14191,33 @@
       <c r="BC2" s="27"/>
     </row>
     <row r="3" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
-      <c r="A3" s="258"/>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="259"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="259"/>
-      <c r="M3" s="259"/>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="259"/>
-      <c r="R3" s="259"/>
-      <c r="S3" s="259"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="259"/>
-      <c r="AA3" s="259"/>
+      <c r="A3" s="375"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="376"/>
+      <c r="M3" s="376"/>
+      <c r="N3" s="376"/>
+      <c r="O3" s="376"/>
+      <c r="P3" s="376"/>
+      <c r="Q3" s="376"/>
+      <c r="R3" s="376"/>
+      <c r="S3" s="376"/>
+      <c r="T3" s="376"/>
+      <c r="U3" s="376"/>
+      <c r="V3" s="376"/>
+      <c r="W3" s="376"/>
+      <c r="X3" s="376"/>
+      <c r="Y3" s="376"/>
+      <c r="Z3" s="376"/>
+      <c r="AA3" s="376"/>
       <c r="AB3" s="46"/>
       <c r="AC3" s="46"/>
       <c r="AD3" s="46"/>
@@ -14251,144 +14248,144 @@
       <c r="BC3" s="48"/>
     </row>
     <row r="4" spans="1:55" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="377" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="263" t="s">
+      <c r="B4" s="378"/>
+      <c r="C4" s="378"/>
+      <c r="D4" s="378"/>
+      <c r="E4" s="378"/>
+      <c r="F4" s="379"/>
+      <c r="G4" s="380" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="264"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="264"/>
-      <c r="O4" s="265"/>
-      <c r="P4" s="266" t="s">
+      <c r="H4" s="381"/>
+      <c r="I4" s="381"/>
+      <c r="J4" s="381"/>
+      <c r="K4" s="381"/>
+      <c r="L4" s="381"/>
+      <c r="M4" s="381"/>
+      <c r="N4" s="381"/>
+      <c r="O4" s="382"/>
+      <c r="P4" s="383" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="267"/>
-      <c r="U4" s="268"/>
-      <c r="V4" s="269" t="s">
+      <c r="Q4" s="384"/>
+      <c r="R4" s="384"/>
+      <c r="S4" s="384"/>
+      <c r="T4" s="384"/>
+      <c r="U4" s="385"/>
+      <c r="V4" s="386" t="s">
         <v>100</v>
       </c>
-      <c r="W4" s="270"/>
-      <c r="X4" s="270"/>
-      <c r="Y4" s="270"/>
-      <c r="Z4" s="270"/>
-      <c r="AA4" s="270"/>
-      <c r="AB4" s="270"/>
-      <c r="AC4" s="270"/>
-      <c r="AD4" s="270"/>
-      <c r="AE4" s="270"/>
-      <c r="AF4" s="270"/>
-      <c r="AG4" s="270"/>
-      <c r="AH4" s="270"/>
-      <c r="AI4" s="270"/>
-      <c r="AJ4" s="270"/>
-      <c r="AK4" s="271"/>
-      <c r="AL4" s="272" t="s">
+      <c r="W4" s="387"/>
+      <c r="X4" s="387"/>
+      <c r="Y4" s="387"/>
+      <c r="Z4" s="387"/>
+      <c r="AA4" s="387"/>
+      <c r="AB4" s="387"/>
+      <c r="AC4" s="387"/>
+      <c r="AD4" s="387"/>
+      <c r="AE4" s="387"/>
+      <c r="AF4" s="387"/>
+      <c r="AG4" s="387"/>
+      <c r="AH4" s="387"/>
+      <c r="AI4" s="387"/>
+      <c r="AJ4" s="387"/>
+      <c r="AK4" s="388"/>
+      <c r="AL4" s="364" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="273"/>
-      <c r="AN4" s="274"/>
-      <c r="AO4" s="232">
+      <c r="AM4" s="365"/>
+      <c r="AN4" s="389"/>
+      <c r="AO4" s="264">
         <v>45427</v>
       </c>
-      <c r="AP4" s="233"/>
-      <c r="AQ4" s="233"/>
-      <c r="AR4" s="233"/>
-      <c r="AS4" s="233"/>
-      <c r="AT4" s="233"/>
-      <c r="AU4" s="272" t="s">
+      <c r="AP4" s="265"/>
+      <c r="AQ4" s="265"/>
+      <c r="AR4" s="265"/>
+      <c r="AS4" s="265"/>
+      <c r="AT4" s="265"/>
+      <c r="AU4" s="364" t="s">
         <v>12</v>
       </c>
-      <c r="AV4" s="273"/>
-      <c r="AW4" s="274"/>
-      <c r="AX4" s="340" t="s">
+      <c r="AV4" s="365"/>
+      <c r="AW4" s="389"/>
+      <c r="AX4" s="409" t="s">
         <v>106</v>
       </c>
-      <c r="AY4" s="233"/>
-      <c r="AZ4" s="233"/>
-      <c r="BA4" s="233"/>
-      <c r="BB4" s="233"/>
-      <c r="BC4" s="341"/>
+      <c r="AY4" s="265"/>
+      <c r="AZ4" s="265"/>
+      <c r="BA4" s="265"/>
+      <c r="BB4" s="265"/>
+      <c r="BC4" s="410"/>
     </row>
     <row r="5" spans="1:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="242" t="s">
+      <c r="B5" s="276"/>
+      <c r="C5" s="276"/>
+      <c r="D5" s="276"/>
+      <c r="E5" s="276"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="411" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="239" t="s">
+      <c r="H5" s="411"/>
+      <c r="I5" s="411"/>
+      <c r="J5" s="411"/>
+      <c r="K5" s="411"/>
+      <c r="L5" s="411"/>
+      <c r="M5" s="411"/>
+      <c r="N5" s="411"/>
+      <c r="O5" s="412"/>
+      <c r="P5" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="240"/>
-      <c r="R5" s="240"/>
-      <c r="S5" s="240"/>
-      <c r="T5" s="240"/>
-      <c r="U5" s="241"/>
-      <c r="V5" s="244"/>
-      <c r="W5" s="245"/>
-      <c r="X5" s="245"/>
-      <c r="Y5" s="245"/>
-      <c r="Z5" s="245"/>
-      <c r="AA5" s="245"/>
-      <c r="AB5" s="245"/>
-      <c r="AC5" s="245"/>
-      <c r="AD5" s="245"/>
-      <c r="AE5" s="245"/>
-      <c r="AF5" s="245"/>
-      <c r="AG5" s="245"/>
-      <c r="AH5" s="245"/>
-      <c r="AI5" s="245"/>
-      <c r="AJ5" s="245"/>
-      <c r="AK5" s="246"/>
-      <c r="AL5" s="247" t="s">
+      <c r="Q5" s="276"/>
+      <c r="R5" s="276"/>
+      <c r="S5" s="276"/>
+      <c r="T5" s="276"/>
+      <c r="U5" s="277"/>
+      <c r="V5" s="278"/>
+      <c r="W5" s="279"/>
+      <c r="X5" s="279"/>
+      <c r="Y5" s="279"/>
+      <c r="Z5" s="279"/>
+      <c r="AA5" s="279"/>
+      <c r="AB5" s="279"/>
+      <c r="AC5" s="279"/>
+      <c r="AD5" s="279"/>
+      <c r="AE5" s="279"/>
+      <c r="AF5" s="279"/>
+      <c r="AG5" s="279"/>
+      <c r="AH5" s="279"/>
+      <c r="AI5" s="279"/>
+      <c r="AJ5" s="279"/>
+      <c r="AK5" s="280"/>
+      <c r="AL5" s="281" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="248"/>
-      <c r="AN5" s="249"/>
-      <c r="AO5" s="248"/>
-      <c r="AP5" s="248"/>
-      <c r="AQ5" s="248"/>
-      <c r="AR5" s="248"/>
-      <c r="AS5" s="248"/>
-      <c r="AT5" s="248"/>
-      <c r="AU5" s="247" t="s">
+      <c r="AM5" s="282"/>
+      <c r="AN5" s="283"/>
+      <c r="AO5" s="282"/>
+      <c r="AP5" s="282"/>
+      <c r="AQ5" s="282"/>
+      <c r="AR5" s="282"/>
+      <c r="AS5" s="282"/>
+      <c r="AT5" s="282"/>
+      <c r="AU5" s="281" t="s">
         <v>17</v>
       </c>
-      <c r="AV5" s="248"/>
-      <c r="AW5" s="249"/>
-      <c r="AX5" s="244"/>
-      <c r="AY5" s="245"/>
-      <c r="AZ5" s="245"/>
-      <c r="BA5" s="245"/>
-      <c r="BB5" s="245"/>
-      <c r="BC5" s="246"/>
+      <c r="AV5" s="282"/>
+      <c r="AW5" s="283"/>
+      <c r="AX5" s="278"/>
+      <c r="AY5" s="279"/>
+      <c r="AZ5" s="279"/>
+      <c r="BA5" s="279"/>
+      <c r="BB5" s="279"/>
+      <c r="BC5" s="280"/>
     </row>
     <row r="6" spans="1:55" s="35" customFormat="1" ht="11.4" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="57"/>
@@ -14451,345 +14448,334 @@
       <c r="A7" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="342" t="s">
+      <c r="B7" s="406" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="342"/>
-      <c r="D7" s="342"/>
-      <c r="E7" s="342"/>
-      <c r="F7" s="342"/>
-      <c r="G7" s="342"/>
-      <c r="H7" s="342"/>
-      <c r="I7" s="342"/>
-      <c r="J7" s="342"/>
-      <c r="K7" s="342"/>
-      <c r="L7" s="342"/>
-      <c r="M7" s="342"/>
-      <c r="N7" s="342"/>
-      <c r="O7" s="342"/>
-      <c r="P7" s="342" t="s">
+      <c r="C7" s="406"/>
+      <c r="D7" s="406"/>
+      <c r="E7" s="406"/>
+      <c r="F7" s="406"/>
+      <c r="G7" s="406"/>
+      <c r="H7" s="406"/>
+      <c r="I7" s="406"/>
+      <c r="J7" s="406"/>
+      <c r="K7" s="406"/>
+      <c r="L7" s="406"/>
+      <c r="M7" s="406"/>
+      <c r="N7" s="406"/>
+      <c r="O7" s="406"/>
+      <c r="P7" s="406" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="342"/>
-      <c r="R7" s="342"/>
-      <c r="S7" s="342"/>
-      <c r="T7" s="342"/>
-      <c r="U7" s="342"/>
-      <c r="V7" s="342"/>
-      <c r="W7" s="342"/>
-      <c r="X7" s="342"/>
-      <c r="Y7" s="342"/>
-      <c r="Z7" s="342"/>
-      <c r="AA7" s="342"/>
-      <c r="AB7" s="342"/>
-      <c r="AC7" s="342"/>
-      <c r="AD7" s="342"/>
-      <c r="AE7" s="342"/>
-      <c r="AF7" s="342"/>
-      <c r="AG7" s="342"/>
-      <c r="AH7" s="342" t="s">
+      <c r="Q7" s="406"/>
+      <c r="R7" s="406"/>
+      <c r="S7" s="406"/>
+      <c r="T7" s="406"/>
+      <c r="U7" s="406"/>
+      <c r="V7" s="406"/>
+      <c r="W7" s="406"/>
+      <c r="X7" s="406"/>
+      <c r="Y7" s="406"/>
+      <c r="Z7" s="406"/>
+      <c r="AA7" s="406"/>
+      <c r="AB7" s="406"/>
+      <c r="AC7" s="406"/>
+      <c r="AD7" s="406"/>
+      <c r="AE7" s="406"/>
+      <c r="AF7" s="406"/>
+      <c r="AG7" s="406"/>
+      <c r="AH7" s="406" t="s">
         <v>44</v>
       </c>
-      <c r="AI7" s="342"/>
-      <c r="AJ7" s="342"/>
-      <c r="AK7" s="342"/>
-      <c r="AL7" s="342"/>
-      <c r="AM7" s="342"/>
-      <c r="AN7" s="342"/>
-      <c r="AO7" s="342"/>
-      <c r="AP7" s="342"/>
-      <c r="AQ7" s="342"/>
-      <c r="AR7" s="342"/>
-      <c r="AS7" s="342"/>
-      <c r="AT7" s="342"/>
-      <c r="AU7" s="342"/>
-      <c r="AV7" s="342"/>
-      <c r="AW7" s="342"/>
-      <c r="AX7" s="342"/>
-      <c r="AY7" s="342"/>
-      <c r="AZ7" s="342"/>
-      <c r="BA7" s="342"/>
-      <c r="BB7" s="342"/>
-      <c r="BC7" s="342"/>
+      <c r="AI7" s="406"/>
+      <c r="AJ7" s="406"/>
+      <c r="AK7" s="406"/>
+      <c r="AL7" s="406"/>
+      <c r="AM7" s="406"/>
+      <c r="AN7" s="406"/>
+      <c r="AO7" s="406"/>
+      <c r="AP7" s="406"/>
+      <c r="AQ7" s="406"/>
+      <c r="AR7" s="406"/>
+      <c r="AS7" s="406"/>
+      <c r="AT7" s="406"/>
+      <c r="AU7" s="406"/>
+      <c r="AV7" s="406"/>
+      <c r="AW7" s="406"/>
+      <c r="AX7" s="406"/>
+      <c r="AY7" s="406"/>
+      <c r="AZ7" s="406"/>
+      <c r="BA7" s="406"/>
+      <c r="BB7" s="406"/>
+      <c r="BC7" s="406"/>
     </row>
     <row r="8" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
-      <c r="A8" s="386">
+      <c r="A8" s="132">
         <v>1</v>
       </c>
-      <c r="B8" s="387" t="s">
+      <c r="B8" s="396" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="388"/>
-      <c r="D8" s="388"/>
-      <c r="E8" s="388"/>
-      <c r="F8" s="388"/>
-      <c r="G8" s="388"/>
-      <c r="H8" s="388"/>
-      <c r="I8" s="388"/>
-      <c r="J8" s="388"/>
-      <c r="K8" s="388"/>
-      <c r="L8" s="388"/>
-      <c r="M8" s="388"/>
-      <c r="N8" s="388"/>
-      <c r="O8" s="388"/>
-      <c r="P8" s="389" t="s">
+      <c r="C8" s="397"/>
+      <c r="D8" s="397"/>
+      <c r="E8" s="397"/>
+      <c r="F8" s="397"/>
+      <c r="G8" s="397"/>
+      <c r="H8" s="397"/>
+      <c r="I8" s="397"/>
+      <c r="J8" s="397"/>
+      <c r="K8" s="397"/>
+      <c r="L8" s="397"/>
+      <c r="M8" s="397"/>
+      <c r="N8" s="397"/>
+      <c r="O8" s="397"/>
+      <c r="P8" s="393" t="s">
         <v>89</v>
       </c>
-      <c r="Q8" s="389"/>
-      <c r="R8" s="389"/>
-      <c r="S8" s="389"/>
-      <c r="T8" s="389"/>
-      <c r="U8" s="389"/>
-      <c r="V8" s="389"/>
-      <c r="W8" s="389"/>
-      <c r="X8" s="389"/>
-      <c r="Y8" s="389"/>
-      <c r="Z8" s="389"/>
-      <c r="AA8" s="389"/>
-      <c r="AB8" s="389"/>
-      <c r="AC8" s="389"/>
-      <c r="AD8" s="389"/>
-      <c r="AE8" s="389"/>
-      <c r="AF8" s="389"/>
-      <c r="AG8" s="389"/>
-      <c r="AH8" s="401" t="s">
+      <c r="Q8" s="393"/>
+      <c r="R8" s="393"/>
+      <c r="S8" s="393"/>
+      <c r="T8" s="393"/>
+      <c r="U8" s="393"/>
+      <c r="V8" s="393"/>
+      <c r="W8" s="393"/>
+      <c r="X8" s="393"/>
+      <c r="Y8" s="393"/>
+      <c r="Z8" s="393"/>
+      <c r="AA8" s="393"/>
+      <c r="AB8" s="393"/>
+      <c r="AC8" s="393"/>
+      <c r="AD8" s="393"/>
+      <c r="AE8" s="393"/>
+      <c r="AF8" s="393"/>
+      <c r="AG8" s="393"/>
+      <c r="AH8" s="407" t="s">
         <v>91</v>
       </c>
-      <c r="AI8" s="401"/>
-      <c r="AJ8" s="401"/>
-      <c r="AK8" s="401"/>
-      <c r="AL8" s="401"/>
-      <c r="AM8" s="401"/>
-      <c r="AN8" s="401"/>
-      <c r="AO8" s="401"/>
-      <c r="AP8" s="401"/>
-      <c r="AQ8" s="401"/>
-      <c r="AR8" s="401"/>
-      <c r="AS8" s="401"/>
-      <c r="AT8" s="401"/>
-      <c r="AU8" s="401"/>
-      <c r="AV8" s="401"/>
-      <c r="AW8" s="401"/>
-      <c r="AX8" s="401"/>
-      <c r="AY8" s="401"/>
-      <c r="AZ8" s="401"/>
-      <c r="BA8" s="401"/>
-      <c r="BB8" s="401"/>
-      <c r="BC8" s="402"/>
+      <c r="AI8" s="407"/>
+      <c r="AJ8" s="407"/>
+      <c r="AK8" s="407"/>
+      <c r="AL8" s="407"/>
+      <c r="AM8" s="407"/>
+      <c r="AN8" s="407"/>
+      <c r="AO8" s="407"/>
+      <c r="AP8" s="407"/>
+      <c r="AQ8" s="407"/>
+      <c r="AR8" s="407"/>
+      <c r="AS8" s="407"/>
+      <c r="AT8" s="407"/>
+      <c r="AU8" s="407"/>
+      <c r="AV8" s="407"/>
+      <c r="AW8" s="407"/>
+      <c r="AX8" s="407"/>
+      <c r="AY8" s="407"/>
+      <c r="AZ8" s="407"/>
+      <c r="BA8" s="407"/>
+      <c r="BB8" s="407"/>
+      <c r="BC8" s="408"/>
     </row>
     <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="392">
+      <c r="A9" s="133">
         <v>2</v>
       </c>
-      <c r="B9" s="387" t="s">
+      <c r="B9" s="396" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
-      <c r="G9" s="388"/>
-      <c r="H9" s="388"/>
-      <c r="I9" s="388"/>
-      <c r="J9" s="388"/>
-      <c r="K9" s="388"/>
-      <c r="L9" s="388"/>
-      <c r="M9" s="388"/>
-      <c r="N9" s="388"/>
-      <c r="O9" s="393"/>
-      <c r="P9" s="389" t="s">
+      <c r="C9" s="397"/>
+      <c r="D9" s="397"/>
+      <c r="E9" s="397"/>
+      <c r="F9" s="397"/>
+      <c r="G9" s="397"/>
+      <c r="H9" s="397"/>
+      <c r="I9" s="397"/>
+      <c r="J9" s="397"/>
+      <c r="K9" s="397"/>
+      <c r="L9" s="397"/>
+      <c r="M9" s="397"/>
+      <c r="N9" s="397"/>
+      <c r="O9" s="398"/>
+      <c r="P9" s="393" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" s="389"/>
-      <c r="R9" s="389"/>
-      <c r="S9" s="389"/>
-      <c r="T9" s="389"/>
-      <c r="U9" s="389"/>
-      <c r="V9" s="389"/>
-      <c r="W9" s="389"/>
-      <c r="X9" s="389"/>
-      <c r="Y9" s="389"/>
-      <c r="Z9" s="389"/>
-      <c r="AA9" s="389"/>
-      <c r="AB9" s="389"/>
-      <c r="AC9" s="389"/>
-      <c r="AD9" s="389"/>
-      <c r="AE9" s="389"/>
-      <c r="AF9" s="389"/>
-      <c r="AG9" s="389"/>
-      <c r="AH9" s="403" t="s">
+      <c r="Q9" s="393"/>
+      <c r="R9" s="393"/>
+      <c r="S9" s="393"/>
+      <c r="T9" s="393"/>
+      <c r="U9" s="393"/>
+      <c r="V9" s="393"/>
+      <c r="W9" s="393"/>
+      <c r="X9" s="393"/>
+      <c r="Y9" s="393"/>
+      <c r="Z9" s="393"/>
+      <c r="AA9" s="393"/>
+      <c r="AB9" s="393"/>
+      <c r="AC9" s="393"/>
+      <c r="AD9" s="393"/>
+      <c r="AE9" s="393"/>
+      <c r="AF9" s="393"/>
+      <c r="AG9" s="393"/>
+      <c r="AH9" s="399" t="s">
         <v>92</v>
       </c>
-      <c r="AI9" s="404"/>
-      <c r="AJ9" s="404"/>
-      <c r="AK9" s="404"/>
-      <c r="AL9" s="404"/>
-      <c r="AM9" s="404"/>
-      <c r="AN9" s="404"/>
-      <c r="AO9" s="404"/>
-      <c r="AP9" s="404"/>
-      <c r="AQ9" s="404"/>
-      <c r="AR9" s="404"/>
-      <c r="AS9" s="404"/>
-      <c r="AT9" s="404"/>
-      <c r="AU9" s="404"/>
-      <c r="AV9" s="404"/>
-      <c r="AW9" s="404"/>
-      <c r="AX9" s="404"/>
-      <c r="AY9" s="404"/>
-      <c r="AZ9" s="404"/>
-      <c r="BA9" s="404"/>
-      <c r="BB9" s="404"/>
-      <c r="BC9" s="405"/>
+      <c r="AI9" s="400"/>
+      <c r="AJ9" s="400"/>
+      <c r="AK9" s="400"/>
+      <c r="AL9" s="400"/>
+      <c r="AM9" s="400"/>
+      <c r="AN9" s="400"/>
+      <c r="AO9" s="400"/>
+      <c r="AP9" s="400"/>
+      <c r="AQ9" s="400"/>
+      <c r="AR9" s="400"/>
+      <c r="AS9" s="400"/>
+      <c r="AT9" s="400"/>
+      <c r="AU9" s="400"/>
+      <c r="AV9" s="400"/>
+      <c r="AW9" s="400"/>
+      <c r="AX9" s="400"/>
+      <c r="AY9" s="400"/>
+      <c r="AZ9" s="400"/>
+      <c r="BA9" s="400"/>
+      <c r="BB9" s="400"/>
+      <c r="BC9" s="401"/>
     </row>
     <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="394">
+      <c r="A10" s="134">
         <v>3</v>
       </c>
-      <c r="B10" s="395" t="s">
+      <c r="B10" s="402" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="396"/>
-      <c r="D10" s="396"/>
-      <c r="E10" s="396"/>
-      <c r="F10" s="396"/>
-      <c r="G10" s="396"/>
-      <c r="H10" s="396"/>
-      <c r="I10" s="396"/>
-      <c r="J10" s="396"/>
-      <c r="K10" s="396"/>
-      <c r="L10" s="396"/>
-      <c r="M10" s="396"/>
-      <c r="N10" s="396"/>
-      <c r="O10" s="396"/>
-      <c r="P10" s="389" t="s">
+      <c r="C10" s="403"/>
+      <c r="D10" s="403"/>
+      <c r="E10" s="403"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="403"/>
+      <c r="H10" s="403"/>
+      <c r="I10" s="403"/>
+      <c r="J10" s="403"/>
+      <c r="K10" s="403"/>
+      <c r="L10" s="403"/>
+      <c r="M10" s="403"/>
+      <c r="N10" s="403"/>
+      <c r="O10" s="403"/>
+      <c r="P10" s="393" t="s">
         <v>93</v>
       </c>
-      <c r="Q10" s="389"/>
-      <c r="R10" s="389"/>
-      <c r="S10" s="389"/>
-      <c r="T10" s="389"/>
-      <c r="U10" s="389"/>
-      <c r="V10" s="389"/>
-      <c r="W10" s="389"/>
-      <c r="X10" s="389"/>
-      <c r="Y10" s="389"/>
-      <c r="Z10" s="389"/>
-      <c r="AA10" s="389"/>
-      <c r="AB10" s="389"/>
-      <c r="AC10" s="389"/>
-      <c r="AD10" s="389"/>
-      <c r="AE10" s="389"/>
-      <c r="AF10" s="389"/>
-      <c r="AG10" s="389"/>
-      <c r="AH10" s="406" t="s">
+      <c r="Q10" s="393"/>
+      <c r="R10" s="393"/>
+      <c r="S10" s="393"/>
+      <c r="T10" s="393"/>
+      <c r="U10" s="393"/>
+      <c r="V10" s="393"/>
+      <c r="W10" s="393"/>
+      <c r="X10" s="393"/>
+      <c r="Y10" s="393"/>
+      <c r="Z10" s="393"/>
+      <c r="AA10" s="393"/>
+      <c r="AB10" s="393"/>
+      <c r="AC10" s="393"/>
+      <c r="AD10" s="393"/>
+      <c r="AE10" s="393"/>
+      <c r="AF10" s="393"/>
+      <c r="AG10" s="393"/>
+      <c r="AH10" s="404" t="s">
         <v>94</v>
       </c>
-      <c r="AI10" s="406"/>
-      <c r="AJ10" s="406"/>
-      <c r="AK10" s="406"/>
-      <c r="AL10" s="406"/>
-      <c r="AM10" s="406"/>
-      <c r="AN10" s="406"/>
-      <c r="AO10" s="406"/>
-      <c r="AP10" s="406"/>
-      <c r="AQ10" s="406"/>
-      <c r="AR10" s="406"/>
-      <c r="AS10" s="406"/>
-      <c r="AT10" s="406"/>
-      <c r="AU10" s="406"/>
-      <c r="AV10" s="406"/>
-      <c r="AW10" s="406"/>
-      <c r="AX10" s="406"/>
-      <c r="AY10" s="406"/>
-      <c r="AZ10" s="406"/>
-      <c r="BA10" s="406"/>
-      <c r="BB10" s="406"/>
-      <c r="BC10" s="407"/>
+      <c r="AI10" s="404"/>
+      <c r="AJ10" s="404"/>
+      <c r="AK10" s="404"/>
+      <c r="AL10" s="404"/>
+      <c r="AM10" s="404"/>
+      <c r="AN10" s="404"/>
+      <c r="AO10" s="404"/>
+      <c r="AP10" s="404"/>
+      <c r="AQ10" s="404"/>
+      <c r="AR10" s="404"/>
+      <c r="AS10" s="404"/>
+      <c r="AT10" s="404"/>
+      <c r="AU10" s="404"/>
+      <c r="AV10" s="404"/>
+      <c r="AW10" s="404"/>
+      <c r="AX10" s="404"/>
+      <c r="AY10" s="404"/>
+      <c r="AZ10" s="404"/>
+      <c r="BA10" s="404"/>
+      <c r="BB10" s="404"/>
+      <c r="BC10" s="405"/>
     </row>
     <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="397">
+      <c r="A11" s="135">
         <v>4</v>
       </c>
-      <c r="B11" s="398" t="s">
+      <c r="B11" s="390" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="399"/>
-      <c r="D11" s="399"/>
-      <c r="E11" s="399"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="399"/>
-      <c r="H11" s="399"/>
-      <c r="I11" s="399"/>
-      <c r="J11" s="399"/>
-      <c r="K11" s="399"/>
-      <c r="L11" s="399"/>
-      <c r="M11" s="399"/>
-      <c r="N11" s="399"/>
-      <c r="O11" s="400"/>
-      <c r="P11" s="389" t="s">
+      <c r="C11" s="391"/>
+      <c r="D11" s="391"/>
+      <c r="E11" s="391"/>
+      <c r="F11" s="391"/>
+      <c r="G11" s="391"/>
+      <c r="H11" s="391"/>
+      <c r="I11" s="391"/>
+      <c r="J11" s="391"/>
+      <c r="K11" s="391"/>
+      <c r="L11" s="391"/>
+      <c r="M11" s="391"/>
+      <c r="N11" s="391"/>
+      <c r="O11" s="392"/>
+      <c r="P11" s="393" t="s">
         <v>95</v>
       </c>
-      <c r="Q11" s="389"/>
-      <c r="R11" s="389"/>
-      <c r="S11" s="389"/>
-      <c r="T11" s="389"/>
-      <c r="U11" s="389"/>
-      <c r="V11" s="389"/>
-      <c r="W11" s="389"/>
-      <c r="X11" s="389"/>
-      <c r="Y11" s="389"/>
-      <c r="Z11" s="389"/>
-      <c r="AA11" s="389"/>
-      <c r="AB11" s="389"/>
-      <c r="AC11" s="389"/>
-      <c r="AD11" s="389"/>
-      <c r="AE11" s="389"/>
-      <c r="AF11" s="389"/>
-      <c r="AG11" s="389"/>
-      <c r="AH11" s="390" t="s">
+      <c r="Q11" s="393"/>
+      <c r="R11" s="393"/>
+      <c r="S11" s="393"/>
+      <c r="T11" s="393"/>
+      <c r="U11" s="393"/>
+      <c r="V11" s="393"/>
+      <c r="W11" s="393"/>
+      <c r="X11" s="393"/>
+      <c r="Y11" s="393"/>
+      <c r="Z11" s="393"/>
+      <c r="AA11" s="393"/>
+      <c r="AB11" s="393"/>
+      <c r="AC11" s="393"/>
+      <c r="AD11" s="393"/>
+      <c r="AE11" s="393"/>
+      <c r="AF11" s="393"/>
+      <c r="AG11" s="393"/>
+      <c r="AH11" s="394" t="s">
         <v>96</v>
       </c>
-      <c r="AI11" s="390"/>
-      <c r="AJ11" s="390"/>
-      <c r="AK11" s="390"/>
-      <c r="AL11" s="390"/>
-      <c r="AM11" s="390"/>
-      <c r="AN11" s="390"/>
-      <c r="AO11" s="390"/>
-      <c r="AP11" s="390"/>
-      <c r="AQ11" s="390"/>
-      <c r="AR11" s="390"/>
-      <c r="AS11" s="390"/>
-      <c r="AT11" s="390"/>
-      <c r="AU11" s="390"/>
-      <c r="AV11" s="390"/>
-      <c r="AW11" s="390"/>
-      <c r="AX11" s="390"/>
-      <c r="AY11" s="390"/>
-      <c r="AZ11" s="390"/>
-      <c r="BA11" s="390"/>
-      <c r="BB11" s="390"/>
-      <c r="BC11" s="391"/>
+      <c r="AI11" s="394"/>
+      <c r="AJ11" s="394"/>
+      <c r="AK11" s="394"/>
+      <c r="AL11" s="394"/>
+      <c r="AM11" s="394"/>
+      <c r="AN11" s="394"/>
+      <c r="AO11" s="394"/>
+      <c r="AP11" s="394"/>
+      <c r="AQ11" s="394"/>
+      <c r="AR11" s="394"/>
+      <c r="AS11" s="394"/>
+      <c r="AT11" s="394"/>
+      <c r="AU11" s="394"/>
+      <c r="AV11" s="394"/>
+      <c r="AW11" s="394"/>
+      <c r="AX11" s="394"/>
+      <c r="AY11" s="394"/>
+      <c r="AZ11" s="394"/>
+      <c r="BA11" s="394"/>
+      <c r="BB11" s="394"/>
+      <c r="BC11" s="395"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="P11:AG11"/>
-    <mergeCell ref="AH11:BC11"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="P9:AG9"/>
-    <mergeCell ref="AH9:BC9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="P10:AG10"/>
-    <mergeCell ref="AH10:BC10"/>
-    <mergeCell ref="AX5:BC5"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="P7:AG7"/>
-    <mergeCell ref="AH7:BC7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="P8:AG8"/>
-    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AK4"/>
     <mergeCell ref="AO4:AT4"/>
     <mergeCell ref="AU4:AW4"/>
     <mergeCell ref="AX4:BC4"/>
@@ -14800,12 +14786,23 @@
     <mergeCell ref="AL5:AN5"/>
     <mergeCell ref="AO5:AT5"/>
     <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AK4"/>
     <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AX5:BC5"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="P7:AG7"/>
+    <mergeCell ref="AH7:BC7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="P8:AG8"/>
+    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="P11:AG11"/>
+    <mergeCell ref="AH11:BC11"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="P9:AG9"/>
+    <mergeCell ref="AH9:BC9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="P10:AG10"/>
+    <mergeCell ref="AH10:BC10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
